--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -11,15 +11,14 @@
     <sheet name="grondwaterlocatie" sheetId="2" r:id="rId2"/>
     <sheet name="filter" sheetId="3" r:id="rId3"/>
     <sheet name="filtermeting" sheetId="4" r:id="rId4"/>
-    <sheet name="filterdebietmeter" sheetId="5" r:id="rId5"/>
-    <sheet name="opdracht" sheetId="6" r:id="rId6"/>
+    <sheet name="opdracht" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8515" uniqueCount="3080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8473" uniqueCount="3070">
   <si>
     <t>identificatie</t>
   </si>
@@ -8986,36 +8985,6 @@
   </si>
   <si>
     <t>filtermeting</t>
-  </si>
-  <si>
-    <t>debietmeter-serienummer</t>
-  </si>
-  <si>
-    <t>serienummer</t>
-  </si>
-  <si>
-    <t>debietmeter-merk</t>
-  </si>
-  <si>
-    <t>merk</t>
-  </si>
-  <si>
-    <t>debietmeter-datum_ijking</t>
-  </si>
-  <si>
-    <t>datum_ijking</t>
-  </si>
-  <si>
-    <t>debietmeter-datum_wegname</t>
-  </si>
-  <si>
-    <t>datum_wegname</t>
-  </si>
-  <si>
-    <t>debietmeter</t>
-  </si>
-  <si>
-    <t>filterdebietmeter</t>
   </si>
   <si>
     <t>opdrachtgever-choice_1-naam</t>
@@ -9953,7 +9922,7 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Table63" displayName="Table63" ref="DU3:DV10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Table63" displayName="Table63" ref="DU3:DV8" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9963,7 +9932,7 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Table64" displayName="Table64" ref="DW3:DX8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Table64" displayName="Table64" ref="DW3:DX17" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9973,7 +9942,7 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Table65" displayName="Table65" ref="DY3:DZ17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Table65" displayName="Table65" ref="DY3:DZ27" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9983,17 +9952,7 @@
 </file>
 
 <file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Table66" displayName="Table66" ref="EA3:EB27" totalsRowShown="0">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Code"/>
-    <tableColumn id="2" name="Beschrijving"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="Table67" displayName="Table67" ref="EC3:ED60" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Table66" displayName="Table66" ref="EA3:EB60" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -10317,16 +10276,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ED918"/>
+  <dimension ref="A1:EB918"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="135" width="10.7109375" customWidth="1"/>
+    <col min="1" max="133" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134">
+    <row r="1" spans="1:132">
       <c r="A1" s="1" t="s">
         <v>1007</v>
       </c>
@@ -10458,21 +10417,17 @@
       <c r="DS1" s="1"/>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1" t="s">
-        <v>2998</v>
+        <v>152</v>
       </c>
       <c r="DV1" s="1"/>
-      <c r="DW1" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
       <c r="DY1" s="1"/>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-    </row>
-    <row r="2" spans="1:134">
+    </row>
+    <row r="2" spans="1:132">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10722,27 +10677,23 @@
       </c>
       <c r="DT2" s="1"/>
       <c r="DU2" s="1" t="s">
-        <v>1569</v>
+        <v>153</v>
       </c>
       <c r="DV2" s="1"/>
       <c r="DW2" s="1" t="s">
-        <v>153</v>
+        <v>3029</v>
       </c>
       <c r="DX2" s="1"/>
       <c r="DY2" s="1" t="s">
-        <v>3039</v>
+        <v>3031</v>
       </c>
       <c r="DZ2" s="1"/>
       <c r="EA2" s="1" t="s">
-        <v>3041</v>
+        <v>166</v>
       </c>
       <c r="EB2" s="1"/>
-      <c r="EC2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="ED2" s="1"/>
-    </row>
-    <row r="3" spans="1:134">
+    </row>
+    <row r="3" spans="1:132">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -11139,14 +11090,8 @@
       <c r="EB3" t="s">
         <v>175</v>
       </c>
-      <c r="EC3" t="s">
-        <v>174</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:134">
+    </row>
+    <row r="4" spans="1:132">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -11520,37 +11465,31 @@
         <v>172</v>
       </c>
       <c r="DU4" t="s">
-        <v>1061</v>
+        <v>945</v>
       </c>
       <c r="DV4" t="s">
         <v>172</v>
       </c>
       <c r="DW4" t="s">
-        <v>945</v>
+        <v>3034</v>
       </c>
       <c r="DX4" t="s">
         <v>172</v>
       </c>
       <c r="DY4" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="DZ4" t="s">
         <v>172</v>
       </c>
       <c r="EA4" t="s">
-        <v>3057</v>
+        <v>950</v>
       </c>
       <c r="EB4" t="s">
         <v>172</v>
       </c>
-      <c r="EC4" t="s">
-        <v>950</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:134">
+    </row>
+    <row r="5" spans="1:132">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -11924,37 +11863,31 @@
         <v>172</v>
       </c>
       <c r="DU5" t="s">
-        <v>1062</v>
+        <v>946</v>
       </c>
       <c r="DV5" t="s">
         <v>172</v>
       </c>
       <c r="DW5" t="s">
-        <v>946</v>
+        <v>3035</v>
       </c>
       <c r="DX5" t="s">
         <v>172</v>
       </c>
       <c r="DY5" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="DZ5" t="s">
         <v>172</v>
       </c>
       <c r="EA5" t="s">
-        <v>3058</v>
+        <v>951</v>
       </c>
       <c r="EB5" t="s">
         <v>172</v>
       </c>
-      <c r="EC5" t="s">
-        <v>951</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:134">
+    </row>
+    <row r="6" spans="1:132">
       <c r="C6" t="s">
         <v>178</v>
       </c>
@@ -12316,37 +12249,31 @@
         <v>172</v>
       </c>
       <c r="DU6" t="s">
-        <v>1063</v>
+        <v>947</v>
       </c>
       <c r="DV6" t="s">
         <v>172</v>
       </c>
       <c r="DW6" t="s">
-        <v>947</v>
+        <v>3036</v>
       </c>
       <c r="DX6" t="s">
         <v>172</v>
       </c>
       <c r="DY6" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="DZ6" t="s">
         <v>172</v>
       </c>
       <c r="EA6" t="s">
-        <v>3059</v>
+        <v>952</v>
       </c>
       <c r="EB6" t="s">
         <v>172</v>
       </c>
-      <c r="EC6" t="s">
-        <v>952</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:134">
+    </row>
+    <row r="7" spans="1:132">
       <c r="C7" t="s">
         <v>179</v>
       </c>
@@ -12624,37 +12551,31 @@
         <v>172</v>
       </c>
       <c r="DU7" t="s">
-        <v>1064</v>
+        <v>948</v>
       </c>
       <c r="DV7" t="s">
         <v>172</v>
       </c>
       <c r="DW7" t="s">
-        <v>948</v>
+        <v>3037</v>
       </c>
       <c r="DX7" t="s">
         <v>172</v>
       </c>
       <c r="DY7" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="DZ7" t="s">
         <v>172</v>
       </c>
       <c r="EA7" t="s">
-        <v>3060</v>
+        <v>953</v>
       </c>
       <c r="EB7" t="s">
         <v>172</v>
       </c>
-      <c r="EC7" t="s">
-        <v>953</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:134">
+    </row>
+    <row r="8" spans="1:132">
       <c r="C8" t="s">
         <v>180</v>
       </c>
@@ -12914,37 +12835,31 @@
         <v>172</v>
       </c>
       <c r="DU8" t="s">
-        <v>1065</v>
+        <v>949</v>
       </c>
       <c r="DV8" t="s">
         <v>172</v>
       </c>
       <c r="DW8" t="s">
-        <v>949</v>
+        <v>3038</v>
       </c>
       <c r="DX8" t="s">
         <v>172</v>
       </c>
       <c r="DY8" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="DZ8" t="s">
         <v>172</v>
       </c>
       <c r="EA8" t="s">
-        <v>3061</v>
+        <v>954</v>
       </c>
       <c r="EB8" t="s">
         <v>172</v>
       </c>
-      <c r="EC8" t="s">
-        <v>954</v>
-      </c>
-      <c r="ED8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:134">
+    </row>
+    <row r="9" spans="1:132">
       <c r="C9" t="s">
         <v>181</v>
       </c>
@@ -13173,32 +13088,26 @@
       <c r="DP9" t="s">
         <v>172</v>
       </c>
-      <c r="DU9" t="s">
-        <v>1066</v>
-      </c>
-      <c r="DV9" t="s">
+      <c r="DW9" t="s">
+        <v>3039</v>
+      </c>
+      <c r="DX9" t="s">
         <v>172</v>
       </c>
       <c r="DY9" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="DZ9" t="s">
         <v>172</v>
       </c>
       <c r="EA9" t="s">
-        <v>3062</v>
+        <v>955</v>
       </c>
       <c r="EB9" t="s">
         <v>172</v>
       </c>
-      <c r="EC9" t="s">
-        <v>955</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:134">
+    </row>
+    <row r="10" spans="1:132">
       <c r="C10" t="s">
         <v>182</v>
       </c>
@@ -13415,32 +13324,26 @@
       <c r="DP10" t="s">
         <v>172</v>
       </c>
-      <c r="DU10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="DV10" t="s">
+      <c r="DW10" t="s">
+        <v>3040</v>
+      </c>
+      <c r="DX10" t="s">
         <v>172</v>
       </c>
       <c r="DY10" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="DZ10" t="s">
         <v>172</v>
       </c>
       <c r="EA10" t="s">
-        <v>3063</v>
+        <v>956</v>
       </c>
       <c r="EB10" t="s">
         <v>172</v>
       </c>
-      <c r="EC10" t="s">
-        <v>956</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:134">
+    </row>
+    <row r="11" spans="1:132">
       <c r="C11" t="s">
         <v>183</v>
       </c>
@@ -13639,26 +13542,26 @@
       <c r="DP11" t="s">
         <v>172</v>
       </c>
+      <c r="DW11" t="s">
+        <v>3041</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>172</v>
+      </c>
       <c r="DY11" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="DZ11" t="s">
         <v>172</v>
       </c>
       <c r="EA11" t="s">
-        <v>3064</v>
+        <v>957</v>
       </c>
       <c r="EB11" t="s">
         <v>172</v>
       </c>
-      <c r="EC11" t="s">
-        <v>957</v>
-      </c>
-      <c r="ED11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:134">
+    </row>
+    <row r="12" spans="1:132">
       <c r="C12" t="s">
         <v>184</v>
       </c>
@@ -13839,26 +13742,26 @@
       <c r="DP12" t="s">
         <v>172</v>
       </c>
+      <c r="DW12" t="s">
+        <v>3042</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>172</v>
+      </c>
       <c r="DY12" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="DZ12" t="s">
         <v>172</v>
       </c>
       <c r="EA12" t="s">
-        <v>3065</v>
+        <v>958</v>
       </c>
       <c r="EB12" t="s">
         <v>172</v>
       </c>
-      <c r="EC12" t="s">
-        <v>958</v>
-      </c>
-      <c r="ED12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:134">
+    </row>
+    <row r="13" spans="1:132">
       <c r="C13" t="s">
         <v>185</v>
       </c>
@@ -14009,26 +13912,26 @@
       <c r="DL13" t="s">
         <v>172</v>
       </c>
+      <c r="DW13" t="s">
+        <v>3043</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>172</v>
+      </c>
       <c r="DY13" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="DZ13" t="s">
         <v>172</v>
       </c>
       <c r="EA13" t="s">
-        <v>3066</v>
+        <v>959</v>
       </c>
       <c r="EB13" t="s">
         <v>172</v>
       </c>
-      <c r="EC13" t="s">
-        <v>959</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:134">
+    </row>
+    <row r="14" spans="1:132">
       <c r="C14" t="s">
         <v>186</v>
       </c>
@@ -14173,26 +14076,26 @@
       <c r="DL14" t="s">
         <v>172</v>
       </c>
+      <c r="DW14" t="s">
+        <v>3044</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>172</v>
+      </c>
       <c r="DY14" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="DZ14" t="s">
         <v>172</v>
       </c>
       <c r="EA14" t="s">
-        <v>3067</v>
+        <v>960</v>
       </c>
       <c r="EB14" t="s">
         <v>172</v>
       </c>
-      <c r="EC14" t="s">
-        <v>960</v>
-      </c>
-      <c r="ED14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:134">
+    </row>
+    <row r="15" spans="1:132">
       <c r="C15" t="s">
         <v>187</v>
       </c>
@@ -14337,26 +14240,26 @@
       <c r="DL15" t="s">
         <v>172</v>
       </c>
+      <c r="DW15" t="s">
+        <v>3045</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>172</v>
+      </c>
       <c r="DY15" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="DZ15" t="s">
         <v>172</v>
       </c>
       <c r="EA15" t="s">
-        <v>3068</v>
+        <v>961</v>
       </c>
       <c r="EB15" t="s">
         <v>172</v>
       </c>
-      <c r="EC15" t="s">
-        <v>961</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:134">
+    </row>
+    <row r="16" spans="1:132">
       <c r="C16" t="s">
         <v>188</v>
       </c>
@@ -14501,26 +14404,26 @@
       <c r="DL16" t="s">
         <v>172</v>
       </c>
+      <c r="DW16" t="s">
+        <v>3046</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>172</v>
+      </c>
       <c r="DY16" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="DZ16" t="s">
         <v>172</v>
       </c>
       <c r="EA16" t="s">
-        <v>3069</v>
+        <v>962</v>
       </c>
       <c r="EB16" t="s">
         <v>172</v>
       </c>
-      <c r="EC16" t="s">
-        <v>962</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="7:134">
+    </row>
+    <row r="17" spans="7:132">
       <c r="G17" t="s">
         <v>208</v>
       </c>
@@ -14659,26 +14562,26 @@
       <c r="DL17" t="s">
         <v>172</v>
       </c>
+      <c r="DW17" t="s">
+        <v>952</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>172</v>
+      </c>
       <c r="DY17" t="s">
-        <v>952</v>
+        <v>3060</v>
       </c>
       <c r="DZ17" t="s">
         <v>172</v>
       </c>
       <c r="EA17" t="s">
-        <v>3070</v>
+        <v>963</v>
       </c>
       <c r="EB17" t="s">
         <v>172</v>
       </c>
-      <c r="EC17" t="s">
-        <v>963</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="7:134">
+    </row>
+    <row r="18" spans="7:132">
       <c r="I18" t="s">
         <v>238</v>
       </c>
@@ -14799,20 +14702,20 @@
       <c r="DL18" t="s">
         <v>172</v>
       </c>
+      <c r="DY18" t="s">
+        <v>3061</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>172</v>
+      </c>
       <c r="EA18" t="s">
-        <v>3071</v>
+        <v>964</v>
       </c>
       <c r="EB18" t="s">
         <v>172</v>
       </c>
-      <c r="EC18" t="s">
-        <v>964</v>
-      </c>
-      <c r="ED18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="7:134">
+    </row>
+    <row r="19" spans="7:132">
       <c r="I19" t="s">
         <v>240</v>
       </c>
@@ -14927,20 +14830,20 @@
       <c r="DL19" t="s">
         <v>172</v>
       </c>
+      <c r="DY19" t="s">
+        <v>3062</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>172</v>
+      </c>
       <c r="EA19" t="s">
-        <v>3072</v>
+        <v>965</v>
       </c>
       <c r="EB19" t="s">
         <v>172</v>
       </c>
-      <c r="EC19" t="s">
-        <v>965</v>
-      </c>
-      <c r="ED19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="7:134">
+    </row>
+    <row r="20" spans="7:132">
       <c r="I20" t="s">
         <v>242</v>
       </c>
@@ -15055,20 +14958,20 @@
       <c r="DL20" t="s">
         <v>172</v>
       </c>
+      <c r="DY20" t="s">
+        <v>3063</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>172</v>
+      </c>
       <c r="EA20" t="s">
-        <v>3073</v>
+        <v>966</v>
       </c>
       <c r="EB20" t="s">
         <v>172</v>
       </c>
-      <c r="EC20" t="s">
-        <v>966</v>
-      </c>
-      <c r="ED20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="7:134">
+    </row>
+    <row r="21" spans="7:132">
       <c r="I21" t="s">
         <v>244</v>
       </c>
@@ -15159,20 +15062,20 @@
       <c r="DL21" t="s">
         <v>172</v>
       </c>
+      <c r="DY21" t="s">
+        <v>3064</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>172</v>
+      </c>
       <c r="EA21" t="s">
-        <v>3074</v>
+        <v>967</v>
       </c>
       <c r="EB21" t="s">
         <v>172</v>
       </c>
-      <c r="EC21" t="s">
-        <v>967</v>
-      </c>
-      <c r="ED21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="7:134">
+    </row>
+    <row r="22" spans="7:132">
       <c r="I22" t="s">
         <v>246</v>
       </c>
@@ -15263,20 +15166,20 @@
       <c r="DL22" t="s">
         <v>172</v>
       </c>
+      <c r="DY22" t="s">
+        <v>3065</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>172</v>
+      </c>
       <c r="EA22" t="s">
-        <v>3075</v>
+        <v>968</v>
       </c>
       <c r="EB22" t="s">
         <v>172</v>
       </c>
-      <c r="EC22" t="s">
-        <v>968</v>
-      </c>
-      <c r="ED22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="7:134">
+    </row>
+    <row r="23" spans="7:132">
       <c r="I23" t="s">
         <v>248</v>
       </c>
@@ -15367,20 +15270,20 @@
       <c r="DL23" t="s">
         <v>172</v>
       </c>
+      <c r="DY23" t="s">
+        <v>1871</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>172</v>
+      </c>
       <c r="EA23" t="s">
-        <v>1871</v>
+        <v>969</v>
       </c>
       <c r="EB23" t="s">
         <v>172</v>
       </c>
-      <c r="EC23" t="s">
-        <v>969</v>
-      </c>
-      <c r="ED23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="7:134">
+    </row>
+    <row r="24" spans="7:132">
       <c r="I24" t="s">
         <v>250</v>
       </c>
@@ -15459,20 +15362,20 @@
       <c r="DL24" t="s">
         <v>172</v>
       </c>
+      <c r="DY24" t="s">
+        <v>3066</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>172</v>
+      </c>
       <c r="EA24" t="s">
-        <v>3076</v>
+        <v>970</v>
       </c>
       <c r="EB24" t="s">
         <v>172</v>
       </c>
-      <c r="EC24" t="s">
-        <v>970</v>
-      </c>
-      <c r="ED24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="7:134">
+    </row>
+    <row r="25" spans="7:132">
       <c r="I25" t="s">
         <v>252</v>
       </c>
@@ -15551,20 +15454,20 @@
       <c r="DL25" t="s">
         <v>172</v>
       </c>
+      <c r="DY25" t="s">
+        <v>3067</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>172</v>
+      </c>
       <c r="EA25" t="s">
-        <v>3077</v>
+        <v>971</v>
       </c>
       <c r="EB25" t="s">
         <v>172</v>
       </c>
-      <c r="EC25" t="s">
-        <v>971</v>
-      </c>
-      <c r="ED25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="7:134">
+    </row>
+    <row r="26" spans="7:132">
       <c r="I26" t="s">
         <v>254</v>
       </c>
@@ -15637,20 +15540,20 @@
       <c r="DL26" t="s">
         <v>172</v>
       </c>
+      <c r="DY26" t="s">
+        <v>3068</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>172</v>
+      </c>
       <c r="EA26" t="s">
-        <v>3078</v>
+        <v>972</v>
       </c>
       <c r="EB26" t="s">
         <v>172</v>
       </c>
-      <c r="EC26" t="s">
-        <v>972</v>
-      </c>
-      <c r="ED26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="7:134">
+    </row>
+    <row r="27" spans="7:132">
       <c r="I27" t="s">
         <v>256</v>
       </c>
@@ -15723,20 +15626,20 @@
       <c r="DL27" t="s">
         <v>172</v>
       </c>
+      <c r="DY27" t="s">
+        <v>3069</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>172</v>
+      </c>
       <c r="EA27" t="s">
-        <v>3079</v>
+        <v>973</v>
       </c>
       <c r="EB27" t="s">
         <v>172</v>
       </c>
-      <c r="EC27" t="s">
-        <v>973</v>
-      </c>
-      <c r="ED27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="7:134">
+    </row>
+    <row r="28" spans="7:132">
       <c r="I28" t="s">
         <v>258</v>
       </c>
@@ -15809,14 +15712,14 @@
       <c r="DL28" t="s">
         <v>172</v>
       </c>
-      <c r="EC28" t="s">
+      <c r="EA28" t="s">
         <v>974</v>
       </c>
-      <c r="ED28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="7:134">
+      <c r="EB28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="7:132">
       <c r="I29" t="s">
         <v>260</v>
       </c>
@@ -15889,14 +15792,14 @@
       <c r="DL29" t="s">
         <v>172</v>
       </c>
-      <c r="EC29" t="s">
+      <c r="EA29" t="s">
         <v>975</v>
       </c>
-      <c r="ED29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="7:134">
+      <c r="EB29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="7:132">
       <c r="I30" t="s">
         <v>262</v>
       </c>
@@ -15969,14 +15872,14 @@
       <c r="DL30" t="s">
         <v>172</v>
       </c>
-      <c r="EC30" t="s">
+      <c r="EA30" t="s">
         <v>976</v>
       </c>
-      <c r="ED30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="7:134">
+      <c r="EB30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="7:132">
       <c r="I31" t="s">
         <v>264</v>
       </c>
@@ -16049,14 +15952,14 @@
       <c r="DL31" t="s">
         <v>172</v>
       </c>
-      <c r="EC31" t="s">
+      <c r="EA31" t="s">
         <v>977</v>
       </c>
-      <c r="ED31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="7:134">
+      <c r="EB31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="7:132">
       <c r="I32" t="s">
         <v>266</v>
       </c>
@@ -16129,14 +16032,14 @@
       <c r="DL32" t="s">
         <v>172</v>
       </c>
-      <c r="EC32" t="s">
+      <c r="EA32" t="s">
         <v>978</v>
       </c>
-      <c r="ED32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="9:134">
+      <c r="EB32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="9:132">
       <c r="I33" t="s">
         <v>268</v>
       </c>
@@ -16209,14 +16112,14 @@
       <c r="DL33" t="s">
         <v>172</v>
       </c>
-      <c r="EC33" t="s">
+      <c r="EA33" t="s">
         <v>979</v>
       </c>
-      <c r="ED33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="9:134">
+      <c r="EB33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="9:132">
       <c r="I34" t="s">
         <v>270</v>
       </c>
@@ -16289,14 +16192,14 @@
       <c r="DL34" t="s">
         <v>172</v>
       </c>
-      <c r="EC34" t="s">
+      <c r="EA34" t="s">
         <v>980</v>
       </c>
-      <c r="ED34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="9:134">
+      <c r="EB34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="9:132">
       <c r="I35" t="s">
         <v>272</v>
       </c>
@@ -16369,14 +16272,14 @@
       <c r="DL35" t="s">
         <v>172</v>
       </c>
-      <c r="EC35" t="s">
+      <c r="EA35" t="s">
         <v>981</v>
       </c>
-      <c r="ED35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="9:134">
+      <c r="EB35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="9:132">
       <c r="I36" t="s">
         <v>274</v>
       </c>
@@ -16449,14 +16352,14 @@
       <c r="DL36" t="s">
         <v>172</v>
       </c>
-      <c r="EC36" t="s">
+      <c r="EA36" t="s">
         <v>982</v>
       </c>
-      <c r="ED36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="9:134">
+      <c r="EB36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="9:132">
       <c r="I37" t="s">
         <v>276</v>
       </c>
@@ -16529,14 +16432,14 @@
       <c r="DL37" t="s">
         <v>172</v>
       </c>
-      <c r="EC37" t="s">
+      <c r="EA37" t="s">
         <v>983</v>
       </c>
-      <c r="ED37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="9:134">
+      <c r="EB37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="9:132">
       <c r="I38" t="s">
         <v>278</v>
       </c>
@@ -16609,14 +16512,14 @@
       <c r="DL38" t="s">
         <v>172</v>
       </c>
-      <c r="EC38" t="s">
+      <c r="EA38" t="s">
         <v>984</v>
       </c>
-      <c r="ED38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="9:134">
+      <c r="EB38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="9:132">
       <c r="I39" t="s">
         <v>280</v>
       </c>
@@ -16689,14 +16592,14 @@
       <c r="DL39" t="s">
         <v>172</v>
       </c>
-      <c r="EC39" t="s">
+      <c r="EA39" t="s">
         <v>985</v>
       </c>
-      <c r="ED39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="9:134">
+      <c r="EB39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="9:132">
       <c r="I40" t="s">
         <v>282</v>
       </c>
@@ -16769,14 +16672,14 @@
       <c r="DL40" t="s">
         <v>172</v>
       </c>
-      <c r="EC40" t="s">
+      <c r="EA40" t="s">
         <v>986</v>
       </c>
-      <c r="ED40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="9:134">
+      <c r="EB40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="9:132">
       <c r="I41" t="s">
         <v>284</v>
       </c>
@@ -16849,14 +16752,14 @@
       <c r="DL41" t="s">
         <v>172</v>
       </c>
-      <c r="EC41" t="s">
+      <c r="EA41" t="s">
         <v>987</v>
       </c>
-      <c r="ED41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="9:134">
+      <c r="EB41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="9:132">
       <c r="I42" t="s">
         <v>286</v>
       </c>
@@ -16929,14 +16832,14 @@
       <c r="DL42" t="s">
         <v>172</v>
       </c>
-      <c r="EC42" t="s">
+      <c r="EA42" t="s">
         <v>988</v>
       </c>
-      <c r="ED42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="9:134">
+      <c r="EB42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="9:132">
       <c r="I43" t="s">
         <v>288</v>
       </c>
@@ -17009,14 +16912,14 @@
       <c r="DL43" t="s">
         <v>172</v>
       </c>
-      <c r="EC43" t="s">
+      <c r="EA43" t="s">
         <v>989</v>
       </c>
-      <c r="ED43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="9:134">
+      <c r="EB43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="9:132">
       <c r="I44" t="s">
         <v>290</v>
       </c>
@@ -17089,14 +16992,14 @@
       <c r="DL44" t="s">
         <v>172</v>
       </c>
-      <c r="EC44" t="s">
+      <c r="EA44" t="s">
         <v>990</v>
       </c>
-      <c r="ED44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="9:134">
+      <c r="EB44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="9:132">
       <c r="I45" t="s">
         <v>292</v>
       </c>
@@ -17169,14 +17072,14 @@
       <c r="DL45" t="s">
         <v>172</v>
       </c>
-      <c r="EC45" t="s">
+      <c r="EA45" t="s">
         <v>991</v>
       </c>
-      <c r="ED45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="9:134">
+      <c r="EB45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="9:132">
       <c r="I46" t="s">
         <v>294</v>
       </c>
@@ -17249,14 +17152,14 @@
       <c r="DL46" t="s">
         <v>172</v>
       </c>
-      <c r="EC46" t="s">
+      <c r="EA46" t="s">
         <v>992</v>
       </c>
-      <c r="ED46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="9:134">
+      <c r="EB46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="9:132">
       <c r="I47" t="s">
         <v>296</v>
       </c>
@@ -17329,14 +17232,14 @@
       <c r="DL47" t="s">
         <v>172</v>
       </c>
-      <c r="EC47" t="s">
+      <c r="EA47" t="s">
         <v>993</v>
       </c>
-      <c r="ED47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="9:134">
+      <c r="EB47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="9:132">
       <c r="I48" t="s">
         <v>298</v>
       </c>
@@ -17409,14 +17312,14 @@
       <c r="DL48" t="s">
         <v>172</v>
       </c>
-      <c r="EC48" t="s">
+      <c r="EA48" t="s">
         <v>994</v>
       </c>
-      <c r="ED48" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="9:134">
+      <c r="EB48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="9:132">
       <c r="I49" t="s">
         <v>300</v>
       </c>
@@ -17489,14 +17392,14 @@
       <c r="DL49" t="s">
         <v>172</v>
       </c>
-      <c r="EC49" t="s">
+      <c r="EA49" t="s">
         <v>995</v>
       </c>
-      <c r="ED49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="9:134">
+      <c r="EB49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="9:132">
       <c r="I50" t="s">
         <v>302</v>
       </c>
@@ -17569,14 +17472,14 @@
       <c r="DL50" t="s">
         <v>172</v>
       </c>
-      <c r="EC50" t="s">
+      <c r="EA50" t="s">
         <v>996</v>
       </c>
-      <c r="ED50" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="9:134">
+      <c r="EB50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="9:132">
       <c r="I51" t="s">
         <v>304</v>
       </c>
@@ -17649,14 +17552,14 @@
       <c r="DL51" t="s">
         <v>172</v>
       </c>
-      <c r="EC51" t="s">
+      <c r="EA51" t="s">
         <v>997</v>
       </c>
-      <c r="ED51" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="9:134">
+      <c r="EB51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="9:132">
       <c r="I52" t="s">
         <v>306</v>
       </c>
@@ -17723,14 +17626,14 @@
       <c r="DL52" t="s">
         <v>172</v>
       </c>
-      <c r="EC52" t="s">
+      <c r="EA52" t="s">
         <v>998</v>
       </c>
-      <c r="ED52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="9:134">
+      <c r="EB52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="9:132">
       <c r="I53" t="s">
         <v>308</v>
       </c>
@@ -17797,14 +17700,14 @@
       <c r="DL53" t="s">
         <v>172</v>
       </c>
-      <c r="EC53" t="s">
+      <c r="EA53" t="s">
         <v>999</v>
       </c>
-      <c r="ED53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="9:134">
+      <c r="EB53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="9:132">
       <c r="I54" t="s">
         <v>310</v>
       </c>
@@ -17871,14 +17774,14 @@
       <c r="DL54" t="s">
         <v>172</v>
       </c>
-      <c r="EC54" t="s">
+      <c r="EA54" t="s">
         <v>1000</v>
       </c>
-      <c r="ED54" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="9:134">
+      <c r="EB54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="9:132">
       <c r="I55" t="s">
         <v>312</v>
       </c>
@@ -17945,14 +17848,14 @@
       <c r="DL55" t="s">
         <v>172</v>
       </c>
-      <c r="EC55" t="s">
+      <c r="EA55" t="s">
         <v>1001</v>
       </c>
-      <c r="ED55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="9:134">
+      <c r="EB55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="9:132">
       <c r="I56" t="s">
         <v>314</v>
       </c>
@@ -18019,14 +17922,14 @@
       <c r="DL56" t="s">
         <v>172</v>
       </c>
-      <c r="EC56" t="s">
+      <c r="EA56" t="s">
         <v>1002</v>
       </c>
-      <c r="ED56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="9:134">
+      <c r="EB56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="9:132">
       <c r="I57" t="s">
         <v>316</v>
       </c>
@@ -18093,14 +17996,14 @@
       <c r="DL57" t="s">
         <v>172</v>
       </c>
-      <c r="EC57" t="s">
+      <c r="EA57" t="s">
         <v>1003</v>
       </c>
-      <c r="ED57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="9:134">
+      <c r="EB57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="9:132">
       <c r="I58" t="s">
         <v>318</v>
       </c>
@@ -18167,14 +18070,14 @@
       <c r="DL58" t="s">
         <v>172</v>
       </c>
-      <c r="EC58" t="s">
+      <c r="EA58" t="s">
         <v>1004</v>
       </c>
-      <c r="ED58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="9:134">
+      <c r="EB58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="9:132">
       <c r="I59" t="s">
         <v>320</v>
       </c>
@@ -18241,14 +18144,14 @@
       <c r="DL59" t="s">
         <v>172</v>
       </c>
-      <c r="EC59" t="s">
+      <c r="EA59" t="s">
         <v>1005</v>
       </c>
-      <c r="ED59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="9:134">
+      <c r="EB59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="9:132">
       <c r="I60" t="s">
         <v>322</v>
       </c>
@@ -18315,14 +18218,14 @@
       <c r="DL60" t="s">
         <v>172</v>
       </c>
-      <c r="EC60" t="s">
+      <c r="EA60" t="s">
         <v>1006</v>
       </c>
-      <c r="ED60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="9:134">
+      <c r="EB60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="9:132">
       <c r="I61" t="s">
         <v>324</v>
       </c>
@@ -18372,7 +18275,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="9:134">
+    <row r="62" spans="9:132">
       <c r="I62" t="s">
         <v>326</v>
       </c>
@@ -18422,7 +18325,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="9:134">
+    <row r="63" spans="9:132">
       <c r="I63" t="s">
         <v>328</v>
       </c>
@@ -18472,7 +18375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="9:134">
+    <row r="64" spans="9:132">
       <c r="I64" t="s">
         <v>330</v>
       </c>
@@ -33557,7 +33460,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="70">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -33624,15 +33527,13 @@
     <mergeCell ref="DS2:DT2"/>
     <mergeCell ref="BQ1:DT1"/>
     <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DU1:DV1"/>
     <mergeCell ref="DW2:DX2"/>
     <mergeCell ref="DY2:DZ2"/>
     <mergeCell ref="EA2:EB2"/>
-    <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="DW1:ED1"/>
+    <mergeCell ref="DU1:EB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="67">
+  <tableParts count="66">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -33699,7 +33600,6 @@
     <tablePart r:id="rId64"/>
     <tablePart r:id="rId65"/>
     <tablePart r:id="rId66"/>
-    <tablePart r:id="rId67"/>
   </tableParts>
 </worksheet>
 </file>
@@ -38917,127 +38817,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="2" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" hidden="1">
-      <c r="A1" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1">
-      <c r="A2" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1" t="s">
-        <v>2997</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" hidden="1">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2992</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2994</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1000001">
-      <formula1>'Codelijsten'!$DU$4:$DU$10</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1000001">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1000001">
-      <formula1>1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C4" location="'Codelijsten'!$DU$2" display="filter-filtertype"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39106,58 +38885,58 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>2999</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>3000</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>3007</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3009</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>3010</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>3016</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3017</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -39166,58 +38945,58 @@
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3019</v>
+        <v>3009</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>3022</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>3024</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>3030</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>3034</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>152</v>
@@ -39273,7 +39052,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3008</v>
+        <v>2998</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -39284,7 +39063,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>3018</v>
+        <v>3008</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -39299,10 +39078,10 @@
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>3019</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>3029</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -39313,20 +39092,20 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>3036</v>
+        <v>3026</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -39400,19 +39179,19 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AH3" s="4" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>3035</v>
+        <v>3025</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>143</v>
@@ -39580,58 +39359,58 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>3008</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>3000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>3007</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>3018</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>3010</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>3016</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>3017</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>4</v>
@@ -39640,58 +39419,58 @@
         <v>6</v>
       </c>
       <c r="V6" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>3029</v>
-      </c>
       <c r="X6" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>3022</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>3024</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>3030</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>3034</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>152</v>
@@ -39773,13 +39552,13 @@
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
-      <formula1>'Codelijsten'!$DW$4:$DW$8</formula1>
+      <formula1>'Codelijsten'!$DU$4:$DU$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7:AL1000001">
-      <formula1>'Codelijsten'!$DY$4:$DY$17</formula1>
+      <formula1>'Codelijsten'!$DW$4:$DW$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AM1000001">
-      <formula1>'Codelijsten'!$EA$4:$EA$27</formula1>
+      <formula1>'Codelijsten'!$DY$4:$DY$27</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU7:AU1000001">
       <formula1>1</formula1>
@@ -39788,14 +39567,14 @@
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB7:BB1000001">
-      <formula1>'Codelijsten'!$EC$4:$EC$60</formula1>
+      <formula1>'Codelijsten'!$EA$4:$EA$60</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AJ6" location="'Codelijsten'!$DW$2" display="status"/>
-    <hyperlink ref="AL6" location="'Codelijsten'!$DY$2" display="kwaliteit-origine"/>
-    <hyperlink ref="AM6" location="'Codelijsten'!$EA$2" display="kwaliteit-aard"/>
-    <hyperlink ref="BB6" location="'Codelijsten'!$EC$2" display="bijlage-bijlage_type"/>
+    <hyperlink ref="AJ6" location="'Codelijsten'!$DU$2" display="status"/>
+    <hyperlink ref="AL6" location="'Codelijsten'!$DW$2" display="kwaliteit-origine"/>
+    <hyperlink ref="AM6" location="'Codelijsten'!$DY$2" display="kwaliteit-aard"/>
+    <hyperlink ref="BB6" location="'Codelijsten'!$EA$2" display="bijlage-bijlage_type"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8473" uniqueCount="3070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8489" uniqueCount="3074">
   <si>
     <t>identificatie</t>
   </si>
@@ -8339,6 +8339,15 @@
     <t>PFHxSbranched</t>
   </si>
   <si>
+    <t>Bepaling kleihoudendheid in fractie 0-0.125 mm</t>
+  </si>
+  <si>
+    <t>Bepaling kleihoudendheid in fractie 0-2 mm</t>
+  </si>
+  <si>
+    <t>Grondsoort RIG</t>
+  </si>
+  <si>
     <t>resultaattijd</t>
   </si>
   <si>
@@ -8400,6 +8409,9 @@
   </si>
   <si>
     <t>g MB/100g droog monster</t>
+  </si>
+  <si>
+    <t>g MB/1000g droog monster</t>
   </si>
   <si>
     <t>°C</t>
@@ -9802,7 +9814,7 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Table52" displayName="Table52" ref="CY3:CZ918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Table52" displayName="Table52" ref="CY3:CZ921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9812,7 +9824,7 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Table53" displayName="Table53" ref="DA3:DB66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Table53" displayName="Table53" ref="DA3:DB67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9852,7 +9864,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Table57" displayName="Table57" ref="DI3:DJ918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Table57" displayName="Table57" ref="DI3:DJ921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9862,7 +9874,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Table58" displayName="Table58" ref="DK3:DL66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Table58" displayName="Table58" ref="DK3:DL67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -10276,7 +10288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EB918"/>
+  <dimension ref="A1:EB921"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10359,7 +10371,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
@@ -10681,11 +10693,11 @@
       </c>
       <c r="DV2" s="1"/>
       <c r="DW2" s="1" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="DX2" s="1"/>
       <c r="DY2" s="1" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="DZ2" s="1"/>
       <c r="EA2" s="1" t="s">
@@ -11405,13 +11417,13 @@
         <v>172</v>
       </c>
       <c r="DA4" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="DB4" t="s">
         <v>172</v>
       </c>
       <c r="DC4" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="DD4" t="s">
         <v>172</v>
@@ -11435,7 +11447,7 @@
         <v>172</v>
       </c>
       <c r="DK4" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="DL4" t="s">
         <v>172</v>
@@ -11459,7 +11471,7 @@
         <v>172</v>
       </c>
       <c r="DS4" t="s">
-        <v>2985</v>
+        <v>2989</v>
       </c>
       <c r="DT4" t="s">
         <v>172</v>
@@ -11471,13 +11483,13 @@
         <v>172</v>
       </c>
       <c r="DW4" t="s">
-        <v>3034</v>
+        <v>3038</v>
       </c>
       <c r="DX4" t="s">
         <v>172</v>
       </c>
       <c r="DY4" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="DZ4" t="s">
         <v>172</v>
@@ -11803,13 +11815,13 @@
         <v>172</v>
       </c>
       <c r="DA5" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="DB5" t="s">
         <v>172</v>
       </c>
       <c r="DC5" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="DD5" t="s">
         <v>172</v>
@@ -11821,7 +11833,7 @@
         <v>172</v>
       </c>
       <c r="DG5" t="s">
-        <v>2984</v>
+        <v>2988</v>
       </c>
       <c r="DH5" t="s">
         <v>172</v>
@@ -11833,7 +11845,7 @@
         <v>172</v>
       </c>
       <c r="DK5" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="DL5" t="s">
         <v>172</v>
@@ -11857,7 +11869,7 @@
         <v>172</v>
       </c>
       <c r="DS5" t="s">
-        <v>2986</v>
+        <v>2990</v>
       </c>
       <c r="DT5" t="s">
         <v>172</v>
@@ -11869,13 +11881,13 @@
         <v>172</v>
       </c>
       <c r="DW5" t="s">
-        <v>3035</v>
+        <v>3039</v>
       </c>
       <c r="DX5" t="s">
         <v>172</v>
       </c>
       <c r="DY5" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
       <c r="DZ5" t="s">
         <v>172</v>
@@ -12195,13 +12207,13 @@
         <v>172</v>
       </c>
       <c r="DA6" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="DB6" t="s">
         <v>172</v>
       </c>
       <c r="DC6" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="DD6" t="s">
         <v>172</v>
@@ -12219,7 +12231,7 @@
         <v>172</v>
       </c>
       <c r="DK6" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="DL6" t="s">
         <v>172</v>
@@ -12243,7 +12255,7 @@
         <v>172</v>
       </c>
       <c r="DS6" t="s">
-        <v>2987</v>
+        <v>2991</v>
       </c>
       <c r="DT6" t="s">
         <v>172</v>
@@ -12255,13 +12267,13 @@
         <v>172</v>
       </c>
       <c r="DW6" t="s">
-        <v>3036</v>
+        <v>3040</v>
       </c>
       <c r="DX6" t="s">
         <v>172</v>
       </c>
       <c r="DY6" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
       <c r="DZ6" t="s">
         <v>172</v>
@@ -12521,13 +12533,13 @@
         <v>172</v>
       </c>
       <c r="DA7" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="DB7" t="s">
         <v>172</v>
       </c>
       <c r="DC7" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="DD7" t="s">
         <v>172</v>
@@ -12539,7 +12551,7 @@
         <v>172</v>
       </c>
       <c r="DK7" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="DL7" t="s">
         <v>172</v>
@@ -12557,13 +12569,13 @@
         <v>172</v>
       </c>
       <c r="DW7" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
       <c r="DX7" t="s">
         <v>172</v>
       </c>
       <c r="DY7" t="s">
-        <v>3050</v>
+        <v>3054</v>
       </c>
       <c r="DZ7" t="s">
         <v>172</v>
@@ -12805,13 +12817,13 @@
         <v>172</v>
       </c>
       <c r="DA8" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="DB8" t="s">
         <v>172</v>
       </c>
       <c r="DC8" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="DD8" t="s">
         <v>172</v>
@@ -12823,7 +12835,7 @@
         <v>172</v>
       </c>
       <c r="DK8" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="DL8" t="s">
         <v>172</v>
@@ -12841,13 +12853,13 @@
         <v>172</v>
       </c>
       <c r="DW8" t="s">
-        <v>3038</v>
+        <v>3042</v>
       </c>
       <c r="DX8" t="s">
         <v>172</v>
       </c>
       <c r="DY8" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="DZ8" t="s">
         <v>172</v>
@@ -13059,13 +13071,13 @@
         <v>172</v>
       </c>
       <c r="DA9" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="DB9" t="s">
         <v>172</v>
       </c>
       <c r="DC9" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="DD9" t="s">
         <v>172</v>
@@ -13077,7 +13089,7 @@
         <v>172</v>
       </c>
       <c r="DK9" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="DL9" t="s">
         <v>172</v>
@@ -13089,13 +13101,13 @@
         <v>172</v>
       </c>
       <c r="DW9" t="s">
-        <v>3039</v>
+        <v>3043</v>
       </c>
       <c r="DX9" t="s">
         <v>172</v>
       </c>
       <c r="DY9" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="DZ9" t="s">
         <v>172</v>
@@ -13295,13 +13307,13 @@
         <v>172</v>
       </c>
       <c r="DA10" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="DB10" t="s">
         <v>172</v>
       </c>
       <c r="DC10" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="DD10" t="s">
         <v>172</v>
@@ -13313,7 +13325,7 @@
         <v>172</v>
       </c>
       <c r="DK10" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="DL10" t="s">
         <v>172</v>
@@ -13325,13 +13337,13 @@
         <v>172</v>
       </c>
       <c r="DW10" t="s">
-        <v>3040</v>
+        <v>3044</v>
       </c>
       <c r="DX10" t="s">
         <v>172</v>
       </c>
       <c r="DY10" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="DZ10" t="s">
         <v>172</v>
@@ -13513,13 +13525,13 @@
         <v>172</v>
       </c>
       <c r="DA11" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="DB11" t="s">
         <v>172</v>
       </c>
       <c r="DC11" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="DD11" t="s">
         <v>172</v>
@@ -13531,7 +13543,7 @@
         <v>172</v>
       </c>
       <c r="DK11" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="DL11" t="s">
         <v>172</v>
@@ -13543,13 +13555,13 @@
         <v>172</v>
       </c>
       <c r="DW11" t="s">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="DX11" t="s">
         <v>172</v>
       </c>
       <c r="DY11" t="s">
-        <v>3054</v>
+        <v>3058</v>
       </c>
       <c r="DZ11" t="s">
         <v>172</v>
@@ -13713,13 +13725,13 @@
         <v>172</v>
       </c>
       <c r="DA12" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="DB12" t="s">
         <v>172</v>
       </c>
       <c r="DC12" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="DD12" t="s">
         <v>172</v>
@@ -13731,7 +13743,7 @@
         <v>172</v>
       </c>
       <c r="DK12" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="DL12" t="s">
         <v>172</v>
@@ -13743,13 +13755,13 @@
         <v>172</v>
       </c>
       <c r="DW12" t="s">
-        <v>3042</v>
+        <v>3046</v>
       </c>
       <c r="DX12" t="s">
         <v>172</v>
       </c>
       <c r="DY12" t="s">
-        <v>3055</v>
+        <v>3059</v>
       </c>
       <c r="DZ12" t="s">
         <v>172</v>
@@ -13889,13 +13901,13 @@
         <v>172</v>
       </c>
       <c r="DA13" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="DB13" t="s">
         <v>172</v>
       </c>
       <c r="DC13" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="DD13" t="s">
         <v>172</v>
@@ -13907,19 +13919,19 @@
         <v>172</v>
       </c>
       <c r="DK13" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="DL13" t="s">
         <v>172</v>
       </c>
       <c r="DW13" t="s">
-        <v>3043</v>
+        <v>3047</v>
       </c>
       <c r="DX13" t="s">
         <v>172</v>
       </c>
       <c r="DY13" t="s">
-        <v>3056</v>
+        <v>3060</v>
       </c>
       <c r="DZ13" t="s">
         <v>172</v>
@@ -14053,13 +14065,13 @@
         <v>172</v>
       </c>
       <c r="DA14" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="DB14" t="s">
         <v>172</v>
       </c>
       <c r="DC14" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="DD14" t="s">
         <v>172</v>
@@ -14071,19 +14083,19 @@
         <v>172</v>
       </c>
       <c r="DK14" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="DL14" t="s">
         <v>172</v>
       </c>
       <c r="DW14" t="s">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="DX14" t="s">
         <v>172</v>
       </c>
       <c r="DY14" t="s">
-        <v>3057</v>
+        <v>3061</v>
       </c>
       <c r="DZ14" t="s">
         <v>172</v>
@@ -14217,13 +14229,13 @@
         <v>172</v>
       </c>
       <c r="DA15" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="DB15" t="s">
         <v>172</v>
       </c>
       <c r="DC15" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="DD15" t="s">
         <v>172</v>
@@ -14235,19 +14247,19 @@
         <v>172</v>
       </c>
       <c r="DK15" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="DL15" t="s">
         <v>172</v>
       </c>
       <c r="DW15" t="s">
-        <v>3045</v>
+        <v>3049</v>
       </c>
       <c r="DX15" t="s">
         <v>172</v>
       </c>
       <c r="DY15" t="s">
-        <v>3058</v>
+        <v>3062</v>
       </c>
       <c r="DZ15" t="s">
         <v>172</v>
@@ -14381,13 +14393,13 @@
         <v>172</v>
       </c>
       <c r="DA16" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="DB16" t="s">
         <v>172</v>
       </c>
       <c r="DC16" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="DD16" t="s">
         <v>172</v>
@@ -14399,19 +14411,19 @@
         <v>172</v>
       </c>
       <c r="DK16" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="DL16" t="s">
         <v>172</v>
       </c>
       <c r="DW16" t="s">
-        <v>3046</v>
+        <v>3050</v>
       </c>
       <c r="DX16" t="s">
         <v>172</v>
       </c>
       <c r="DY16" t="s">
-        <v>3059</v>
+        <v>3063</v>
       </c>
       <c r="DZ16" t="s">
         <v>172</v>
@@ -14539,13 +14551,13 @@
         <v>172</v>
       </c>
       <c r="DA17" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="DB17" t="s">
         <v>172</v>
       </c>
       <c r="DC17" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="DD17" t="s">
         <v>172</v>
@@ -14557,7 +14569,7 @@
         <v>172</v>
       </c>
       <c r="DK17" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="DL17" t="s">
         <v>172</v>
@@ -14569,7 +14581,7 @@
         <v>172</v>
       </c>
       <c r="DY17" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
       <c r="DZ17" t="s">
         <v>172</v>
@@ -14679,13 +14691,13 @@
         <v>172</v>
       </c>
       <c r="DA18" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="DB18" t="s">
         <v>172</v>
       </c>
       <c r="DC18" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="DD18" t="s">
         <v>172</v>
@@ -14697,13 +14709,13 @@
         <v>172</v>
       </c>
       <c r="DK18" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="DL18" t="s">
         <v>172</v>
       </c>
       <c r="DY18" t="s">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="DZ18" t="s">
         <v>172</v>
@@ -14807,7 +14819,7 @@
         <v>172</v>
       </c>
       <c r="DA19" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="DB19" t="s">
         <v>172</v>
@@ -14825,13 +14837,13 @@
         <v>172</v>
       </c>
       <c r="DK19" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="DL19" t="s">
         <v>172</v>
       </c>
       <c r="DY19" t="s">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="DZ19" t="s">
         <v>172</v>
@@ -14935,13 +14947,13 @@
         <v>172</v>
       </c>
       <c r="DA20" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="DB20" t="s">
         <v>172</v>
       </c>
       <c r="DC20" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="DD20" t="s">
         <v>172</v>
@@ -14953,13 +14965,13 @@
         <v>172</v>
       </c>
       <c r="DK20" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="DL20" t="s">
         <v>172</v>
       </c>
       <c r="DY20" t="s">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="DZ20" t="s">
         <v>172</v>
@@ -15039,13 +15051,13 @@
         <v>172</v>
       </c>
       <c r="DA21" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="DB21" t="s">
         <v>172</v>
       </c>
       <c r="DC21" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="DD21" t="s">
         <v>172</v>
@@ -15057,13 +15069,13 @@
         <v>172</v>
       </c>
       <c r="DK21" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="DL21" t="s">
         <v>172</v>
       </c>
       <c r="DY21" t="s">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="DZ21" t="s">
         <v>172</v>
@@ -15143,13 +15155,13 @@
         <v>172</v>
       </c>
       <c r="DA22" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="DB22" t="s">
         <v>172</v>
       </c>
       <c r="DC22" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="DD22" t="s">
         <v>172</v>
@@ -15161,13 +15173,13 @@
         <v>172</v>
       </c>
       <c r="DK22" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="DL22" t="s">
         <v>172</v>
       </c>
       <c r="DY22" t="s">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="DZ22" t="s">
         <v>172</v>
@@ -15247,13 +15259,13 @@
         <v>172</v>
       </c>
       <c r="DA23" t="s">
-        <v>2258</v>
+        <v>2801</v>
       </c>
       <c r="DB23" t="s">
         <v>172</v>
       </c>
       <c r="DC23" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="DD23" t="s">
         <v>172</v>
@@ -15265,7 +15277,7 @@
         <v>172</v>
       </c>
       <c r="DK23" t="s">
-        <v>2258</v>
+        <v>2801</v>
       </c>
       <c r="DL23" t="s">
         <v>172</v>
@@ -15339,13 +15351,13 @@
         <v>172</v>
       </c>
       <c r="DA24" t="s">
-        <v>2798</v>
+        <v>2258</v>
       </c>
       <c r="DB24" t="s">
         <v>172</v>
       </c>
       <c r="DC24" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="DD24" t="s">
         <v>172</v>
@@ -15357,13 +15369,13 @@
         <v>172</v>
       </c>
       <c r="DK24" t="s">
-        <v>2798</v>
+        <v>2258</v>
       </c>
       <c r="DL24" t="s">
         <v>172</v>
       </c>
       <c r="DY24" t="s">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="DZ24" t="s">
         <v>172</v>
@@ -15431,13 +15443,13 @@
         <v>172</v>
       </c>
       <c r="DA25" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="DB25" t="s">
         <v>172</v>
       </c>
       <c r="DC25" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="DD25" t="s">
         <v>172</v>
@@ -15449,13 +15461,13 @@
         <v>172</v>
       </c>
       <c r="DK25" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="DL25" t="s">
         <v>172</v>
       </c>
       <c r="DY25" t="s">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="DZ25" t="s">
         <v>172</v>
@@ -15517,13 +15529,13 @@
         <v>172</v>
       </c>
       <c r="DA26" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="DB26" t="s">
         <v>172</v>
       </c>
       <c r="DC26" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="DD26" t="s">
         <v>172</v>
@@ -15535,13 +15547,13 @@
         <v>172</v>
       </c>
       <c r="DK26" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="DL26" t="s">
         <v>172</v>
       </c>
       <c r="DY26" t="s">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="DZ26" t="s">
         <v>172</v>
@@ -15603,13 +15615,13 @@
         <v>172</v>
       </c>
       <c r="DA27" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="DB27" t="s">
         <v>172</v>
       </c>
       <c r="DC27" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="DD27" t="s">
         <v>172</v>
@@ -15621,13 +15633,13 @@
         <v>172</v>
       </c>
       <c r="DK27" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="DL27" t="s">
         <v>172</v>
       </c>
       <c r="DY27" t="s">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="DZ27" t="s">
         <v>172</v>
@@ -15689,13 +15701,13 @@
         <v>172</v>
       </c>
       <c r="DA28" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="DB28" t="s">
         <v>172</v>
       </c>
       <c r="DC28" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="DD28" t="s">
         <v>172</v>
@@ -15707,7 +15719,7 @@
         <v>172</v>
       </c>
       <c r="DK28" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="DL28" t="s">
         <v>172</v>
@@ -15769,13 +15781,13 @@
         <v>172</v>
       </c>
       <c r="DA29" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="DB29" t="s">
         <v>172</v>
       </c>
       <c r="DC29" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="DD29" t="s">
         <v>172</v>
@@ -15787,7 +15799,7 @@
         <v>172</v>
       </c>
       <c r="DK29" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="DL29" t="s">
         <v>172</v>
@@ -15849,13 +15861,13 @@
         <v>172</v>
       </c>
       <c r="DA30" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="DB30" t="s">
         <v>172</v>
       </c>
       <c r="DC30" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="DD30" t="s">
         <v>172</v>
@@ -15867,7 +15879,7 @@
         <v>172</v>
       </c>
       <c r="DK30" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="DL30" t="s">
         <v>172</v>
@@ -15929,13 +15941,13 @@
         <v>172</v>
       </c>
       <c r="DA31" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="DB31" t="s">
         <v>172</v>
       </c>
       <c r="DC31" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="DD31" t="s">
         <v>172</v>
@@ -15947,7 +15959,7 @@
         <v>172</v>
       </c>
       <c r="DK31" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="DL31" t="s">
         <v>172</v>
@@ -16009,13 +16021,13 @@
         <v>172</v>
       </c>
       <c r="DA32" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="DB32" t="s">
         <v>172</v>
       </c>
       <c r="DC32" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="DD32" t="s">
         <v>172</v>
@@ -16027,7 +16039,7 @@
         <v>172</v>
       </c>
       <c r="DK32" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="DL32" t="s">
         <v>172</v>
@@ -16089,13 +16101,13 @@
         <v>172</v>
       </c>
       <c r="DA33" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="DB33" t="s">
         <v>172</v>
       </c>
       <c r="DC33" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="DD33" t="s">
         <v>172</v>
@@ -16107,7 +16119,7 @@
         <v>172</v>
       </c>
       <c r="DK33" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="DL33" t="s">
         <v>172</v>
@@ -16169,13 +16181,13 @@
         <v>172</v>
       </c>
       <c r="DA34" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="DB34" t="s">
         <v>172</v>
       </c>
       <c r="DC34" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="DD34" t="s">
         <v>172</v>
@@ -16187,7 +16199,7 @@
         <v>172</v>
       </c>
       <c r="DK34" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="DL34" t="s">
         <v>172</v>
@@ -16249,13 +16261,13 @@
         <v>172</v>
       </c>
       <c r="DA35" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="DB35" t="s">
         <v>172</v>
       </c>
       <c r="DC35" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="DD35" t="s">
         <v>172</v>
@@ -16267,7 +16279,7 @@
         <v>172</v>
       </c>
       <c r="DK35" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="DL35" t="s">
         <v>172</v>
@@ -16329,13 +16341,13 @@
         <v>172</v>
       </c>
       <c r="DA36" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="DB36" t="s">
         <v>172</v>
       </c>
       <c r="DC36" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="DD36" t="s">
         <v>172</v>
@@ -16347,7 +16359,7 @@
         <v>172</v>
       </c>
       <c r="DK36" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="DL36" t="s">
         <v>172</v>
@@ -16409,13 +16421,13 @@
         <v>172</v>
       </c>
       <c r="DA37" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="DB37" t="s">
         <v>172</v>
       </c>
       <c r="DC37" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="DD37" t="s">
         <v>172</v>
@@ -16427,7 +16439,7 @@
         <v>172</v>
       </c>
       <c r="DK37" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="DL37" t="s">
         <v>172</v>
@@ -16489,13 +16501,13 @@
         <v>172</v>
       </c>
       <c r="DA38" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="DB38" t="s">
         <v>172</v>
       </c>
       <c r="DC38" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="DD38" t="s">
         <v>172</v>
@@ -16507,7 +16519,7 @@
         <v>172</v>
       </c>
       <c r="DK38" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="DL38" t="s">
         <v>172</v>
@@ -16569,13 +16581,13 @@
         <v>172</v>
       </c>
       <c r="DA39" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="DB39" t="s">
         <v>172</v>
       </c>
       <c r="DC39" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="DD39" t="s">
         <v>172</v>
@@ -16587,7 +16599,7 @@
         <v>172</v>
       </c>
       <c r="DK39" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="DL39" t="s">
         <v>172</v>
@@ -16649,13 +16661,13 @@
         <v>172</v>
       </c>
       <c r="DA40" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="DB40" t="s">
         <v>172</v>
       </c>
       <c r="DC40" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="DD40" t="s">
         <v>172</v>
@@ -16667,7 +16679,7 @@
         <v>172</v>
       </c>
       <c r="DK40" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="DL40" t="s">
         <v>172</v>
@@ -16729,13 +16741,13 @@
         <v>172</v>
       </c>
       <c r="DA41" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="DB41" t="s">
         <v>172</v>
       </c>
       <c r="DC41" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="DD41" t="s">
         <v>172</v>
@@ -16747,7 +16759,7 @@
         <v>172</v>
       </c>
       <c r="DK41" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="DL41" t="s">
         <v>172</v>
@@ -16809,13 +16821,13 @@
         <v>172</v>
       </c>
       <c r="DA42" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="DB42" t="s">
         <v>172</v>
       </c>
       <c r="DC42" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="DD42" t="s">
         <v>172</v>
@@ -16827,7 +16839,7 @@
         <v>172</v>
       </c>
       <c r="DK42" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="DL42" t="s">
         <v>172</v>
@@ -16889,13 +16901,13 @@
         <v>172</v>
       </c>
       <c r="DA43" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="DB43" t="s">
         <v>172</v>
       </c>
       <c r="DC43" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="DD43" t="s">
         <v>172</v>
@@ -16907,7 +16919,7 @@
         <v>172</v>
       </c>
       <c r="DK43" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="DL43" t="s">
         <v>172</v>
@@ -16969,13 +16981,13 @@
         <v>172</v>
       </c>
       <c r="DA44" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="DB44" t="s">
         <v>172</v>
       </c>
       <c r="DC44" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="DD44" t="s">
         <v>172</v>
@@ -16987,7 +16999,7 @@
         <v>172</v>
       </c>
       <c r="DK44" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="DL44" t="s">
         <v>172</v>
@@ -17049,13 +17061,13 @@
         <v>172</v>
       </c>
       <c r="DA45" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="DB45" t="s">
         <v>172</v>
       </c>
       <c r="DC45" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="DD45" t="s">
         <v>172</v>
@@ -17067,7 +17079,7 @@
         <v>172</v>
       </c>
       <c r="DK45" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="DL45" t="s">
         <v>172</v>
@@ -17129,13 +17141,13 @@
         <v>172</v>
       </c>
       <c r="DA46" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="DB46" t="s">
         <v>172</v>
       </c>
       <c r="DC46" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="DD46" t="s">
         <v>172</v>
@@ -17147,7 +17159,7 @@
         <v>172</v>
       </c>
       <c r="DK46" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="DL46" t="s">
         <v>172</v>
@@ -17209,13 +17221,13 @@
         <v>172</v>
       </c>
       <c r="DA47" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="DB47" t="s">
         <v>172</v>
       </c>
       <c r="DC47" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="DD47" t="s">
         <v>172</v>
@@ -17227,7 +17239,7 @@
         <v>172</v>
       </c>
       <c r="DK47" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="DL47" t="s">
         <v>172</v>
@@ -17289,13 +17301,13 @@
         <v>172</v>
       </c>
       <c r="DA48" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="DB48" t="s">
         <v>172</v>
       </c>
       <c r="DC48" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="DD48" t="s">
         <v>172</v>
@@ -17307,7 +17319,7 @@
         <v>172</v>
       </c>
       <c r="DK48" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="DL48" t="s">
         <v>172</v>
@@ -17369,13 +17381,13 @@
         <v>172</v>
       </c>
       <c r="DA49" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="DB49" t="s">
         <v>172</v>
       </c>
       <c r="DC49" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="DD49" t="s">
         <v>172</v>
@@ -17387,7 +17399,7 @@
         <v>172</v>
       </c>
       <c r="DK49" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="DL49" t="s">
         <v>172</v>
@@ -17449,13 +17461,13 @@
         <v>172</v>
       </c>
       <c r="DA50" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="DB50" t="s">
         <v>172</v>
       </c>
       <c r="DC50" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="DD50" t="s">
         <v>172</v>
@@ -17467,7 +17479,7 @@
         <v>172</v>
       </c>
       <c r="DK50" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="DL50" t="s">
         <v>172</v>
@@ -17529,13 +17541,13 @@
         <v>172</v>
       </c>
       <c r="DA51" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="DB51" t="s">
         <v>172</v>
       </c>
       <c r="DC51" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="DD51" t="s">
         <v>172</v>
@@ -17547,7 +17559,7 @@
         <v>172</v>
       </c>
       <c r="DK51" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="DL51" t="s">
         <v>172</v>
@@ -17603,13 +17615,13 @@
         <v>172</v>
       </c>
       <c r="DA52" t="s">
-        <v>211</v>
+        <v>2829</v>
       </c>
       <c r="DB52" t="s">
         <v>172</v>
       </c>
       <c r="DC52" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="DD52" t="s">
         <v>172</v>
@@ -17621,7 +17633,7 @@
         <v>172</v>
       </c>
       <c r="DK52" t="s">
-        <v>211</v>
+        <v>2829</v>
       </c>
       <c r="DL52" t="s">
         <v>172</v>
@@ -17677,13 +17689,13 @@
         <v>172</v>
       </c>
       <c r="DA53" t="s">
-        <v>2826</v>
+        <v>211</v>
       </c>
       <c r="DB53" t="s">
         <v>172</v>
       </c>
       <c r="DC53" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="DD53" t="s">
         <v>172</v>
@@ -17695,7 +17707,7 @@
         <v>172</v>
       </c>
       <c r="DK53" t="s">
-        <v>2826</v>
+        <v>211</v>
       </c>
       <c r="DL53" t="s">
         <v>172</v>
@@ -17751,13 +17763,13 @@
         <v>172</v>
       </c>
       <c r="DA54" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="DB54" t="s">
         <v>172</v>
       </c>
       <c r="DC54" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="DD54" t="s">
         <v>172</v>
@@ -17769,7 +17781,7 @@
         <v>172</v>
       </c>
       <c r="DK54" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="DL54" t="s">
         <v>172</v>
@@ -17825,13 +17837,13 @@
         <v>172</v>
       </c>
       <c r="DA55" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="DB55" t="s">
         <v>172</v>
       </c>
       <c r="DC55" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="DD55" t="s">
         <v>172</v>
@@ -17843,7 +17855,7 @@
         <v>172</v>
       </c>
       <c r="DK55" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="DL55" t="s">
         <v>172</v>
@@ -17899,13 +17911,13 @@
         <v>172</v>
       </c>
       <c r="DA56" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="DB56" t="s">
         <v>172</v>
       </c>
       <c r="DC56" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="DD56" t="s">
         <v>172</v>
@@ -17917,7 +17929,7 @@
         <v>172</v>
       </c>
       <c r="DK56" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="DL56" t="s">
         <v>172</v>
@@ -17973,13 +17985,13 @@
         <v>172</v>
       </c>
       <c r="DA57" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="DB57" t="s">
         <v>172</v>
       </c>
       <c r="DC57" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="DD57" t="s">
         <v>172</v>
@@ -17991,7 +18003,7 @@
         <v>172</v>
       </c>
       <c r="DK57" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="DL57" t="s">
         <v>172</v>
@@ -18047,13 +18059,13 @@
         <v>172</v>
       </c>
       <c r="DA58" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="DB58" t="s">
         <v>172</v>
       </c>
       <c r="DC58" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="DD58" t="s">
         <v>172</v>
@@ -18065,7 +18077,7 @@
         <v>172</v>
       </c>
       <c r="DK58" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="DL58" t="s">
         <v>172</v>
@@ -18121,13 +18133,13 @@
         <v>172</v>
       </c>
       <c r="DA59" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="DB59" t="s">
         <v>172</v>
       </c>
       <c r="DC59" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="DD59" t="s">
         <v>172</v>
@@ -18139,7 +18151,7 @@
         <v>172</v>
       </c>
       <c r="DK59" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="DL59" t="s">
         <v>172</v>
@@ -18195,7 +18207,7 @@
         <v>172</v>
       </c>
       <c r="DA60" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="DB60" t="s">
         <v>172</v>
@@ -18213,7 +18225,7 @@
         <v>172</v>
       </c>
       <c r="DK60" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="DL60" t="s">
         <v>172</v>
@@ -18251,13 +18263,13 @@
         <v>172</v>
       </c>
       <c r="DA61" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="DB61" t="s">
         <v>172</v>
       </c>
       <c r="DC61" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="DD61" t="s">
         <v>172</v>
@@ -18269,7 +18281,7 @@
         <v>172</v>
       </c>
       <c r="DK61" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="DL61" t="s">
         <v>172</v>
@@ -18301,13 +18313,13 @@
         <v>172</v>
       </c>
       <c r="DA62" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="DB62" t="s">
         <v>172</v>
       </c>
       <c r="DC62" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="DD62" t="s">
         <v>172</v>
@@ -18319,7 +18331,7 @@
         <v>172</v>
       </c>
       <c r="DK62" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="DL62" t="s">
         <v>172</v>
@@ -18351,13 +18363,13 @@
         <v>172</v>
       </c>
       <c r="DA63" t="s">
-        <v>2553</v>
+        <v>2839</v>
       </c>
       <c r="DB63" t="s">
         <v>172</v>
       </c>
       <c r="DC63" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="DD63" t="s">
         <v>172</v>
@@ -18369,7 +18381,7 @@
         <v>172</v>
       </c>
       <c r="DK63" t="s">
-        <v>2553</v>
+        <v>2839</v>
       </c>
       <c r="DL63" t="s">
         <v>172</v>
@@ -18401,13 +18413,13 @@
         <v>172</v>
       </c>
       <c r="DA64" t="s">
-        <v>2836</v>
+        <v>2553</v>
       </c>
       <c r="DB64" t="s">
         <v>172</v>
       </c>
       <c r="DC64" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="DD64" t="s">
         <v>172</v>
@@ -18419,7 +18431,7 @@
         <v>172</v>
       </c>
       <c r="DK64" t="s">
-        <v>2836</v>
+        <v>2553</v>
       </c>
       <c r="DL64" t="s">
         <v>172</v>
@@ -18451,13 +18463,13 @@
         <v>172</v>
       </c>
       <c r="DA65" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="DB65" t="s">
         <v>172</v>
       </c>
       <c r="DC65" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="DD65" t="s">
         <v>172</v>
@@ -18469,7 +18481,7 @@
         <v>172</v>
       </c>
       <c r="DK65" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="DL65" t="s">
         <v>172</v>
@@ -18501,13 +18513,13 @@
         <v>172</v>
       </c>
       <c r="DA66" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="DB66" t="s">
         <v>172</v>
       </c>
       <c r="DC66" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="DD66" t="s">
         <v>172</v>
@@ -18519,7 +18531,7 @@
         <v>172</v>
       </c>
       <c r="DK66" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="DL66" t="s">
         <v>172</v>
@@ -18550,8 +18562,14 @@
       <c r="CZ67" t="s">
         <v>172</v>
       </c>
+      <c r="DA67" t="s">
+        <v>2842</v>
+      </c>
+      <c r="DB67" t="s">
+        <v>172</v>
+      </c>
       <c r="DC67" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="DD67" t="s">
         <v>172</v>
@@ -18560,6 +18578,12 @@
         <v>1940</v>
       </c>
       <c r="DJ67" t="s">
+        <v>172</v>
+      </c>
+      <c r="DK67" t="s">
+        <v>2842</v>
+      </c>
+      <c r="DL67" t="s">
         <v>172</v>
       </c>
     </row>
@@ -18589,7 +18613,7 @@
         <v>172</v>
       </c>
       <c r="DC68" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="DD68" t="s">
         <v>172</v>
@@ -18627,7 +18651,7 @@
         <v>172</v>
       </c>
       <c r="DC69" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="DD69" t="s">
         <v>172</v>
@@ -18665,7 +18689,7 @@
         <v>172</v>
       </c>
       <c r="DC70" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="DD70" t="s">
         <v>172</v>
@@ -18703,7 +18727,7 @@
         <v>172</v>
       </c>
       <c r="DC71" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="DD71" t="s">
         <v>172</v>
@@ -18741,7 +18765,7 @@
         <v>172</v>
       </c>
       <c r="DC72" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="DD72" t="s">
         <v>172</v>
@@ -18779,7 +18803,7 @@
         <v>172</v>
       </c>
       <c r="DC73" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="DD73" t="s">
         <v>172</v>
@@ -18817,7 +18841,7 @@
         <v>172</v>
       </c>
       <c r="DC74" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="DD74" t="s">
         <v>172</v>
@@ -18855,7 +18879,7 @@
         <v>172</v>
       </c>
       <c r="DC75" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="DD75" t="s">
         <v>172</v>
@@ -18893,7 +18917,7 @@
         <v>172</v>
       </c>
       <c r="DC76" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="DD76" t="s">
         <v>172</v>
@@ -18931,7 +18955,7 @@
         <v>172</v>
       </c>
       <c r="DC77" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
       <c r="DD77" t="s">
         <v>172</v>
@@ -18969,7 +18993,7 @@
         <v>172</v>
       </c>
       <c r="DC78" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="DD78" t="s">
         <v>172</v>
@@ -19007,7 +19031,7 @@
         <v>172</v>
       </c>
       <c r="DC79" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
       <c r="DD79" t="s">
         <v>172</v>
@@ -19045,7 +19069,7 @@
         <v>172</v>
       </c>
       <c r="DC80" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="DD80" t="s">
         <v>172</v>
@@ -19083,7 +19107,7 @@
         <v>172</v>
       </c>
       <c r="DC81" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
       <c r="DD81" t="s">
         <v>172</v>
@@ -19121,7 +19145,7 @@
         <v>172</v>
       </c>
       <c r="DC82" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
       <c r="DD82" t="s">
         <v>172</v>
@@ -19159,7 +19183,7 @@
         <v>172</v>
       </c>
       <c r="DC83" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="DD83" t="s">
         <v>172</v>
@@ -19197,7 +19221,7 @@
         <v>172</v>
       </c>
       <c r="DC84" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="DD84" t="s">
         <v>172</v>
@@ -19235,7 +19259,7 @@
         <v>172</v>
       </c>
       <c r="DC85" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="DD85" t="s">
         <v>172</v>
@@ -19273,7 +19297,7 @@
         <v>172</v>
       </c>
       <c r="DC86" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="DD86" t="s">
         <v>172</v>
@@ -19311,7 +19335,7 @@
         <v>172</v>
       </c>
       <c r="DC87" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="DD87" t="s">
         <v>172</v>
@@ -19349,7 +19373,7 @@
         <v>172</v>
       </c>
       <c r="DC88" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="DD88" t="s">
         <v>172</v>
@@ -19387,7 +19411,7 @@
         <v>172</v>
       </c>
       <c r="DC89" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="DD89" t="s">
         <v>172</v>
@@ -19425,7 +19449,7 @@
         <v>172</v>
       </c>
       <c r="DC90" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
       <c r="DD90" t="s">
         <v>172</v>
@@ -19463,7 +19487,7 @@
         <v>172</v>
       </c>
       <c r="DC91" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="DD91" t="s">
         <v>172</v>
@@ -19539,7 +19563,7 @@
         <v>172</v>
       </c>
       <c r="DC93" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
       <c r="DD93" t="s">
         <v>172</v>
@@ -19577,7 +19601,7 @@
         <v>172</v>
       </c>
       <c r="DC94" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
       <c r="DD94" t="s">
         <v>172</v>
@@ -19615,7 +19639,7 @@
         <v>172</v>
       </c>
       <c r="DC95" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="DD95" t="s">
         <v>172</v>
@@ -19653,7 +19677,7 @@
         <v>172</v>
       </c>
       <c r="DC96" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="DD96" t="s">
         <v>172</v>
@@ -19691,7 +19715,7 @@
         <v>172</v>
       </c>
       <c r="DC97" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="DD97" t="s">
         <v>172</v>
@@ -19729,7 +19753,7 @@
         <v>172</v>
       </c>
       <c r="DC98" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="DD98" t="s">
         <v>172</v>
@@ -19767,7 +19791,7 @@
         <v>172</v>
       </c>
       <c r="DC99" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="DD99" t="s">
         <v>172</v>
@@ -19805,7 +19829,7 @@
         <v>172</v>
       </c>
       <c r="DC100" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
       <c r="DD100" t="s">
         <v>172</v>
@@ -19843,7 +19867,7 @@
         <v>172</v>
       </c>
       <c r="DC101" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="DD101" t="s">
         <v>172</v>
@@ -19881,7 +19905,7 @@
         <v>172</v>
       </c>
       <c r="DC102" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="DD102" t="s">
         <v>172</v>
@@ -19919,7 +19943,7 @@
         <v>172</v>
       </c>
       <c r="DC103" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
       <c r="DD103" t="s">
         <v>172</v>
@@ -19957,7 +19981,7 @@
         <v>172</v>
       </c>
       <c r="DC104" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="DD104" t="s">
         <v>172</v>
@@ -19995,7 +20019,7 @@
         <v>172</v>
       </c>
       <c r="DC105" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="DD105" t="s">
         <v>172</v>
@@ -20033,7 +20057,7 @@
         <v>172</v>
       </c>
       <c r="DC106" t="s">
-        <v>2938</v>
+        <v>2942</v>
       </c>
       <c r="DD106" t="s">
         <v>172</v>
@@ -20071,7 +20095,7 @@
         <v>172</v>
       </c>
       <c r="DC107" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="DD107" t="s">
         <v>172</v>
@@ -20109,7 +20133,7 @@
         <v>172</v>
       </c>
       <c r="DC108" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
       <c r="DD108" t="s">
         <v>172</v>
@@ -20147,7 +20171,7 @@
         <v>172</v>
       </c>
       <c r="DC109" t="s">
-        <v>2941</v>
+        <v>2945</v>
       </c>
       <c r="DD109" t="s">
         <v>172</v>
@@ -20185,7 +20209,7 @@
         <v>172</v>
       </c>
       <c r="DC110" t="s">
-        <v>2942</v>
+        <v>2946</v>
       </c>
       <c r="DD110" t="s">
         <v>172</v>
@@ -20223,7 +20247,7 @@
         <v>172</v>
       </c>
       <c r="DC111" t="s">
-        <v>2943</v>
+        <v>2947</v>
       </c>
       <c r="DD111" t="s">
         <v>172</v>
@@ -20261,7 +20285,7 @@
         <v>172</v>
       </c>
       <c r="DC112" t="s">
-        <v>2944</v>
+        <v>2948</v>
       </c>
       <c r="DD112" t="s">
         <v>172</v>
@@ -20299,7 +20323,7 @@
         <v>172</v>
       </c>
       <c r="DC113" t="s">
-        <v>2945</v>
+        <v>2949</v>
       </c>
       <c r="DD113" t="s">
         <v>172</v>
@@ -20337,7 +20361,7 @@
         <v>172</v>
       </c>
       <c r="DC114" t="s">
-        <v>2946</v>
+        <v>2950</v>
       </c>
       <c r="DD114" t="s">
         <v>172</v>
@@ -20375,7 +20399,7 @@
         <v>172</v>
       </c>
       <c r="DC115" t="s">
-        <v>2947</v>
+        <v>2951</v>
       </c>
       <c r="DD115" t="s">
         <v>172</v>
@@ -20413,7 +20437,7 @@
         <v>172</v>
       </c>
       <c r="DC116" t="s">
-        <v>2948</v>
+        <v>2952</v>
       </c>
       <c r="DD116" t="s">
         <v>172</v>
@@ -20451,7 +20475,7 @@
         <v>172</v>
       </c>
       <c r="DC117" t="s">
-        <v>2949</v>
+        <v>2953</v>
       </c>
       <c r="DD117" t="s">
         <v>172</v>
@@ -20489,7 +20513,7 @@
         <v>172</v>
       </c>
       <c r="DC118" t="s">
-        <v>2950</v>
+        <v>2954</v>
       </c>
       <c r="DD118" t="s">
         <v>172</v>
@@ -20527,7 +20551,7 @@
         <v>172</v>
       </c>
       <c r="DC119" t="s">
-        <v>2951</v>
+        <v>2955</v>
       </c>
       <c r="DD119" t="s">
         <v>172</v>
@@ -20565,7 +20589,7 @@
         <v>172</v>
       </c>
       <c r="DC120" t="s">
-        <v>2952</v>
+        <v>2956</v>
       </c>
       <c r="DD120" t="s">
         <v>172</v>
@@ -20603,7 +20627,7 @@
         <v>172</v>
       </c>
       <c r="DC121" t="s">
-        <v>2953</v>
+        <v>2957</v>
       </c>
       <c r="DD121" t="s">
         <v>172</v>
@@ -20641,7 +20665,7 @@
         <v>172</v>
       </c>
       <c r="DC122" t="s">
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="DD122" t="s">
         <v>172</v>
@@ -20679,7 +20703,7 @@
         <v>172</v>
       </c>
       <c r="DC123" t="s">
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="DD123" t="s">
         <v>172</v>
@@ -20717,7 +20741,7 @@
         <v>172</v>
       </c>
       <c r="DC124" t="s">
-        <v>2956</v>
+        <v>2960</v>
       </c>
       <c r="DD124" t="s">
         <v>172</v>
@@ -20755,7 +20779,7 @@
         <v>172</v>
       </c>
       <c r="DC125" t="s">
-        <v>2957</v>
+        <v>2961</v>
       </c>
       <c r="DD125" t="s">
         <v>172</v>
@@ -20793,7 +20817,7 @@
         <v>172</v>
       </c>
       <c r="DC126" t="s">
-        <v>2958</v>
+        <v>2962</v>
       </c>
       <c r="DD126" t="s">
         <v>172</v>
@@ -20831,7 +20855,7 @@
         <v>172</v>
       </c>
       <c r="DC127" t="s">
-        <v>2959</v>
+        <v>2963</v>
       </c>
       <c r="DD127" t="s">
         <v>172</v>
@@ -20869,7 +20893,7 @@
         <v>172</v>
       </c>
       <c r="DC128" t="s">
-        <v>2960</v>
+        <v>2964</v>
       </c>
       <c r="DD128" t="s">
         <v>172</v>
@@ -20907,7 +20931,7 @@
         <v>172</v>
       </c>
       <c r="DC129" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="DD129" t="s">
         <v>172</v>
@@ -20945,7 +20969,7 @@
         <v>172</v>
       </c>
       <c r="DC130" t="s">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="DD130" t="s">
         <v>172</v>
@@ -20983,7 +21007,7 @@
         <v>172</v>
       </c>
       <c r="DC131" t="s">
-        <v>2963</v>
+        <v>2967</v>
       </c>
       <c r="DD131" t="s">
         <v>172</v>
@@ -21021,7 +21045,7 @@
         <v>172</v>
       </c>
       <c r="DC132" t="s">
-        <v>2964</v>
+        <v>2968</v>
       </c>
       <c r="DD132" t="s">
         <v>172</v>
@@ -21059,7 +21083,7 @@
         <v>172</v>
       </c>
       <c r="DC133" t="s">
-        <v>2965</v>
+        <v>2969</v>
       </c>
       <c r="DD133" t="s">
         <v>172</v>
@@ -21097,7 +21121,7 @@
         <v>172</v>
       </c>
       <c r="DC134" t="s">
-        <v>2966</v>
+        <v>2970</v>
       </c>
       <c r="DD134" t="s">
         <v>172</v>
@@ -21135,7 +21159,7 @@
         <v>172</v>
       </c>
       <c r="DC135" t="s">
-        <v>2967</v>
+        <v>2971</v>
       </c>
       <c r="DD135" t="s">
         <v>172</v>
@@ -21173,7 +21197,7 @@
         <v>172</v>
       </c>
       <c r="DC136" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="DD136" t="s">
         <v>172</v>
@@ -21211,7 +21235,7 @@
         <v>172</v>
       </c>
       <c r="DC137" t="s">
-        <v>2969</v>
+        <v>2973</v>
       </c>
       <c r="DD137" t="s">
         <v>172</v>
@@ -21237,7 +21261,7 @@
         <v>172</v>
       </c>
       <c r="DC138" t="s">
-        <v>2970</v>
+        <v>2974</v>
       </c>
       <c r="DD138" t="s">
         <v>172</v>
@@ -21263,7 +21287,7 @@
         <v>172</v>
       </c>
       <c r="DC139" t="s">
-        <v>2971</v>
+        <v>2975</v>
       </c>
       <c r="DD139" t="s">
         <v>172</v>
@@ -21289,7 +21313,7 @@
         <v>172</v>
       </c>
       <c r="DC140" t="s">
-        <v>2972</v>
+        <v>2976</v>
       </c>
       <c r="DD140" t="s">
         <v>172</v>
@@ -21315,7 +21339,7 @@
         <v>172</v>
       </c>
       <c r="DC141" t="s">
-        <v>2973</v>
+        <v>2977</v>
       </c>
       <c r="DD141" t="s">
         <v>172</v>
@@ -21367,7 +21391,7 @@
         <v>172</v>
       </c>
       <c r="DC143" t="s">
-        <v>2974</v>
+        <v>2978</v>
       </c>
       <c r="DD143" t="s">
         <v>172</v>
@@ -21393,7 +21417,7 @@
         <v>172</v>
       </c>
       <c r="DC144" t="s">
-        <v>2975</v>
+        <v>2979</v>
       </c>
       <c r="DD144" t="s">
         <v>172</v>
@@ -21419,7 +21443,7 @@
         <v>172</v>
       </c>
       <c r="DC145" t="s">
-        <v>2976</v>
+        <v>2980</v>
       </c>
       <c r="DD145" t="s">
         <v>172</v>
@@ -21445,7 +21469,7 @@
         <v>172</v>
       </c>
       <c r="DC146" t="s">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="DD146" t="s">
         <v>172</v>
@@ -21471,7 +21495,7 @@
         <v>172</v>
       </c>
       <c r="DC147" t="s">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="DD147" t="s">
         <v>172</v>
@@ -21497,7 +21521,7 @@
         <v>172</v>
       </c>
       <c r="DC148" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="DD148" t="s">
         <v>172</v>
@@ -21523,7 +21547,7 @@
         <v>172</v>
       </c>
       <c r="DC149" t="s">
-        <v>2980</v>
+        <v>2984</v>
       </c>
       <c r="DD149" t="s">
         <v>172</v>
@@ -21549,7 +21573,7 @@
         <v>172</v>
       </c>
       <c r="DC150" t="s">
-        <v>2981</v>
+        <v>2985</v>
       </c>
       <c r="DD150" t="s">
         <v>172</v>
@@ -21575,7 +21599,7 @@
         <v>172</v>
       </c>
       <c r="DC151" t="s">
-        <v>2982</v>
+        <v>2986</v>
       </c>
       <c r="DD151" t="s">
         <v>172</v>
@@ -21601,7 +21625,7 @@
         <v>172</v>
       </c>
       <c r="DC152" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="DD152" t="s">
         <v>172</v>
@@ -33456,6 +33480,48 @@
         <v>2778</v>
       </c>
       <c r="DJ918" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="919" spans="103:114">
+      <c r="CY919" t="s">
+        <v>2779</v>
+      </c>
+      <c r="CZ919" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI919" t="s">
+        <v>2779</v>
+      </c>
+      <c r="DJ919" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="920" spans="103:114">
+      <c r="CY920" t="s">
+        <v>2780</v>
+      </c>
+      <c r="CZ920" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI920" t="s">
+        <v>2780</v>
+      </c>
+      <c r="DJ920" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="921" spans="103:114">
+      <c r="CY921" t="s">
+        <v>2781</v>
+      </c>
+      <c r="CZ921" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI921" t="s">
+        <v>2781</v>
+      </c>
+      <c r="DJ921" t="s">
         <v>172</v>
       </c>
     </row>
@@ -35131,7 +35197,7 @@
       <formula1>'Codelijsten'!$A$4:$A$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001">
       <formula1>'Codelijsten'!$C$4:$C$16</formula1>
@@ -35152,7 +35218,7 @@
       <formula1>'Codelijsten'!$M$4:$M$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ9:AJ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL9:AL1000001">
       <formula1>'Codelijsten'!$O$4:$O$6</formula1>
@@ -35161,7 +35227,7 @@
       <formula1>'Codelijsten'!$Q$4:$Q$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW9:AW1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY9:AY1000001">
       <formula1>'Codelijsten'!$S$4:$S$6</formula1>
@@ -35170,22 +35236,22 @@
       <formula1>'Codelijsten'!$U$4:$U$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ9:BJ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK9:BK1000001">
       <formula1>'Codelijsten'!$W$4:$W$7</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN9:BN1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO9:BO1000001">
       <formula1>'Codelijsten'!$Y$4:$Y$13</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP9:BP1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ9:BZ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CC9:CC1000001">
       <formula1>'Codelijsten'!$AA$4:$AA$17</formula1>
@@ -35200,13 +35266,13 @@
       <formula1>'Codelijsten'!$AG$4:$AG$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CV9:CV1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CX9:CX1000001">
       <formula1>'Codelijsten'!$AI$4:$AI$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CZ9:CZ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DE9:DE1000001">
       <formula1>'Codelijsten'!$AK$4:$AK$60</formula1>
@@ -35907,7 +35973,7 @@
       <formula1>'Codelijsten'!$AO$4:$AO$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
       <formula1>'Codelijsten'!$AQ$4:$AQ$137</formula1>
@@ -35928,7 +35994,7 @@
       <formula1>'Codelijsten'!$BA$4:$BA$9</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q1000001">
       <formula1>'Codelijsten'!$BC$4:$BC$7</formula1>
@@ -35946,13 +36012,13 @@
       <formula1>'Codelijsten'!$BK$4:$BK$11</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT1000001">
       <formula1>'Codelijsten'!$BM$4:$BM$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AV1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA6:BA1000001">
       <formula1>'Codelijsten'!$BO$4:$BO$60</formula1>
@@ -38652,7 +38718,7 @@
       <formula1>'Codelijsten'!$BQ$4:$BQ$10</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F1000001">
       <formula1>'Codelijsten'!$BS$4:$BS$8</formula1>
@@ -38661,10 +38727,10 @@
       <formula1>'Codelijsten'!$BU$4:$BU$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10:N1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:P1000001">
       <formula1>'Codelijsten'!$BW$4:$BW$12</formula1>
@@ -38685,19 +38751,19 @@
       <formula1>'Codelijsten'!$CG$4:$CG$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK10:AK1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL10:AL1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM10:AM1000001">
       <formula1>'Codelijsten'!$CI$4:$CI$25</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BA1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB10:BB1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC10:BC1000001">
       <formula1>'Codelijsten'!$CK$4:$CK$12</formula1>
@@ -38718,28 +38784,28 @@
       <formula1>'Codelijsten'!$CU$4:$CU$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX10:BX1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CU10:CU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK10:DK1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DS10:DS1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DU10:DU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DZ10:DZ1000001">
       <formula1>'Codelijsten'!$CW$4:$CW$60</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EB10:EB1000001">
-      <formula1>'Codelijsten'!$CY$4:$CY$918</formula1>
+      <formula1>'Codelijsten'!$CY$4:$CY$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EE10:EE1000001">
-      <formula1>'Codelijsten'!$DA$4:$DA$66</formula1>
+      <formula1>'Codelijsten'!$DA$4:$DA$67</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EJ10:EJ1000001">
       <formula1>'Codelijsten'!$DC$4:$DC$152</formula1>
@@ -38751,28 +38817,28 @@
       <formula1>'Codelijsten'!$DG$4:$DG$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ER10:ER1000001">
-      <formula1>'Codelijsten'!$DI$4:$DI$918</formula1>
+      <formula1>'Codelijsten'!$DI$4:$DI$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EU10:EU1000001">
-      <formula1>'Codelijsten'!$DK$4:$DK$66</formula1>
+      <formula1>'Codelijsten'!$DK$4:$DK$67</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FB10:FB1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FJ10:FJ1000001">
       <formula1>'Codelijsten'!$DM$4:$DM$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FY10:FY1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GB10:GB1000001">
       <formula1>'Codelijsten'!$DO$4:$DO$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GD10:GD1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GE10:GE1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GG10:GG1000001">
       <formula1>'Codelijsten'!$DQ$4:$DQ$6</formula1>
@@ -38885,58 +38951,58 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2989</v>
+        <v>2993</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2990</v>
+        <v>2994</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2991</v>
+        <v>2995</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2992</v>
+        <v>2996</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2993</v>
+        <v>2997</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2994</v>
+        <v>2998</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2996</v>
+        <v>3000</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2997</v>
+        <v>3001</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>2999</v>
+        <v>3003</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>3000</v>
+        <v>3004</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3001</v>
+        <v>3005</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3003</v>
+        <v>3007</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>3004</v>
+        <v>3008</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>3005</v>
+        <v>3009</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>3007</v>
+        <v>3011</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -38945,58 +39011,58 @@
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>3010</v>
+        <v>3014</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>3011</v>
+        <v>3015</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>3012</v>
+        <v>3016</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>3013</v>
+        <v>3017</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>3014</v>
+        <v>3018</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>3015</v>
+        <v>3019</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>3016</v>
+        <v>3020</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>3017</v>
+        <v>3021</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>3018</v>
+        <v>3022</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>3022</v>
+        <v>3026</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>3027</v>
+        <v>3031</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>152</v>
@@ -39052,7 +39118,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2998</v>
+        <v>3002</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -39063,7 +39129,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>3008</v>
+        <v>3012</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -39078,10 +39144,10 @@
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>3019</v>
+        <v>3023</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -39092,20 +39158,20 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>3026</v>
+        <v>3030</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -39179,19 +39245,19 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AH3" s="4" t="s">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>3025</v>
+        <v>3029</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>3028</v>
+        <v>3032</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>3030</v>
+        <v>3034</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>143</v>
@@ -39359,58 +39425,58 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>2998</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>2990</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2992</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2994</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>2996</v>
+        <v>3000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2997</v>
+        <v>3001</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>3004</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>3008</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>3000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3001</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>3003</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>3004</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>3005</v>
+        <v>3009</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>3007</v>
+        <v>3011</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>4</v>
@@ -39419,58 +39485,58 @@
         <v>6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="W6" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>3015</v>
-      </c>
       <c r="AC6" s="1" t="s">
-        <v>3016</v>
+        <v>3020</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>3017</v>
+        <v>3021</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>3018</v>
+        <v>3022</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>3022</v>
+        <v>3026</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>3027</v>
+        <v>3031</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>152</v>
@@ -39546,10 +39612,10 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7:AF1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
       <formula1>'Codelijsten'!$DU$4:$DU$8</formula1>
@@ -39561,10 +39627,10 @@
       <formula1>'Codelijsten'!$DY$4:$DY$27</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU7:AU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB7:BB1000001">
       <formula1>'Codelijsten'!$EA$4:$EA$60</formula1>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -33679,9 +33679,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" hidden="1" customWidth="1"/>
@@ -38891,7 +38891,7 @@
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="100.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="52.7109375" hidden="1" customWidth="1"/>
@@ -38900,7 +38900,7 @@
     <col min="9" max="9" width="54.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="54.7109375" customWidth="1"/>
-    <col min="12" max="12" width="86.7109375" customWidth="1"/>
+    <col min="12" max="12" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="100.7109375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="52.7109375" hidden="1" customWidth="1"/>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -33678,7 +33678,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" hidden="1" customWidth="1"/>
@@ -33686,9 +33686,9 @@
     <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="12" width="60.7109375" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="46.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="120.7109375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="122.7109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="134.7109375" hidden="1" customWidth="1"/>
@@ -33711,9 +33711,9 @@
     <col min="34" max="34" width="108.7109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="104.7109375" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="60.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="84.7109375" customWidth="1"/>
-    <col min="38" max="39" width="102.7109375" customWidth="1"/>
-    <col min="40" max="40" width="130.7109375" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="18.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="162.7109375" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="164.7109375" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="176.7109375" hidden="1" customWidth="1"/>
@@ -35311,13 +35311,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="44.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="50.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="72.7109375" hidden="1" customWidth="1"/>
@@ -35336,8 +35336,8 @@
     <col min="24" max="24" width="74.7109375" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="56.7109375" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="52.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="40.7109375" customWidth="1"/>
-    <col min="29" max="29" width="60.7109375" customWidth="1"/>
+    <col min="27" max="28" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="52.7109375" hidden="1" customWidth="1"/>
     <col min="31" max="32" width="62.7109375" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="30.7109375" hidden="1" customWidth="1"/>
@@ -36053,12 +36053,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="62.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="60.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="72.7109375" hidden="1" customWidth="1"/>
@@ -36129,11 +36129,11 @@
     <col min="76" max="76" width="86.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="77" max="77" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="78" max="80" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="52.7109375" customWidth="1"/>
+    <col min="81" max="81" width="52.7109375" hidden="1" customWidth="1"/>
     <col min="82" max="82" width="70.7109375" hidden="1" customWidth="1"/>
     <col min="83" max="83" width="62.7109375" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="38.7109375" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="104.7109375" customWidth="1"/>
+    <col min="85" max="85" width="42.7109375" hidden="1" customWidth="1"/>
     <col min="86" max="86" width="136.7109375" hidden="1" customWidth="1"/>
     <col min="87" max="87" width="138.7109375" hidden="1" customWidth="1"/>
     <col min="88" max="88" width="150.7109375" hidden="1" customWidth="1"/>
@@ -36147,9 +36147,9 @@
     <col min="96" max="96" width="118.7109375" hidden="1" customWidth="1"/>
     <col min="97" max="97" width="100.7109375" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="96.7109375" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="60.7109375" style="2" customWidth="1"/>
+    <col min="99" max="99" width="34.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="100" max="100" width="58.7109375" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="104.7109375" customWidth="1"/>
+    <col min="101" max="101" width="34.7109375" hidden="1" customWidth="1"/>
     <col min="102" max="102" width="136.7109375" hidden="1" customWidth="1"/>
     <col min="103" max="103" width="138.7109375" hidden="1" customWidth="1"/>
     <col min="104" max="104" width="150.7109375" hidden="1" customWidth="1"/>
@@ -36163,7 +36163,7 @@
     <col min="112" max="112" width="118.7109375" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="100.7109375" hidden="1" customWidth="1"/>
     <col min="114" max="114" width="96.7109375" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="60.7109375" style="2" customWidth="1"/>
+    <col min="115" max="115" width="36.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="116" max="116" width="58.7109375" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="56.7109375" hidden="1" customWidth="1"/>
     <col min="118" max="118" width="68.7109375" hidden="1" customWidth="1"/>
@@ -36180,17 +36180,17 @@
     <col min="129" max="129" width="56.7109375" hidden="1" customWidth="1"/>
     <col min="130" max="130" width="66.7109375" hidden="1" customWidth="1"/>
     <col min="131" max="131" width="60.7109375" hidden="1" customWidth="1"/>
-    <col min="132" max="132" width="66.7109375" customWidth="1"/>
-    <col min="133" max="133" width="96.7109375" customWidth="1"/>
+    <col min="132" max="132" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="30.7109375" hidden="1" customWidth="1"/>
     <col min="134" max="134" width="88.7109375" hidden="1" customWidth="1"/>
-    <col min="135" max="135" width="62.7109375" customWidth="1"/>
-    <col min="136" max="136" width="76.7109375" customWidth="1"/>
-    <col min="137" max="137" width="80.7109375" customWidth="1"/>
+    <col min="135" max="135" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="28.7109375" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="32.7109375" hidden="1" customWidth="1"/>
     <col min="138" max="139" width="68.7109375" hidden="1" customWidth="1"/>
     <col min="140" max="140" width="62.7109375" hidden="1" customWidth="1"/>
     <col min="141" max="141" width="76.7109375" hidden="1" customWidth="1"/>
     <col min="142" max="142" width="78.7109375" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="66.7109375" customWidth="1"/>
+    <col min="143" max="143" width="18.7109375" hidden="1" customWidth="1"/>
     <col min="144" max="144" width="80.7109375" hidden="1" customWidth="1"/>
     <col min="145" max="145" width="104.7109375" hidden="1" customWidth="1"/>
     <col min="146" max="147" width="82.7109375" hidden="1" customWidth="1"/>
@@ -38890,7 +38890,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="100.7109375" hidden="1" customWidth="1"/>
@@ -38899,7 +38899,7 @@
     <col min="8" max="8" width="72.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="54.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="54.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="100.7109375" hidden="1" customWidth="1"/>
@@ -38911,7 +38911,7 @@
     <col min="20" max="20" width="44.7109375" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="58.7109375" customWidth="1"/>
+    <col min="23" max="23" width="30.7109375" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="90.7109375" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="92.7109375" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="104.7109375" hidden="1" customWidth="1"/>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1546">
   <si>
     <t>identificatie</t>
   </si>
@@ -4362,6 +4362,69 @@
     <t>status</t>
   </si>
   <si>
+    <t>kwaliteit-origine</t>
+  </si>
+  <si>
+    <t>origine</t>
+  </si>
+  <si>
+    <t>kwaliteit</t>
+  </si>
+  <si>
+    <t>bijlage-titel</t>
+  </si>
+  <si>
+    <t>titel</t>
+  </si>
+  <si>
+    <t>bijlage-choice_1-datum</t>
+  </si>
+  <si>
+    <t>bijlage-choice_1-jaar</t>
+  </si>
+  <si>
+    <t>jaar</t>
+  </si>
+  <si>
+    <t>bijlage-choice_2-bestand</t>
+  </si>
+  <si>
+    <t>bestand</t>
+  </si>
+  <si>
+    <t>bijlage-choice_2-url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>choice_2</t>
+  </si>
+  <si>
+    <t>bijlage-bijlage_type</t>
+  </si>
+  <si>
+    <t>bijlage_type</t>
+  </si>
+  <si>
+    <t>bijlage</t>
+  </si>
+  <si>
+    <t>dataidentifier-permkey</t>
+  </si>
+  <si>
+    <t>permkey</t>
+  </si>
+  <si>
+    <t>dataidentifier-uri</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>dataidentifier</t>
+  </si>
+  <si>
     <t>publiek</t>
   </si>
   <si>
@@ -4377,13 +4440,220 @@
     <t>intern afgewerkt</t>
   </si>
   <si>
+    <t>VLAREM</t>
+  </si>
+  <si>
+    <t>VLAREL</t>
+  </si>
+  <si>
+    <t>Oppervlaktedelfstoffendecreet</t>
+  </si>
+  <si>
+    <t>Decreet Diepe Ondergrond</t>
+  </si>
+  <si>
+    <t>andere wettelijke verplichting</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor kartering</t>
+  </si>
+  <si>
+    <t>gebruikt in kartering</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor modellering</t>
+  </si>
+  <si>
+    <t>gebruikt in modellering</t>
+  </si>
+  <si>
+    <t>archiefinvoer</t>
+  </si>
+  <si>
+    <t>wetenschappelijk onderzoek</t>
+  </si>
+  <si>
+    <t>studies/projecten</t>
+  </si>
+  <si>
+    <t>Archeologieregelgeving</t>
+  </si>
+  <si>
+    <t>andere</t>
+  </si>
+  <si>
+    <t>detailplan</t>
+  </si>
+  <si>
+    <t>foto</t>
+  </si>
+  <si>
+    <t>lithoprofiel</t>
+  </si>
+  <si>
+    <t>korrelverdeling</t>
+  </si>
+  <si>
+    <t>geologisch profiel</t>
+  </si>
+  <si>
+    <t>stijghoogtereeks</t>
+  </si>
+  <si>
+    <t>grondwater kwaliteitsanalyse</t>
+  </si>
+  <si>
+    <t>onttrekking-reeks</t>
+  </si>
+  <si>
+    <t>boorgatmeting</t>
+  </si>
+  <si>
+    <t>attest opvulling put</t>
+  </si>
+  <si>
+    <t>IMJV</t>
+  </si>
+  <si>
+    <t>liggingsplan putten</t>
+  </si>
+  <si>
+    <t>boorrapport</t>
+  </si>
+  <si>
+    <t>putschema</t>
+  </si>
+  <si>
+    <t>vergunning</t>
+  </si>
+  <si>
+    <t>UG-Biblio</t>
+  </si>
+  <si>
+    <t>statusmotivatie</t>
+  </si>
+  <si>
+    <t>UG-Lib</t>
+  </si>
+  <si>
+    <t>kwaliteitscontrole XYZ</t>
+  </si>
+  <si>
+    <t>Data aardkundig profiel</t>
+  </si>
+  <si>
+    <t>Andere archeologie</t>
+  </si>
+  <si>
+    <t>foto bodem omgeving</t>
+  </si>
+  <si>
+    <t>foto bodem profiel zonder nummering</t>
+  </si>
+  <si>
+    <t>foto bodem profiel met nummering</t>
+  </si>
+  <si>
+    <t>archeologische prospectie</t>
+  </si>
+  <si>
+    <t>archeologische opgraving</t>
+  </si>
+  <si>
+    <t>bodemprofielbeschrijving</t>
+  </si>
+  <si>
+    <t>bodemobservaties</t>
+  </si>
+  <si>
+    <t>foto bodem overzicht</t>
+  </si>
+  <si>
+    <t>foto bodem detail</t>
+  </si>
+  <si>
+    <t>foto bodem horizontale coupe</t>
+  </si>
+  <si>
+    <t>bodemexcursiegids</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>sondeerrapport</t>
+  </si>
+  <si>
+    <t>CTE-vooronderzoek</t>
+  </si>
+  <si>
+    <t>CTE-probleemanalyse</t>
+  </si>
+  <si>
+    <t>CTE-oppervlaktedetectie</t>
+  </si>
+  <si>
+    <t>CTE-dieptedetectie</t>
+  </si>
+  <si>
+    <t>CTE-opsporen van CTE</t>
+  </si>
+  <si>
+    <t>CTE-toevalsvondsten</t>
+  </si>
+  <si>
+    <t>CTE-pers</t>
+  </si>
+  <si>
+    <t>Bemalingsstudie</t>
+  </si>
+  <si>
+    <t>BGD-scan</t>
+  </si>
+  <si>
+    <t>BGD-txt</t>
+  </si>
+  <si>
+    <t>fiche herstellingen put/filter</t>
+  </si>
+  <si>
+    <t>GEF bestand</t>
+  </si>
+  <si>
+    <t>Grondwater - advies</t>
+  </si>
+  <si>
+    <t>Grondwater onttrekking-reeks</t>
+  </si>
+  <si>
+    <t>Laboverslag</t>
+  </si>
+  <si>
+    <t>Ontginning - adviezen</t>
+  </si>
+  <si>
+    <t>Ontginning - besluiten</t>
+  </si>
+  <si>
+    <t>Ontginning - schouwingsverslagen</t>
+  </si>
+  <si>
+    <t>Ontginning – werkplan</t>
+  </si>
+  <si>
+    <t>toegangsplan</t>
+  </si>
+  <si>
+    <t>vergunningsbesluit</t>
+  </si>
+  <si>
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-19 16:18:45.757702</t>
-  </si>
-  <si>
-    <t>Version</t>
+    <t>2024-07-23 17:11:36.539681</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -4461,7 +4731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4475,6 +4745,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4566,6 +4837,26 @@
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="AG3:AH8" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Beschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="AI3:AJ17" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Beschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="AK3:AL60" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -4939,16 +5230,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH921"/>
+  <dimension ref="A1:AL921"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="35" width="10.7109375" customWidth="1"/>
+    <col min="1" max="39" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -4991,8 +5282,12 @@
         <v>29</v>
       </c>
       <c r="AH1" s="1"/>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5061,8 +5356,16 @@
         <v>1446</v>
       </c>
       <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AI2" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AL2" s="1"/>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -5165,8 +5468,20 @@
       <c r="AH3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -5264,13 +5579,25 @@
         <v>32</v>
       </c>
       <c r="AG4" t="s">
-        <v>1447</v>
+        <v>1468</v>
       </c>
       <c r="AH4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AI4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5368,13 +5695,25 @@
         <v>32</v>
       </c>
       <c r="AG5" t="s">
-        <v>1448</v>
+        <v>1469</v>
       </c>
       <c r="AH5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AI5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="C6" t="s">
         <v>38</v>
       </c>
@@ -5460,13 +5799,25 @@
         <v>32</v>
       </c>
       <c r="AG6" t="s">
-        <v>1449</v>
+        <v>1470</v>
       </c>
       <c r="AH6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AI6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -5540,13 +5891,25 @@
         <v>32</v>
       </c>
       <c r="AG7" t="s">
-        <v>1450</v>
+        <v>1471</v>
       </c>
       <c r="AH7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AI7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -5614,13 +5977,25 @@
         <v>32</v>
       </c>
       <c r="AG8" t="s">
-        <v>1451</v>
+        <v>1472</v>
       </c>
       <c r="AH8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AI8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -5681,8 +6056,20 @@
       <c r="AB9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AI9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -5743,8 +6130,20 @@
       <c r="AB10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="AI10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="C11" t="s">
         <v>43</v>
       </c>
@@ -5787,8 +6186,20 @@
       <c r="AB11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AI11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -5831,8 +6242,20 @@
       <c r="AB12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AI12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -5875,8 +6298,20 @@
       <c r="AB13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AI13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="C14" t="s">
         <v>46</v>
       </c>
@@ -5919,8 +6354,20 @@
       <c r="AB14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:34">
+      <c r="AI14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="C15" t="s">
         <v>47</v>
       </c>
@@ -5963,8 +6410,20 @@
       <c r="AB15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AI15" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -6007,8 +6466,20 @@
       <c r="AB16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="5:28">
+      <c r="AI16" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="5:38">
       <c r="E17" t="s">
         <v>65</v>
       </c>
@@ -6045,8 +6516,20 @@
       <c r="AB17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="5:28">
+      <c r="AI17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="5:38">
       <c r="I18" t="s">
         <v>62</v>
       </c>
@@ -6077,8 +6560,14 @@
       <c r="AB18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="5:28">
+      <c r="AK18" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="5:38">
       <c r="I19" t="s">
         <v>63</v>
       </c>
@@ -6103,8 +6592,14 @@
       <c r="AB19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="5:28">
+      <c r="AK19" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:38">
       <c r="I20" t="s">
         <v>83</v>
       </c>
@@ -6129,8 +6624,14 @@
       <c r="AB20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="5:28">
+      <c r="AK20" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="5:38">
       <c r="Q21" t="s">
         <v>174</v>
       </c>
@@ -6149,8 +6650,14 @@
       <c r="AB21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="5:28">
+      <c r="AK21" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="5:38">
       <c r="Q22" t="s">
         <v>176</v>
       </c>
@@ -6169,8 +6676,14 @@
       <c r="AB22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="5:28">
+      <c r="AK22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="5:38">
       <c r="Q23" t="s">
         <v>178</v>
       </c>
@@ -6189,8 +6702,14 @@
       <c r="AB23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="5:28">
+      <c r="AK23" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="5:38">
       <c r="Q24" t="s">
         <v>180</v>
       </c>
@@ -6209,8 +6728,14 @@
       <c r="AB24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="5:28">
+      <c r="AK24" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="5:38">
       <c r="Q25" t="s">
         <v>182</v>
       </c>
@@ -6229,8 +6754,14 @@
       <c r="AB25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="5:28">
+      <c r="AK25" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="5:38">
       <c r="Q26" t="s">
         <v>184</v>
       </c>
@@ -6249,8 +6780,14 @@
       <c r="AB26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="5:28">
+      <c r="AK26" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="5:38">
       <c r="Q27" t="s">
         <v>186</v>
       </c>
@@ -6269,8 +6806,14 @@
       <c r="AB27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="5:28">
+      <c r="AK27" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="5:38">
       <c r="Q28" t="s">
         <v>188</v>
       </c>
@@ -6289,8 +6832,14 @@
       <c r="AB28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="5:28">
+      <c r="AK28" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="5:38">
       <c r="Q29" t="s">
         <v>190</v>
       </c>
@@ -6309,8 +6858,14 @@
       <c r="AB29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="5:28">
+      <c r="AK29" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="5:38">
       <c r="Q30" t="s">
         <v>192</v>
       </c>
@@ -6329,8 +6884,14 @@
       <c r="AB30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="5:28">
+      <c r="AK30" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="5:38">
       <c r="Q31" t="s">
         <v>194</v>
       </c>
@@ -6349,8 +6910,14 @@
       <c r="AB31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="5:28">
+      <c r="AK31" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="5:38">
       <c r="Q32" t="s">
         <v>196</v>
       </c>
@@ -6369,8 +6936,14 @@
       <c r="AB32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="17:28">
+      <c r="AK32" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="17:38">
       <c r="Q33" t="s">
         <v>198</v>
       </c>
@@ -6389,8 +6962,14 @@
       <c r="AB33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="17:28">
+      <c r="AK33" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="17:38">
       <c r="Q34" t="s">
         <v>200</v>
       </c>
@@ -6409,8 +6988,14 @@
       <c r="AB34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="17:28">
+      <c r="AK34" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="17:38">
       <c r="Q35" t="s">
         <v>202</v>
       </c>
@@ -6429,8 +7014,14 @@
       <c r="AB35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="17:28">
+      <c r="AK35" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="17:38">
       <c r="Q36" t="s">
         <v>204</v>
       </c>
@@ -6449,8 +7040,14 @@
       <c r="AB36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="17:28">
+      <c r="AK36" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="17:38">
       <c r="Q37" t="s">
         <v>206</v>
       </c>
@@ -6469,8 +7066,14 @@
       <c r="AB37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="17:28">
+      <c r="AK37" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="17:38">
       <c r="Q38" t="s">
         <v>208</v>
       </c>
@@ -6489,8 +7092,14 @@
       <c r="AB38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="17:28">
+      <c r="AK38" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="17:38">
       <c r="Q39" t="s">
         <v>210</v>
       </c>
@@ -6509,8 +7118,14 @@
       <c r="AB39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="17:28">
+      <c r="AK39" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="17:38">
       <c r="Q40" t="s">
         <v>212</v>
       </c>
@@ -6529,8 +7144,14 @@
       <c r="AB40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="17:28">
+      <c r="AK40" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="17:38">
       <c r="Q41" t="s">
         <v>214</v>
       </c>
@@ -6549,8 +7170,14 @@
       <c r="AB41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="17:28">
+      <c r="AK41" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="17:38">
       <c r="Q42" t="s">
         <v>216</v>
       </c>
@@ -6569,8 +7196,14 @@
       <c r="AB42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="17:28">
+      <c r="AK42" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="17:38">
       <c r="Q43" t="s">
         <v>218</v>
       </c>
@@ -6589,8 +7222,14 @@
       <c r="AB43" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="17:28">
+      <c r="AK43" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="17:38">
       <c r="Q44" t="s">
         <v>220</v>
       </c>
@@ -6609,8 +7248,14 @@
       <c r="AB44" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="17:28">
+      <c r="AK44" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="17:38">
       <c r="Q45" t="s">
         <v>222</v>
       </c>
@@ -6629,8 +7274,14 @@
       <c r="AB45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="17:28">
+      <c r="AK45" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="17:38">
       <c r="Q46" t="s">
         <v>224</v>
       </c>
@@ -6649,8 +7300,14 @@
       <c r="AB46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="17:28">
+      <c r="AK46" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="17:38">
       <c r="Q47" t="s">
         <v>226</v>
       </c>
@@ -6669,8 +7326,14 @@
       <c r="AB47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="17:28">
+      <c r="AK47" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="17:38">
       <c r="Q48" t="s">
         <v>228</v>
       </c>
@@ -6689,8 +7352,14 @@
       <c r="AB48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="17:28">
+      <c r="AK48" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="17:38">
       <c r="Q49" t="s">
         <v>230</v>
       </c>
@@ -6709,8 +7378,14 @@
       <c r="AB49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="17:28">
+      <c r="AK49" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="17:38">
       <c r="Q50" t="s">
         <v>232</v>
       </c>
@@ -6729,8 +7404,14 @@
       <c r="AB50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="17:28">
+      <c r="AK50" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="17:38">
       <c r="Q51" t="s">
         <v>234</v>
       </c>
@@ -6749,8 +7430,14 @@
       <c r="AB51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="17:28">
+      <c r="AK51" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="17:38">
       <c r="Q52" t="s">
         <v>236</v>
       </c>
@@ -6769,8 +7456,14 @@
       <c r="AB52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="17:28">
+      <c r="AK52" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="17:38">
       <c r="Q53" t="s">
         <v>238</v>
       </c>
@@ -6789,8 +7482,14 @@
       <c r="AB53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="17:28">
+      <c r="AK53" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="17:38">
       <c r="Q54" t="s">
         <v>240</v>
       </c>
@@ -6809,8 +7508,14 @@
       <c r="AB54" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="17:28">
+      <c r="AK54" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="17:38">
       <c r="Q55" t="s">
         <v>242</v>
       </c>
@@ -6829,8 +7534,14 @@
       <c r="AB55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="17:28">
+      <c r="AK55" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="17:38">
       <c r="Q56" t="s">
         <v>244</v>
       </c>
@@ -6849,8 +7560,14 @@
       <c r="AB56" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="17:28">
+      <c r="AK56" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="17:38">
       <c r="Q57" t="s">
         <v>246</v>
       </c>
@@ -6869,8 +7586,14 @@
       <c r="AB57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="17:28">
+      <c r="AK57" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="17:38">
       <c r="Q58" t="s">
         <v>248</v>
       </c>
@@ -6889,8 +7612,14 @@
       <c r="AB58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="17:28">
+      <c r="AK58" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="17:38">
       <c r="Q59" t="s">
         <v>250</v>
       </c>
@@ -6909,8 +7638,14 @@
       <c r="AB59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="17:28">
+      <c r="AK59" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="17:38">
       <c r="Q60" t="s">
         <v>252</v>
       </c>
@@ -6929,8 +7664,14 @@
       <c r="AB60" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="61" spans="17:28">
+      <c r="AK60" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="17:38">
       <c r="Q61" t="s">
         <v>254</v>
       </c>
@@ -6950,7 +7691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="17:28">
+    <row r="62" spans="17:38">
       <c r="Q62" t="s">
         <v>256</v>
       </c>
@@ -6970,7 +7711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="17:28">
+    <row r="63" spans="17:38">
       <c r="Q63" t="s">
         <v>258</v>
       </c>
@@ -6990,7 +7731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="17:28">
+    <row r="64" spans="17:38">
       <c r="Q64" t="s">
         <v>260</v>
       </c>
@@ -14323,7 +15064,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14344,10 +15085,12 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="W1:AF1"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AG1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="17">
+  <tableParts count="19">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -14365,6 +15108,8 @@
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15175,7 +15920,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15188,10 +15933,19 @@
     <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="48.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="44.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="36.7109375" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1">
+    <row r="1" spans="1:18" hidden="1">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -15219,8 +15973,35 @@
       <c r="I1" s="1" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1">
+      <c r="J1" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -15246,8 +16027,23 @@
       <c r="I2" s="1" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1">
+      <c r="J2" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" hidden="1">
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
@@ -15263,8 +16059,31 @@
       <c r="H3" s="6" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1">
+      <c r="J3" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" hidden="1">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -15274,8 +16093,20 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -15303,12 +16134,43 @@
       <c r="I5" s="1" t="s">
         <v>1446</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>1465</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="6">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
       <formula1>-146096</formula1>
     </dataValidation>
@@ -15318,9 +16180,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000001">
       <formula1>'Codelijsten'!$AG$4:$AG$8</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000001">
+      <formula1>'Codelijsten'!$AI$4:$AI$17</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+      <formula1>-146096</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
+      <formula1>'Codelijsten'!$AK$4:$AK$60</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I5" location="'Codelijsten'!$AG$2" display="status"/>
+    <hyperlink ref="J5" location="'Codelijsten'!$AI$2" display="kwaliteit-origine"/>
+    <hyperlink ref="P5" location="'Codelijsten'!$AK$2" display="bijlage-bijlage_type"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15336,18 +16209,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1452</v>
+        <v>1542</v>
       </c>
       <c r="B1" t="s">
-        <v>1453</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1454</v>
+        <v>1544</v>
       </c>
       <c r="B2" t="s">
-        <v>1455</v>
+        <v>1545</v>
       </c>
     </row>
   </sheetData>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="1548">
   <si>
     <t>identificatie</t>
   </si>
@@ -4650,13 +4650,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:11:36.539681</t>
+    <t>2024-07-23 17:34:45.017464</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>Ruben Vijverman</t>
   </si>
 </sst>
 </file>
@@ -16201,7 +16207,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16223,6 +16229,14 @@
         <v>1545</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4650,7 +4650,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:34:45.017464</t>
+    <t>2024-07-24 08:44:23.446251</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -594,7 +594,7 @@
     <t>0210</t>
   </si>
   <si>
-    <t>KiezeloÃ¶lietformatie ten noorden van Feldbiss</t>
+    <t>Kiezeloölietformatie ten noorden van Feldbiss</t>
   </si>
   <si>
     <t>0211</t>
@@ -1020,7 +1020,7 @@
     <t>0923</t>
   </si>
   <si>
-    <t>Zand van Mons-en-PÃ©vÃ¨le</t>
+    <t>Zand van Mons-en-Pévèle</t>
   </si>
   <si>
     <t>0924</t>
@@ -1032,7 +1032,7 @@
     <t>0925</t>
   </si>
   <si>
-    <t>Klei van Mont-HÃ©ribu</t>
+    <t>Klei van Mont-Héribu</t>
   </si>
   <si>
     <t>1000</t>
@@ -4650,7 +4650,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 08:44:23.446251</t>
+    <t>2024-07-24 08:59:59.779297</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="1548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="1583">
   <si>
     <t>identificatie</t>
   </si>
@@ -4338,12 +4338,30 @@
     <t>dataleverancier</t>
   </si>
   <si>
+    <t>kwaliteit-aard</t>
+  </si>
+  <si>
+    <t>aard</t>
+  </si>
+  <si>
+    <t>kwaliteit-origine</t>
+  </si>
+  <si>
+    <t>origine</t>
+  </si>
+  <si>
+    <t>kwaliteit</t>
+  </si>
+  <si>
     <t>startdatum</t>
   </si>
   <si>
     <t>einddatum</t>
   </si>
   <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
     <t>locatie-coordinatenstelsel</t>
   </si>
   <si>
@@ -4362,15 +4380,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>kwaliteit-origine</t>
-  </si>
-  <si>
-    <t>origine</t>
-  </si>
-  <si>
-    <t>kwaliteit</t>
-  </si>
-  <si>
     <t>bijlage-titel</t>
   </si>
   <si>
@@ -4425,6 +4434,126 @@
     <t>dataidentifier</t>
   </si>
   <si>
+    <t>Geologisch onderzoek</t>
+  </si>
+  <si>
+    <t>Exploratie minerale bronnen</t>
+  </si>
+  <si>
+    <t>Exploitatie minerale bronnen</t>
+  </si>
+  <si>
+    <t>Exploratie energie bronnen</t>
+  </si>
+  <si>
+    <t>Exploitatie energie bronnen</t>
+  </si>
+  <si>
+    <t>Geothermie</t>
+  </si>
+  <si>
+    <t>Berging</t>
+  </si>
+  <si>
+    <t>Exploratie ondergrondse opslag</t>
+  </si>
+  <si>
+    <t>Grondwaterwinning</t>
+  </si>
+  <si>
+    <t>Geofysisch onderzoek</t>
+  </si>
+  <si>
+    <t>Hydrogeologisch onderzoek</t>
+  </si>
+  <si>
+    <t>Bodemkundig onderzoek</t>
+  </si>
+  <si>
+    <t>Geotechnisch onderzoek</t>
+  </si>
+  <si>
+    <t>Geochemisch onderzoek</t>
+  </si>
+  <si>
+    <t>Grondwaterkwaliteit monitoring</t>
+  </si>
+  <si>
+    <t>Grondwaterkwantiteit monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring vervuilde sites</t>
+  </si>
+  <si>
+    <t>Drainage en bemaling</t>
+  </si>
+  <si>
+    <t>Sanering</t>
+  </si>
+  <si>
+    <t>Infiltratie</t>
+  </si>
+  <si>
+    <t>Meerdere</t>
+  </si>
+  <si>
+    <t>Bodemchemisch en bodemfysisch onderzoek</t>
+  </si>
+  <si>
+    <t>PFAS onderzoek</t>
+  </si>
+  <si>
+    <t>CTE onderzoek</t>
+  </si>
+  <si>
+    <t>VLAREM</t>
+  </si>
+  <si>
+    <t>VLAREL</t>
+  </si>
+  <si>
+    <t>Oppervlaktedelfstoffendecreet</t>
+  </si>
+  <si>
+    <t>Decreet Diepe Ondergrond</t>
+  </si>
+  <si>
+    <t>andere wettelijke verplichting</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor kartering</t>
+  </si>
+  <si>
+    <t>gebruikt in kartering</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor modellering</t>
+  </si>
+  <si>
+    <t>gebruikt in modellering</t>
+  </si>
+  <si>
+    <t>archiefinvoer</t>
+  </si>
+  <si>
+    <t>wetenschappelijk onderzoek</t>
+  </si>
+  <si>
+    <t>studies/projecten</t>
+  </si>
+  <si>
+    <t>Archeologieregelgeving</t>
+  </si>
+  <si>
+    <t>andere</t>
+  </si>
+  <si>
+    <t>geometrie coördinatenstelsel</t>
+  </si>
+  <si>
+    <t>geometrie wkt</t>
+  </si>
+  <si>
     <t>publiek</t>
   </si>
   <si>
@@ -4440,46 +4569,22 @@
     <t>intern afgewerkt</t>
   </si>
   <si>
-    <t>VLAREM</t>
-  </si>
-  <si>
-    <t>VLAREL</t>
-  </si>
-  <si>
-    <t>Oppervlaktedelfstoffendecreet</t>
-  </si>
-  <si>
-    <t>Decreet Diepe Ondergrond</t>
-  </si>
-  <si>
-    <t>andere wettelijke verplichting</t>
-  </si>
-  <si>
-    <t>uitgevoerd voor kartering</t>
-  </si>
-  <si>
-    <t>gebruikt in kartering</t>
-  </si>
-  <si>
-    <t>uitgevoerd voor modellering</t>
-  </si>
-  <si>
-    <t>gebruikt in modellering</t>
-  </si>
-  <si>
-    <t>archiefinvoer</t>
-  </si>
-  <si>
-    <t>wetenschappelijk onderzoek</t>
-  </si>
-  <si>
-    <t>studies/projecten</t>
-  </si>
-  <si>
-    <t>Archeologieregelgeving</t>
-  </si>
-  <si>
-    <t>andere</t>
+    <t>bijlage titel</t>
+  </si>
+  <si>
+    <t>datum bijlage</t>
+  </si>
+  <si>
+    <t>jaar bijlage</t>
+  </si>
+  <si>
+    <t>bestand bijlage</t>
+  </si>
+  <si>
+    <t>URL bijlage</t>
+  </si>
+  <si>
+    <t>type bijlage</t>
   </si>
   <si>
     <t>detailplan</t>
@@ -4650,7 +4755,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 08:59:59.779297</t>
+    <t>2024-07-24 13:26:29.183201</t>
   </si>
   <si>
     <t>version</t>
@@ -4842,7 +4947,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="AG3:AH8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="AG3:AH27" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -4862,7 +4967,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="AK3:AL60" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="AK3:AL8" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -4873,6 +4978,16 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C3:D16" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Beschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="AM3:AN60" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5236,16 +5351,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL921"/>
+  <dimension ref="A1:AN921"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="39" width="10.7109375" customWidth="1"/>
+    <col min="1" max="41" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -5292,8 +5407,10 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
-    </row>
-    <row r="2" spans="1:38">
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5359,19 +5476,23 @@
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="AL2" s="1"/>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="AM2" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AN2" s="1"/>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -5486,8 +5607,14 @@
       <c r="AL3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:38">
+      <c r="AM3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -5585,25 +5712,31 @@
         <v>32</v>
       </c>
       <c r="AG4" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="AH4" t="s">
         <v>32</v>
       </c>
       <c r="AI4" t="s">
-        <v>1473</v>
+        <v>1495</v>
       </c>
       <c r="AJ4" t="s">
         <v>32</v>
       </c>
       <c r="AK4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" t="s">
         <v>138</v>
       </c>
-      <c r="AL4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AN4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5701,25 +5834,31 @@
         <v>32</v>
       </c>
       <c r="AG5" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="AH5" t="s">
         <v>32</v>
       </c>
       <c r="AI5" t="s">
-        <v>1474</v>
+        <v>1496</v>
       </c>
       <c r="AJ5" t="s">
         <v>32</v>
       </c>
       <c r="AK5" t="s">
-        <v>1487</v>
+        <v>1512</v>
       </c>
       <c r="AL5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AM5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="C6" t="s">
         <v>38</v>
       </c>
@@ -5805,25 +5944,31 @@
         <v>32</v>
       </c>
       <c r="AG6" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="AH6" t="s">
         <v>32</v>
       </c>
       <c r="AI6" t="s">
-        <v>1475</v>
+        <v>1497</v>
       </c>
       <c r="AJ6" t="s">
         <v>32</v>
       </c>
       <c r="AK6" t="s">
-        <v>1486</v>
+        <v>1513</v>
       </c>
       <c r="AL6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -5897,25 +6042,31 @@
         <v>32</v>
       </c>
       <c r="AG7" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="AH7" t="s">
         <v>32</v>
       </c>
       <c r="AI7" t="s">
-        <v>1476</v>
+        <v>1498</v>
       </c>
       <c r="AJ7" t="s">
         <v>32</v>
       </c>
       <c r="AK7" t="s">
-        <v>1488</v>
+        <v>1514</v>
       </c>
       <c r="AL7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AM7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -5983,25 +6134,31 @@
         <v>32</v>
       </c>
       <c r="AG8" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="AH8" t="s">
         <v>32</v>
       </c>
       <c r="AI8" t="s">
-        <v>1477</v>
+        <v>1499</v>
       </c>
       <c r="AJ8" t="s">
         <v>32</v>
       </c>
       <c r="AK8" t="s">
-        <v>1489</v>
+        <v>1515</v>
       </c>
       <c r="AL8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AM8" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -6062,20 +6219,26 @@
       <c r="AB9" t="s">
         <v>32</v>
       </c>
+      <c r="AG9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>32</v>
+      </c>
       <c r="AI9" t="s">
-        <v>1478</v>
+        <v>1500</v>
       </c>
       <c r="AJ9" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" t="s">
-        <v>1490</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AM9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -6136,20 +6299,26 @@
       <c r="AB10" t="s">
         <v>32</v>
       </c>
+      <c r="AG10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>32</v>
+      </c>
       <c r="AI10" t="s">
-        <v>1479</v>
+        <v>1501</v>
       </c>
       <c r="AJ10" t="s">
         <v>32</v>
       </c>
-      <c r="AK10" t="s">
-        <v>1491</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="C11" t="s">
         <v>43</v>
       </c>
@@ -6192,20 +6361,26 @@
       <c r="AB11" t="s">
         <v>32</v>
       </c>
+      <c r="AG11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>32</v>
+      </c>
       <c r="AI11" t="s">
-        <v>1480</v>
+        <v>1502</v>
       </c>
       <c r="AJ11" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" t="s">
-        <v>1492</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="AM11" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -6248,20 +6423,26 @@
       <c r="AB12" t="s">
         <v>32</v>
       </c>
+      <c r="AG12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>32</v>
+      </c>
       <c r="AI12" t="s">
-        <v>1481</v>
+        <v>1503</v>
       </c>
       <c r="AJ12" t="s">
         <v>32</v>
       </c>
-      <c r="AK12" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="AM12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -6304,20 +6485,26 @@
       <c r="AB13" t="s">
         <v>32</v>
       </c>
+      <c r="AG13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>32</v>
+      </c>
       <c r="AI13" t="s">
-        <v>1482</v>
+        <v>1504</v>
       </c>
       <c r="AJ13" t="s">
         <v>32</v>
       </c>
-      <c r="AK13" t="s">
-        <v>1494</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
+      <c r="AM13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="C14" t="s">
         <v>46</v>
       </c>
@@ -6360,20 +6547,26 @@
       <c r="AB14" t="s">
         <v>32</v>
       </c>
+      <c r="AG14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>32</v>
+      </c>
       <c r="AI14" t="s">
-        <v>1483</v>
+        <v>1505</v>
       </c>
       <c r="AJ14" t="s">
         <v>32</v>
       </c>
-      <c r="AK14" t="s">
-        <v>1495</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+      <c r="AM14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="C15" t="s">
         <v>47</v>
       </c>
@@ -6416,20 +6609,26 @@
       <c r="AB15" t="s">
         <v>32</v>
       </c>
+      <c r="AG15" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>32</v>
+      </c>
       <c r="AI15" t="s">
-        <v>1484</v>
+        <v>1506</v>
       </c>
       <c r="AJ15" t="s">
         <v>32</v>
       </c>
-      <c r="AK15" t="s">
-        <v>1496</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AM15" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -6472,20 +6671,26 @@
       <c r="AB16" t="s">
         <v>32</v>
       </c>
+      <c r="AG16" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>32</v>
+      </c>
       <c r="AI16" t="s">
-        <v>1485</v>
+        <v>1507</v>
       </c>
       <c r="AJ16" t="s">
         <v>32</v>
       </c>
-      <c r="AK16" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="5:38">
+      <c r="AM16" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="5:40">
       <c r="E17" t="s">
         <v>65</v>
       </c>
@@ -6522,20 +6727,26 @@
       <c r="AB17" t="s">
         <v>32</v>
       </c>
+      <c r="AG17" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>32</v>
+      </c>
       <c r="AI17" t="s">
-        <v>1486</v>
+        <v>1508</v>
       </c>
       <c r="AJ17" t="s">
         <v>32</v>
       </c>
-      <c r="AK17" t="s">
-        <v>1498</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="5:38">
+      <c r="AM17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="5:40">
       <c r="I18" t="s">
         <v>62</v>
       </c>
@@ -6566,14 +6777,20 @@
       <c r="AB18" t="s">
         <v>32</v>
       </c>
-      <c r="AK18" t="s">
-        <v>1499</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="5:38">
+      <c r="AG18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="5:40">
       <c r="I19" t="s">
         <v>63</v>
       </c>
@@ -6598,14 +6815,20 @@
       <c r="AB19" t="s">
         <v>32</v>
       </c>
-      <c r="AK19" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="5:38">
+      <c r="AG19" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:40">
       <c r="I20" t="s">
         <v>83</v>
       </c>
@@ -6630,14 +6853,20 @@
       <c r="AB20" t="s">
         <v>32</v>
       </c>
-      <c r="AK20" t="s">
-        <v>1501</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="5:38">
+      <c r="AG20" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="5:40">
       <c r="Q21" t="s">
         <v>174</v>
       </c>
@@ -6656,14 +6885,20 @@
       <c r="AB21" t="s">
         <v>32</v>
       </c>
-      <c r="AK21" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="5:38">
+      <c r="AG21" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="5:40">
       <c r="Q22" t="s">
         <v>176</v>
       </c>
@@ -6682,14 +6917,20 @@
       <c r="AB22" t="s">
         <v>32</v>
       </c>
-      <c r="AK22" t="s">
-        <v>1503</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="5:38">
+      <c r="AG22" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="5:40">
       <c r="Q23" t="s">
         <v>178</v>
       </c>
@@ -6708,14 +6949,20 @@
       <c r="AB23" t="s">
         <v>32</v>
       </c>
-      <c r="AK23" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="5:38">
+      <c r="AG23" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="5:40">
       <c r="Q24" t="s">
         <v>180</v>
       </c>
@@ -6734,14 +6981,20 @@
       <c r="AB24" t="s">
         <v>32</v>
       </c>
-      <c r="AK24" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="5:38">
+      <c r="AG24" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="5:40">
       <c r="Q25" t="s">
         <v>182</v>
       </c>
@@ -6760,14 +7013,20 @@
       <c r="AB25" t="s">
         <v>32</v>
       </c>
-      <c r="AK25" t="s">
-        <v>1506</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="5:38">
+      <c r="AG25" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="5:40">
       <c r="Q26" t="s">
         <v>184</v>
       </c>
@@ -6786,14 +7045,20 @@
       <c r="AB26" t="s">
         <v>32</v>
       </c>
-      <c r="AK26" t="s">
-        <v>1507</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="5:38">
+      <c r="AG26" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="5:40">
       <c r="Q27" t="s">
         <v>186</v>
       </c>
@@ -6812,14 +7077,20 @@
       <c r="AB27" t="s">
         <v>32</v>
       </c>
-      <c r="AK27" t="s">
-        <v>1508</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="5:38">
+      <c r="AG27" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="5:40">
       <c r="Q28" t="s">
         <v>188</v>
       </c>
@@ -6838,14 +7109,14 @@
       <c r="AB28" t="s">
         <v>32</v>
       </c>
-      <c r="AK28" t="s">
-        <v>1509</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="5:38">
+      <c r="AM28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="5:40">
       <c r="Q29" t="s">
         <v>190</v>
       </c>
@@ -6864,14 +7135,14 @@
       <c r="AB29" t="s">
         <v>32</v>
       </c>
-      <c r="AK29" t="s">
-        <v>1510</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="5:38">
+      <c r="AM29" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="5:40">
       <c r="Q30" t="s">
         <v>192</v>
       </c>
@@ -6890,14 +7161,14 @@
       <c r="AB30" t="s">
         <v>32</v>
       </c>
-      <c r="AK30" t="s">
-        <v>1511</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="5:38">
+      <c r="AM30" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="5:40">
       <c r="Q31" t="s">
         <v>194</v>
       </c>
@@ -6916,14 +7187,14 @@
       <c r="AB31" t="s">
         <v>32</v>
       </c>
-      <c r="AK31" t="s">
-        <v>1512</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="5:38">
+      <c r="AM31" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="5:40">
       <c r="Q32" t="s">
         <v>196</v>
       </c>
@@ -6942,14 +7213,14 @@
       <c r="AB32" t="s">
         <v>32</v>
       </c>
-      <c r="AK32" t="s">
-        <v>1513</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="17:38">
+      <c r="AM32" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="17:40">
       <c r="Q33" t="s">
         <v>198</v>
       </c>
@@ -6968,14 +7239,14 @@
       <c r="AB33" t="s">
         <v>32</v>
       </c>
-      <c r="AK33" t="s">
-        <v>1514</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="17:38">
+      <c r="AM33" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="17:40">
       <c r="Q34" t="s">
         <v>200</v>
       </c>
@@ -6994,14 +7265,14 @@
       <c r="AB34" t="s">
         <v>32</v>
       </c>
-      <c r="AK34" t="s">
-        <v>1515</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="17:38">
+      <c r="AM34" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="17:40">
       <c r="Q35" t="s">
         <v>202</v>
       </c>
@@ -7020,14 +7291,14 @@
       <c r="AB35" t="s">
         <v>32</v>
       </c>
-      <c r="AK35" t="s">
-        <v>1516</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="17:38">
+      <c r="AM35" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="17:40">
       <c r="Q36" t="s">
         <v>204</v>
       </c>
@@ -7046,14 +7317,14 @@
       <c r="AB36" t="s">
         <v>32</v>
       </c>
-      <c r="AK36" t="s">
-        <v>1517</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="17:38">
+      <c r="AM36" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="17:40">
       <c r="Q37" t="s">
         <v>206</v>
       </c>
@@ -7072,14 +7343,14 @@
       <c r="AB37" t="s">
         <v>32</v>
       </c>
-      <c r="AK37" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="17:38">
+      <c r="AM37" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="17:40">
       <c r="Q38" t="s">
         <v>208</v>
       </c>
@@ -7098,14 +7369,14 @@
       <c r="AB38" t="s">
         <v>32</v>
       </c>
-      <c r="AK38" t="s">
-        <v>1519</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="17:38">
+      <c r="AM38" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="17:40">
       <c r="Q39" t="s">
         <v>210</v>
       </c>
@@ -7124,14 +7395,14 @@
       <c r="AB39" t="s">
         <v>32</v>
       </c>
-      <c r="AK39" t="s">
-        <v>1520</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="17:38">
+      <c r="AM39" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="17:40">
       <c r="Q40" t="s">
         <v>212</v>
       </c>
@@ -7150,14 +7421,14 @@
       <c r="AB40" t="s">
         <v>32</v>
       </c>
-      <c r="AK40" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="17:38">
+      <c r="AM40" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="17:40">
       <c r="Q41" t="s">
         <v>214</v>
       </c>
@@ -7176,14 +7447,14 @@
       <c r="AB41" t="s">
         <v>32</v>
       </c>
-      <c r="AK41" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="17:38">
+      <c r="AM41" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="17:40">
       <c r="Q42" t="s">
         <v>216</v>
       </c>
@@ -7202,14 +7473,14 @@
       <c r="AB42" t="s">
         <v>32</v>
       </c>
-      <c r="AK42" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="17:38">
+      <c r="AM42" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="17:40">
       <c r="Q43" t="s">
         <v>218</v>
       </c>
@@ -7228,14 +7499,14 @@
       <c r="AB43" t="s">
         <v>32</v>
       </c>
-      <c r="AK43" t="s">
-        <v>1524</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="17:38">
+      <c r="AM43" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="17:40">
       <c r="Q44" t="s">
         <v>220</v>
       </c>
@@ -7254,14 +7525,14 @@
       <c r="AB44" t="s">
         <v>32</v>
       </c>
-      <c r="AK44" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="17:38">
+      <c r="AM44" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="17:40">
       <c r="Q45" t="s">
         <v>222</v>
       </c>
@@ -7280,14 +7551,14 @@
       <c r="AB45" t="s">
         <v>32</v>
       </c>
-      <c r="AK45" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="17:38">
+      <c r="AM45" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="17:40">
       <c r="Q46" t="s">
         <v>224</v>
       </c>
@@ -7306,14 +7577,14 @@
       <c r="AB46" t="s">
         <v>32</v>
       </c>
-      <c r="AK46" t="s">
-        <v>1527</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="17:38">
+      <c r="AM46" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="17:40">
       <c r="Q47" t="s">
         <v>226</v>
       </c>
@@ -7332,14 +7603,14 @@
       <c r="AB47" t="s">
         <v>32</v>
       </c>
-      <c r="AK47" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="17:38">
+      <c r="AM47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="17:40">
       <c r="Q48" t="s">
         <v>228</v>
       </c>
@@ -7358,14 +7629,14 @@
       <c r="AB48" t="s">
         <v>32</v>
       </c>
-      <c r="AK48" t="s">
-        <v>1529</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="17:38">
+      <c r="AM48" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="17:40">
       <c r="Q49" t="s">
         <v>230</v>
       </c>
@@ -7384,14 +7655,14 @@
       <c r="AB49" t="s">
         <v>32</v>
       </c>
-      <c r="AK49" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="17:38">
+      <c r="AM49" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="17:40">
       <c r="Q50" t="s">
         <v>232</v>
       </c>
@@ -7410,14 +7681,14 @@
       <c r="AB50" t="s">
         <v>32</v>
       </c>
-      <c r="AK50" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AL50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="17:38">
+      <c r="AM50" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="17:40">
       <c r="Q51" t="s">
         <v>234</v>
       </c>
@@ -7436,14 +7707,14 @@
       <c r="AB51" t="s">
         <v>32</v>
       </c>
-      <c r="AK51" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="17:38">
+      <c r="AM51" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="17:40">
       <c r="Q52" t="s">
         <v>236</v>
       </c>
@@ -7462,14 +7733,14 @@
       <c r="AB52" t="s">
         <v>32</v>
       </c>
-      <c r="AK52" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="17:38">
+      <c r="AM52" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="17:40">
       <c r="Q53" t="s">
         <v>238</v>
       </c>
@@ -7488,14 +7759,14 @@
       <c r="AB53" t="s">
         <v>32</v>
       </c>
-      <c r="AK53" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="17:38">
+      <c r="AM53" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="17:40">
       <c r="Q54" t="s">
         <v>240</v>
       </c>
@@ -7514,14 +7785,14 @@
       <c r="AB54" t="s">
         <v>32</v>
       </c>
-      <c r="AK54" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="17:38">
+      <c r="AM54" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="17:40">
       <c r="Q55" t="s">
         <v>242</v>
       </c>
@@ -7540,14 +7811,14 @@
       <c r="AB55" t="s">
         <v>32</v>
       </c>
-      <c r="AK55" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="17:38">
+      <c r="AM55" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="17:40">
       <c r="Q56" t="s">
         <v>244</v>
       </c>
@@ -7566,14 +7837,14 @@
       <c r="AB56" t="s">
         <v>32</v>
       </c>
-      <c r="AK56" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="17:38">
+      <c r="AM56" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="17:40">
       <c r="Q57" t="s">
         <v>246</v>
       </c>
@@ -7592,14 +7863,14 @@
       <c r="AB57" t="s">
         <v>32</v>
       </c>
-      <c r="AK57" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="17:38">
+      <c r="AM57" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="17:40">
       <c r="Q58" t="s">
         <v>248</v>
       </c>
@@ -7618,14 +7889,14 @@
       <c r="AB58" t="s">
         <v>32</v>
       </c>
-      <c r="AK58" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AL58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="17:38">
+      <c r="AM58" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="17:40">
       <c r="Q59" t="s">
         <v>250</v>
       </c>
@@ -7644,14 +7915,14 @@
       <c r="AB59" t="s">
         <v>32</v>
       </c>
-      <c r="AK59" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="17:38">
+      <c r="AM59" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="17:40">
       <c r="Q60" t="s">
         <v>252</v>
       </c>
@@ -7670,14 +7941,14 @@
       <c r="AB60" t="s">
         <v>32</v>
       </c>
-      <c r="AK60" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="17:38">
+      <c r="AM60" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="17:40">
       <c r="Q61" t="s">
         <v>254</v>
       </c>
@@ -7697,7 +7968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="17:38">
+    <row r="62" spans="17:40">
       <c r="Q62" t="s">
         <v>256</v>
       </c>
@@ -7717,7 +7988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="17:38">
+    <row r="63" spans="17:40">
       <c r="Q63" t="s">
         <v>258</v>
       </c>
@@ -7737,7 +8008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="17:38">
+    <row r="64" spans="17:40">
       <c r="Q64" t="s">
         <v>260</v>
       </c>
@@ -15070,7 +15341,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -15093,10 +15364,11 @@
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AG1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="19">
+  <tableParts count="20">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -15116,6 +15388,7 @@
     <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
     <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15926,7 +16199,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15935,23 +16208,25 @@
     <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
     <col min="2" max="3" width="26.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="42.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="48.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="44.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="44.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="36.7109375" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1">
+    <row r="1" spans="1:20" hidden="1">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -15968,13 +16243,13 @@
         <v>1439</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1446</v>
@@ -15983,7 +16258,7 @@
         <v>1447</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1452</v>
@@ -15995,19 +16270,25 @@
         <v>1455</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" hidden="1">
+      <c r="S1" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -16021,35 +16302,39 @@
         <v>1438</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1440</v>
-      </c>
+        <v>1443</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>1446</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+        <v>1451</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1465</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>1467</v>
-      </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" hidden="1">
+      <c r="S2" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" hidden="1">
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
@@ -16059,37 +16344,40 @@
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>1444</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L3" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
-        <v>1459</v>
-      </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1">
+      <c r="S3" s="6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -16099,20 +16387,20 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>1456</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="O4" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -16126,80 +16414,91 @@
         <v>1438</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1446</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1447</v>
+        <v>1509</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1450</v>
+        <v>1510</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1453</v>
+        <v>1516</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1455</v>
+        <v>1517</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1457</v>
+        <v>1518</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1460</v>
+        <v>1519</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1463</v>
+        <v>1520</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1465</v>
+        <v>1521</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>1468</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="L3:M3"/>
+  <mergeCells count="6">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
+      <formula1>'Codelijsten'!$AG$4:$AG$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
+      <formula1>'Codelijsten'!$AI$4:$AI$17</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000001">
-      <formula1>'Codelijsten'!$AG$4:$AG$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+      <formula1>'Codelijsten'!$AK$4:$AK$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000001">
-      <formula1>'Codelijsten'!$AI$4:$AI$17</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$AK$4:$AK$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R1000001">
+      <formula1>'Codelijsten'!$AM$4:$AM$60</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I5" location="'Codelijsten'!$AG$2" display="status"/>
-    <hyperlink ref="J5" location="'Codelijsten'!$AI$2" display="kwaliteit-origine"/>
-    <hyperlink ref="P5" location="'Codelijsten'!$AK$2" display="bijlage-bijlage_type"/>
+    <hyperlink ref="E5" location="'Codelijsten'!$AG$2" display="aard"/>
+    <hyperlink ref="F5" location="'Codelijsten'!$AI$2" display="origine"/>
+    <hyperlink ref="L5" location="'Codelijsten'!$AK$2" display="status"/>
+    <hyperlink ref="R5" location="'Codelijsten'!$AM$2" display="type bijlage"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16215,26 +16514,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1542</v>
+        <v>1577</v>
       </c>
       <c r="B1" t="s">
-        <v>1543</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1544</v>
+        <v>1579</v>
       </c>
       <c r="B2" t="s">
-        <v>1545</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1546</v>
+        <v>1581</v>
       </c>
       <c r="B3" t="s">
-        <v>1547</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,7 +4755,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 13:26:29.183201</t>
+    <t>2024-08-01 09:38:04.739692</t>
   </si>
   <si>
     <t>version</t>
@@ -15395,7 +15395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15572,53 +15572,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:16" hidden="1"/>
+    <row r="8" spans="1:16">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -15630,38 +15631,38 @@
     <mergeCell ref="N2:O2"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B1000001">
       <formula1>'Codelijsten'!$A$4:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
       <formula1>'Codelijsten'!$C$4:$C$16</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G1000001">
       <formula1>'Codelijsten'!$E$4:$E$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1000001">
       <formula1>'Codelijsten'!$G$4:$G$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K1000001">
       <formula1>'Codelijsten'!$I$4:$I$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M1000001">
       <formula1>'Codelijsten'!$K$4:$K$6</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O1000001">
       <formula1>-146096</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B7" location="'Codelijsten'!$A$2" display="grondwaterlocatieType"/>
-    <hyperlink ref="C7" location="'Codelijsten'!$C$2" display="putsoort"/>
-    <hyperlink ref="G7" location="'Codelijsten'!$E$2" display="methode opmeten xy"/>
-    <hyperlink ref="I7" location="'Codelijsten'!$G$2" display="betrouwbaarheid xy"/>
-    <hyperlink ref="K7" location="'Codelijsten'!$I$2" display="methode opmeten z"/>
-    <hyperlink ref="M7" location="'Codelijsten'!$K$2" display="betrouwbaarheid z"/>
+    <hyperlink ref="B8" location="'Codelijsten'!$A$2" display="grondwaterlocatieType"/>
+    <hyperlink ref="C8" location="'Codelijsten'!$C$2" display="putsoort"/>
+    <hyperlink ref="G8" location="'Codelijsten'!$E$2" display="methode opmeten xy"/>
+    <hyperlink ref="I8" location="'Codelijsten'!$G$2" display="betrouwbaarheid xy"/>
+    <hyperlink ref="K8" location="'Codelijsten'!$I$2" display="methode opmeten z"/>
+    <hyperlink ref="M8" location="'Codelijsten'!$K$2" display="betrouwbaarheid z"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15848,7 +15849,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16085,65 +16086,66 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:20" hidden="1"/>
+    <row r="9" spans="1:20">
+      <c r="A9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>1427</v>
       </c>
     </row>
@@ -16158,40 +16160,40 @@
     <mergeCell ref="R2:T2"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C1000001">
       <formula1>'Codelijsten'!$W$4:$W$10</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H1000001">
       <formula1>'Codelijsten'!$Y$4:$Y$921</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1000001">
       <formula1>'Codelijsten'!$AA$4:$AA$67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1000001">
       <formula1>'Codelijsten'!$AC$4:$AC$5</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:Q1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:T1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10:T1000001">
       <formula1>'Codelijsten'!$AE$4:$AE$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C8" location="'Codelijsten'!$W$2" display="filtertype"/>
-    <hyperlink ref="H8" location="'Codelijsten'!$Y$2" display="parameter"/>
-    <hyperlink ref="J8" location="'Codelijsten'!$AA$2" display="eenheid"/>
-    <hyperlink ref="M8" location="'Codelijsten'!$AC$2" display="veld_labo"/>
-    <hyperlink ref="T8" location="'Codelijsten'!$AE$2" display="type referentiepunt"/>
+    <hyperlink ref="C9" location="'Codelijsten'!$W$2" display="filtertype"/>
+    <hyperlink ref="H9" location="'Codelijsten'!$Y$2" display="parameter"/>
+    <hyperlink ref="J9" location="'Codelijsten'!$AA$2" display="eenheid"/>
+    <hyperlink ref="M9" location="'Codelijsten'!$AC$2" display="veld_labo"/>
+    <hyperlink ref="T9" location="'Codelijsten'!$AE$2" display="type referentiepunt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16199,7 +16201,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16400,65 +16402,66 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:20" hidden="1"/>
+    <row r="6" spans="1:20">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>1434</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -16472,33 +16475,33 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1000001">
       <formula1>'Codelijsten'!$AG$4:$AG$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1000001">
       <formula1>'Codelijsten'!$AI$4:$AI$17</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L1000001">
       <formula1>'Codelijsten'!$AK$4:$AK$8</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7:R1000001">
       <formula1>'Codelijsten'!$AM$4:$AM$60</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" location="'Codelijsten'!$AG$2" display="aard"/>
-    <hyperlink ref="F5" location="'Codelijsten'!$AI$2" display="origine"/>
-    <hyperlink ref="L5" location="'Codelijsten'!$AK$2" display="status"/>
-    <hyperlink ref="R5" location="'Codelijsten'!$AM$2" display="type bijlage"/>
+    <hyperlink ref="E6" location="'Codelijsten'!$AG$2" display="aard"/>
+    <hyperlink ref="F6" location="'Codelijsten'!$AI$2" display="origine"/>
+    <hyperlink ref="L6" location="'Codelijsten'!$AK$2" display="status"/>
+    <hyperlink ref="R6" location="'Codelijsten'!$AM$2" display="type bijlage"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,7 +4755,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-01 09:38:04.739692</t>
+    <t>2024-08-02 15:51:34.550711</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1581">
   <si>
     <t>identificatie</t>
   </si>
@@ -4755,19 +4755,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 15:51:34.550711</t>
+    <t>2024-08-02 16:50:18.263159</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>generated_by</t>
-  </si>
-  <si>
-    <t>Ruben Vijverman</t>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -16509,7 +16503,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16531,14 +16525,6 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1582</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,7 +4755,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 16:50:18.263159</t>
+    <t>2024-08-05 10:13:24.517893</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="1585">
   <si>
     <t>identificatie</t>
   </si>
@@ -4755,13 +4755,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-05 10:13:24.517893</t>
+    <t>2024-08-07 13:31:37.126166</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>2.0.0</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>xsd_schema.json</t>
   </si>
 </sst>
 </file>
@@ -16503,7 +16515,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16525,6 +16537,22 @@
         <v>1580</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,7 +4755,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-07 13:31:37.126166</t>
+    <t>2024-08-08 11:46:47.154943</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,13 +4755,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-08 11:46:47.154943</t>
+    <t>2024-08-12 14:45:29.906371</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>mode</t>
@@ -4773,7 +4773,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>xsd_schema.json</t>
+    <t>productie</t>
   </si>
 </sst>
 </file>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,7 +4755,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-12 14:45:29.906371</t>
+    <t>2024-09-10 13:00:47.418609</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,13 +4755,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:00:47.418609</t>
+    <t>2024-09-10 13:37:32.856182</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.2</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -4755,7 +4755,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:37:32.856182</t>
+    <t>2024-11-07 19:29:06.759427</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5097,7 +5097,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:16.884551</t>
+    <t>2024-11-08 02:13:53.696415</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5097,7 +5097,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 02:13:53.696415</t>
+    <t>2024-11-08 08:59:53.571946</t>
   </si>
   <si>
     <t>version</t>
@@ -5109,7 +5109,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t>local</t>
+    <t>online</t>
   </si>
   <si>
     <t>source</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5112,13 +5112,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:11.724626</t>
+    <t>2024-12-10 17:55:18.172394</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5112,13 +5112,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-10 17:55:18.172394</t>
+    <t>2024-12-20 12:16:39.883688</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.6</t>
+    <t>2.0.7</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5112,7 +5112,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:39.883688</t>
+    <t>2024-12-20 14:58:08.249771</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5112,13 +5112,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:08.249771</t>
+    <t>2024-12-23 11:42:03.635601</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1706">
   <si>
     <t>identificatie</t>
   </si>
@@ -5112,13 +5112,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-23 11:42:03.635601</t>
+    <t>2025-02-14 13:20:01.607195</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
+  </si>
+  <si>
+    <t>xsd-version</t>
+  </si>
+  <si>
+    <t>9.1.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -5270,7 +5276,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="Y3:Z1007" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="Y3:Z992" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5724,7 +5730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP1007"/>
+  <dimension ref="A1:AP992"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8091,7 +8097,7 @@
         <v>233</v>
       </c>
       <c r="Y50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z50" t="s">
         <v>32</v>
@@ -8117,7 +8123,7 @@
         <v>235</v>
       </c>
       <c r="Y51" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z51" t="s">
         <v>32</v>
@@ -8143,7 +8149,7 @@
         <v>237</v>
       </c>
       <c r="Y52" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z52" t="s">
         <v>32</v>
@@ -8169,7 +8175,7 @@
         <v>239</v>
       </c>
       <c r="Y53" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z53" t="s">
         <v>32</v>
@@ -8195,7 +8201,7 @@
         <v>241</v>
       </c>
       <c r="Y54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z54" t="s">
         <v>32</v>
@@ -8221,7 +8227,7 @@
         <v>243</v>
       </c>
       <c r="Y55" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z55" t="s">
         <v>32</v>
@@ -8247,7 +8253,7 @@
         <v>245</v>
       </c>
       <c r="Y56" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z56" t="s">
         <v>32</v>
@@ -8273,7 +8279,7 @@
         <v>247</v>
       </c>
       <c r="Y57" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z57" t="s">
         <v>32</v>
@@ -8299,7 +8305,7 @@
         <v>249</v>
       </c>
       <c r="Y58" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z58" t="s">
         <v>32</v>
@@ -8325,7 +8331,7 @@
         <v>251</v>
       </c>
       <c r="Y59" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z59" t="s">
         <v>32</v>
@@ -8351,7 +8357,7 @@
         <v>253</v>
       </c>
       <c r="Y60" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z60" t="s">
         <v>32</v>
@@ -8377,7 +8383,7 @@
         <v>255</v>
       </c>
       <c r="Y61" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z61" t="s">
         <v>32</v>
@@ -8403,7 +8409,7 @@
         <v>257</v>
       </c>
       <c r="Y62" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z62" t="s">
         <v>32</v>
@@ -8429,7 +8435,7 @@
         <v>259</v>
       </c>
       <c r="Y63" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z63" t="s">
         <v>32</v>
@@ -8455,7 +8461,7 @@
         <v>261</v>
       </c>
       <c r="Y64" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z64" t="s">
         <v>32</v>
@@ -8481,7 +8487,7 @@
         <v>263</v>
       </c>
       <c r="Y65" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z65" t="s">
         <v>32</v>
@@ -8507,7 +8513,7 @@
         <v>265</v>
       </c>
       <c r="Y66" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Z66" t="s">
         <v>32</v>
@@ -8533,7 +8539,7 @@
         <v>267</v>
       </c>
       <c r="Y67" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="Z67" t="s">
         <v>32</v>
@@ -8559,7 +8565,7 @@
         <v>269</v>
       </c>
       <c r="Y68" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Z68" t="s">
         <v>32</v>
@@ -8585,7 +8591,7 @@
         <v>271</v>
       </c>
       <c r="Y69" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Z69" t="s">
         <v>32</v>
@@ -8605,7 +8611,7 @@
         <v>273</v>
       </c>
       <c r="Y70" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Z70" t="s">
         <v>32</v>
@@ -8625,7 +8631,7 @@
         <v>275</v>
       </c>
       <c r="Y71" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Z71" t="s">
         <v>32</v>
@@ -8645,7 +8651,7 @@
         <v>277</v>
       </c>
       <c r="Y72" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Z72" t="s">
         <v>32</v>
@@ -8665,7 +8671,7 @@
         <v>279</v>
       </c>
       <c r="Y73" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Z73" t="s">
         <v>32</v>
@@ -8685,7 +8691,7 @@
         <v>281</v>
       </c>
       <c r="Y74" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Z74" t="s">
         <v>32</v>
@@ -8705,7 +8711,7 @@
         <v>283</v>
       </c>
       <c r="Y75" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Z75" t="s">
         <v>32</v>
@@ -8725,7 +8731,7 @@
         <v>285</v>
       </c>
       <c r="Y76" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Z76" t="s">
         <v>32</v>
@@ -8745,7 +8751,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z77" t="s">
         <v>32</v>
@@ -8765,7 +8771,7 @@
         <v>289</v>
       </c>
       <c r="Y78" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z78" t="s">
         <v>32</v>
@@ -8785,7 +8791,7 @@
         <v>291</v>
       </c>
       <c r="Y79" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z79" t="s">
         <v>32</v>
@@ -8805,7 +8811,7 @@
         <v>293</v>
       </c>
       <c r="Y80" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Z80" t="s">
         <v>32</v>
@@ -8825,7 +8831,7 @@
         <v>295</v>
       </c>
       <c r="Y81" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z81" t="s">
         <v>32</v>
@@ -8845,7 +8851,7 @@
         <v>297</v>
       </c>
       <c r="Y82" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Z82" t="s">
         <v>32</v>
@@ -8865,7 +8871,7 @@
         <v>299</v>
       </c>
       <c r="Y83" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Z83" t="s">
         <v>32</v>
@@ -8885,7 +8891,7 @@
         <v>301</v>
       </c>
       <c r="Y84" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Z84" t="s">
         <v>32</v>
@@ -8905,7 +8911,7 @@
         <v>303</v>
       </c>
       <c r="Y85" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="Z85" t="s">
         <v>32</v>
@@ -8925,7 +8931,7 @@
         <v>305</v>
       </c>
       <c r="Y86" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Z86" t="s">
         <v>32</v>
@@ -8945,7 +8951,7 @@
         <v>307</v>
       </c>
       <c r="Y87" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Z87" t="s">
         <v>32</v>
@@ -8959,7 +8965,7 @@
         <v>309</v>
       </c>
       <c r="Y88" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Z88" t="s">
         <v>32</v>
@@ -8973,7 +8979,7 @@
         <v>311</v>
       </c>
       <c r="Y89" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Z89" t="s">
         <v>32</v>
@@ -8987,7 +8993,7 @@
         <v>313</v>
       </c>
       <c r="Y90" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Z90" t="s">
         <v>32</v>
@@ -9001,7 +9007,7 @@
         <v>315</v>
       </c>
       <c r="Y91" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Z91" t="s">
         <v>32</v>
@@ -9015,7 +9021,7 @@
         <v>317</v>
       </c>
       <c r="Y92" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Z92" t="s">
         <v>32</v>
@@ -9029,7 +9035,7 @@
         <v>319</v>
       </c>
       <c r="Y93" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Z93" t="s">
         <v>32</v>
@@ -9043,7 +9049,7 @@
         <v>321</v>
       </c>
       <c r="Y94" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Z94" t="s">
         <v>32</v>
@@ -9057,7 +9063,7 @@
         <v>323</v>
       </c>
       <c r="Y95" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Z95" t="s">
         <v>32</v>
@@ -9071,7 +9077,7 @@
         <v>325</v>
       </c>
       <c r="Y96" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z96" t="s">
         <v>32</v>
@@ -9085,7 +9091,7 @@
         <v>327</v>
       </c>
       <c r="Y97" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Z97" t="s">
         <v>32</v>
@@ -9099,7 +9105,7 @@
         <v>329</v>
       </c>
       <c r="Y98" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Z98" t="s">
         <v>32</v>
@@ -9113,7 +9119,7 @@
         <v>331</v>
       </c>
       <c r="Y99" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Z99" t="s">
         <v>32</v>
@@ -9127,7 +9133,7 @@
         <v>333</v>
       </c>
       <c r="Y100" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z100" t="s">
         <v>32</v>
@@ -9141,7 +9147,7 @@
         <v>335</v>
       </c>
       <c r="Y101" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Z101" t="s">
         <v>32</v>
@@ -9155,7 +9161,7 @@
         <v>337</v>
       </c>
       <c r="Y102" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Z102" t="s">
         <v>32</v>
@@ -9169,7 +9175,7 @@
         <v>339</v>
       </c>
       <c r="Y103" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Z103" t="s">
         <v>32</v>
@@ -9183,7 +9189,7 @@
         <v>341</v>
       </c>
       <c r="Y104" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Z104" t="s">
         <v>32</v>
@@ -9197,7 +9203,7 @@
         <v>343</v>
       </c>
       <c r="Y105" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Z105" t="s">
         <v>32</v>
@@ -9211,7 +9217,7 @@
         <v>345</v>
       </c>
       <c r="Y106" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Z106" t="s">
         <v>32</v>
@@ -9225,7 +9231,7 @@
         <v>347</v>
       </c>
       <c r="Y107" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Z107" t="s">
         <v>32</v>
@@ -9239,7 +9245,7 @@
         <v>349</v>
       </c>
       <c r="Y108" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Z108" t="s">
         <v>32</v>
@@ -9253,7 +9259,7 @@
         <v>351</v>
       </c>
       <c r="Y109" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Z109" t="s">
         <v>32</v>
@@ -9267,7 +9273,7 @@
         <v>353</v>
       </c>
       <c r="Y110" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Z110" t="s">
         <v>32</v>
@@ -9281,7 +9287,7 @@
         <v>355</v>
       </c>
       <c r="Y111" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Z111" t="s">
         <v>32</v>
@@ -9295,7 +9301,7 @@
         <v>357</v>
       </c>
       <c r="Y112" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Z112" t="s">
         <v>32</v>
@@ -9309,7 +9315,7 @@
         <v>359</v>
       </c>
       <c r="Y113" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Z113" t="s">
         <v>32</v>
@@ -9323,7 +9329,7 @@
         <v>361</v>
       </c>
       <c r="Y114" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Z114" t="s">
         <v>32</v>
@@ -9337,7 +9343,7 @@
         <v>363</v>
       </c>
       <c r="Y115" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Z115" t="s">
         <v>32</v>
@@ -9351,7 +9357,7 @@
         <v>365</v>
       </c>
       <c r="Y116" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z116" t="s">
         <v>32</v>
@@ -9365,7 +9371,7 @@
         <v>367</v>
       </c>
       <c r="Y117" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="Z117" t="s">
         <v>32</v>
@@ -9379,7 +9385,7 @@
         <v>369</v>
       </c>
       <c r="Y118" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Z118" t="s">
         <v>32</v>
@@ -9393,7 +9399,7 @@
         <v>371</v>
       </c>
       <c r="Y119" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Z119" t="s">
         <v>32</v>
@@ -9407,7 +9413,7 @@
         <v>373</v>
       </c>
       <c r="Y120" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Z120" t="s">
         <v>32</v>
@@ -9421,7 +9427,7 @@
         <v>375</v>
       </c>
       <c r="Y121" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Z121" t="s">
         <v>32</v>
@@ -9435,7 +9441,7 @@
         <v>377</v>
       </c>
       <c r="Y122" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Z122" t="s">
         <v>32</v>
@@ -9449,7 +9455,7 @@
         <v>379</v>
       </c>
       <c r="Y123" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Z123" t="s">
         <v>32</v>
@@ -9463,7 +9469,7 @@
         <v>381</v>
       </c>
       <c r="Y124" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Z124" t="s">
         <v>32</v>
@@ -9477,7 +9483,7 @@
         <v>383</v>
       </c>
       <c r="Y125" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Z125" t="s">
         <v>32</v>
@@ -9491,7 +9497,7 @@
         <v>385</v>
       </c>
       <c r="Y126" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Z126" t="s">
         <v>32</v>
@@ -9505,7 +9511,7 @@
         <v>387</v>
       </c>
       <c r="Y127" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Z127" t="s">
         <v>32</v>
@@ -9519,7 +9525,7 @@
         <v>389</v>
       </c>
       <c r="Y128" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Z128" t="s">
         <v>32</v>
@@ -9533,7 +9539,7 @@
         <v>391</v>
       </c>
       <c r="Y129" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Z129" t="s">
         <v>32</v>
@@ -9547,7 +9553,7 @@
         <v>393</v>
       </c>
       <c r="Y130" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Z130" t="s">
         <v>32</v>
@@ -9561,7 +9567,7 @@
         <v>395</v>
       </c>
       <c r="Y131" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Z131" t="s">
         <v>32</v>
@@ -9575,7 +9581,7 @@
         <v>397</v>
       </c>
       <c r="Y132" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Z132" t="s">
         <v>32</v>
@@ -9589,7 +9595,7 @@
         <v>399</v>
       </c>
       <c r="Y133" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Z133" t="s">
         <v>32</v>
@@ -9603,7 +9609,7 @@
         <v>401</v>
       </c>
       <c r="Y134" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Z134" t="s">
         <v>32</v>
@@ -9617,7 +9623,7 @@
         <v>403</v>
       </c>
       <c r="Y135" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Z135" t="s">
         <v>32</v>
@@ -9631,7 +9637,7 @@
         <v>405</v>
       </c>
       <c r="Y136" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="Z136" t="s">
         <v>32</v>
@@ -9645,7 +9651,7 @@
         <v>407</v>
       </c>
       <c r="Y137" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Z137" t="s">
         <v>32</v>
@@ -9653,7 +9659,7 @@
     </row>
     <row r="138" spans="17:26">
       <c r="Y138" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z138" t="s">
         <v>32</v>
@@ -9661,7 +9667,7 @@
     </row>
     <row r="139" spans="17:26">
       <c r="Y139" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Z139" t="s">
         <v>32</v>
@@ -9669,7 +9675,7 @@
     </row>
     <row r="140" spans="17:26">
       <c r="Y140" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Z140" t="s">
         <v>32</v>
@@ -9677,7 +9683,7 @@
     </row>
     <row r="141" spans="17:26">
       <c r="Y141" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="Z141" t="s">
         <v>32</v>
@@ -9685,7 +9691,7 @@
     </row>
     <row r="142" spans="17:26">
       <c r="Y142" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Z142" t="s">
         <v>32</v>
@@ -9693,7 +9699,7 @@
     </row>
     <row r="143" spans="17:26">
       <c r="Y143" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Z143" t="s">
         <v>32</v>
@@ -9701,7 +9707,7 @@
     </row>
     <row r="144" spans="17:26">
       <c r="Y144" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Z144" t="s">
         <v>32</v>
@@ -9709,7 +9715,7 @@
     </row>
     <row r="145" spans="25:26">
       <c r="Y145" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="Z145" t="s">
         <v>32</v>
@@ -9717,7 +9723,7 @@
     </row>
     <row r="146" spans="25:26">
       <c r="Y146" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Z146" t="s">
         <v>32</v>
@@ -9725,7 +9731,7 @@
     </row>
     <row r="147" spans="25:26">
       <c r="Y147" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="Z147" t="s">
         <v>32</v>
@@ -9733,7 +9739,7 @@
     </row>
     <row r="148" spans="25:26">
       <c r="Y148" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Z148" t="s">
         <v>32</v>
@@ -9741,7 +9747,7 @@
     </row>
     <row r="149" spans="25:26">
       <c r="Y149" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Z149" t="s">
         <v>32</v>
@@ -9749,7 +9755,7 @@
     </row>
     <row r="150" spans="25:26">
       <c r="Y150" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Z150" t="s">
         <v>32</v>
@@ -9757,7 +9763,7 @@
     </row>
     <row r="151" spans="25:26">
       <c r="Y151" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Z151" t="s">
         <v>32</v>
@@ -9765,7 +9771,7 @@
     </row>
     <row r="152" spans="25:26">
       <c r="Y152" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Z152" t="s">
         <v>32</v>
@@ -9773,7 +9779,7 @@
     </row>
     <row r="153" spans="25:26">
       <c r="Y153" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Z153" t="s">
         <v>32</v>
@@ -9781,7 +9787,7 @@
     </row>
     <row r="154" spans="25:26">
       <c r="Y154" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="Z154" t="s">
         <v>32</v>
@@ -9789,7 +9795,7 @@
     </row>
     <row r="155" spans="25:26">
       <c r="Y155" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Z155" t="s">
         <v>32</v>
@@ -9797,7 +9803,7 @@
     </row>
     <row r="156" spans="25:26">
       <c r="Y156" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="Z156" t="s">
         <v>32</v>
@@ -9805,7 +9811,7 @@
     </row>
     <row r="157" spans="25:26">
       <c r="Y157" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="Z157" t="s">
         <v>32</v>
@@ -9813,7 +9819,7 @@
     </row>
     <row r="158" spans="25:26">
       <c r="Y158" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="Z158" t="s">
         <v>32</v>
@@ -9821,7 +9827,7 @@
     </row>
     <row r="159" spans="25:26">
       <c r="Y159" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="Z159" t="s">
         <v>32</v>
@@ -9829,7 +9835,7 @@
     </row>
     <row r="160" spans="25:26">
       <c r="Y160" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Z160" t="s">
         <v>32</v>
@@ -9837,7 +9843,7 @@
     </row>
     <row r="161" spans="25:26">
       <c r="Y161" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="Z161" t="s">
         <v>32</v>
@@ -9845,7 +9851,7 @@
     </row>
     <row r="162" spans="25:26">
       <c r="Y162" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Z162" t="s">
         <v>32</v>
@@ -9853,7 +9859,7 @@
     </row>
     <row r="163" spans="25:26">
       <c r="Y163" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Z163" t="s">
         <v>32</v>
@@ -9861,7 +9867,7 @@
     </row>
     <row r="164" spans="25:26">
       <c r="Y164" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Z164" t="s">
         <v>32</v>
@@ -9869,7 +9875,7 @@
     </row>
     <row r="165" spans="25:26">
       <c r="Y165" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="Z165" t="s">
         <v>32</v>
@@ -9877,7 +9883,7 @@
     </row>
     <row r="166" spans="25:26">
       <c r="Y166" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="Z166" t="s">
         <v>32</v>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="167" spans="25:26">
       <c r="Y167" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="Z167" t="s">
         <v>32</v>
@@ -9893,7 +9899,7 @@
     </row>
     <row r="168" spans="25:26">
       <c r="Y168" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Z168" t="s">
         <v>32</v>
@@ -9901,7 +9907,7 @@
     </row>
     <row r="169" spans="25:26">
       <c r="Y169" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Z169" t="s">
         <v>32</v>
@@ -9909,7 +9915,7 @@
     </row>
     <row r="170" spans="25:26">
       <c r="Y170" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Z170" t="s">
         <v>32</v>
@@ -9917,7 +9923,7 @@
     </row>
     <row r="171" spans="25:26">
       <c r="Y171" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Z171" t="s">
         <v>32</v>
@@ -9925,7 +9931,7 @@
     </row>
     <row r="172" spans="25:26">
       <c r="Y172" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="Z172" t="s">
         <v>32</v>
@@ -9933,7 +9939,7 @@
     </row>
     <row r="173" spans="25:26">
       <c r="Y173" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Z173" t="s">
         <v>32</v>
@@ -9941,7 +9947,7 @@
     </row>
     <row r="174" spans="25:26">
       <c r="Y174" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="Z174" t="s">
         <v>32</v>
@@ -9949,7 +9955,7 @@
     </row>
     <row r="175" spans="25:26">
       <c r="Y175" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Z175" t="s">
         <v>32</v>
@@ -9957,7 +9963,7 @@
     </row>
     <row r="176" spans="25:26">
       <c r="Y176" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Z176" t="s">
         <v>32</v>
@@ -9965,7 +9971,7 @@
     </row>
     <row r="177" spans="25:26">
       <c r="Y177" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Z177" t="s">
         <v>32</v>
@@ -9973,7 +9979,7 @@
     </row>
     <row r="178" spans="25:26">
       <c r="Y178" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Z178" t="s">
         <v>32</v>
@@ -9981,7 +9987,7 @@
     </row>
     <row r="179" spans="25:26">
       <c r="Y179" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="Z179" t="s">
         <v>32</v>
@@ -9989,7 +9995,7 @@
     </row>
     <row r="180" spans="25:26">
       <c r="Y180" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Z180" t="s">
         <v>32</v>
@@ -9997,7 +10003,7 @@
     </row>
     <row r="181" spans="25:26">
       <c r="Y181" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="Z181" t="s">
         <v>32</v>
@@ -10005,7 +10011,7 @@
     </row>
     <row r="182" spans="25:26">
       <c r="Y182" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Z182" t="s">
         <v>32</v>
@@ -10013,7 +10019,7 @@
     </row>
     <row r="183" spans="25:26">
       <c r="Y183" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="Z183" t="s">
         <v>32</v>
@@ -10021,7 +10027,7 @@
     </row>
     <row r="184" spans="25:26">
       <c r="Y184" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="Z184" t="s">
         <v>32</v>
@@ -10029,7 +10035,7 @@
     </row>
     <row r="185" spans="25:26">
       <c r="Y185" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="Z185" t="s">
         <v>32</v>
@@ -10037,7 +10043,7 @@
     </row>
     <row r="186" spans="25:26">
       <c r="Y186" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="Z186" t="s">
         <v>32</v>
@@ -10045,7 +10051,7 @@
     </row>
     <row r="187" spans="25:26">
       <c r="Y187" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="Z187" t="s">
         <v>32</v>
@@ -10053,7 +10059,7 @@
     </row>
     <row r="188" spans="25:26">
       <c r="Y188" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="Z188" t="s">
         <v>32</v>
@@ -10061,7 +10067,7 @@
     </row>
     <row r="189" spans="25:26">
       <c r="Y189" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="Z189" t="s">
         <v>32</v>
@@ -10069,7 +10075,7 @@
     </row>
     <row r="190" spans="25:26">
       <c r="Y190" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="Z190" t="s">
         <v>32</v>
@@ -10077,7 +10083,7 @@
     </row>
     <row r="191" spans="25:26">
       <c r="Y191" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="Z191" t="s">
         <v>32</v>
@@ -10085,7 +10091,7 @@
     </row>
     <row r="192" spans="25:26">
       <c r="Y192" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="Z192" t="s">
         <v>32</v>
@@ -10093,7 +10099,7 @@
     </row>
     <row r="193" spans="25:26">
       <c r="Y193" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="Z193" t="s">
         <v>32</v>
@@ -10101,7 +10107,7 @@
     </row>
     <row r="194" spans="25:26">
       <c r="Y194" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="Z194" t="s">
         <v>32</v>
@@ -10109,7 +10115,7 @@
     </row>
     <row r="195" spans="25:26">
       <c r="Y195" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Z195" t="s">
         <v>32</v>
@@ -10117,7 +10123,7 @@
     </row>
     <row r="196" spans="25:26">
       <c r="Y196" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="Z196" t="s">
         <v>32</v>
@@ -10125,7 +10131,7 @@
     </row>
     <row r="197" spans="25:26">
       <c r="Y197" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="Z197" t="s">
         <v>32</v>
@@ -10133,7 +10139,7 @@
     </row>
     <row r="198" spans="25:26">
       <c r="Y198" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="Z198" t="s">
         <v>32</v>
@@ -10141,7 +10147,7 @@
     </row>
     <row r="199" spans="25:26">
       <c r="Y199" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="Z199" t="s">
         <v>32</v>
@@ -10149,7 +10155,7 @@
     </row>
     <row r="200" spans="25:26">
       <c r="Y200" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Z200" t="s">
         <v>32</v>
@@ -10157,7 +10163,7 @@
     </row>
     <row r="201" spans="25:26">
       <c r="Y201" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="Z201" t="s">
         <v>32</v>
@@ -10165,7 +10171,7 @@
     </row>
     <row r="202" spans="25:26">
       <c r="Y202" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="Z202" t="s">
         <v>32</v>
@@ -10173,7 +10179,7 @@
     </row>
     <row r="203" spans="25:26">
       <c r="Y203" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="Z203" t="s">
         <v>32</v>
@@ -10181,7 +10187,7 @@
     </row>
     <row r="204" spans="25:26">
       <c r="Y204" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="Z204" t="s">
         <v>32</v>
@@ -10189,7 +10195,7 @@
     </row>
     <row r="205" spans="25:26">
       <c r="Y205" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="Z205" t="s">
         <v>32</v>
@@ -10197,7 +10203,7 @@
     </row>
     <row r="206" spans="25:26">
       <c r="Y206" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="Z206" t="s">
         <v>32</v>
@@ -10205,7 +10211,7 @@
     </row>
     <row r="207" spans="25:26">
       <c r="Y207" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="Z207" t="s">
         <v>32</v>
@@ -10213,7 +10219,7 @@
     </row>
     <row r="208" spans="25:26">
       <c r="Y208" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="Z208" t="s">
         <v>32</v>
@@ -10221,7 +10227,7 @@
     </row>
     <row r="209" spans="25:26">
       <c r="Y209" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="Z209" t="s">
         <v>32</v>
@@ -10229,7 +10235,7 @@
     </row>
     <row r="210" spans="25:26">
       <c r="Y210" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="Z210" t="s">
         <v>32</v>
@@ -10237,7 +10243,7 @@
     </row>
     <row r="211" spans="25:26">
       <c r="Y211" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="Z211" t="s">
         <v>32</v>
@@ -10245,7 +10251,7 @@
     </row>
     <row r="212" spans="25:26">
       <c r="Y212" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="Z212" t="s">
         <v>32</v>
@@ -10253,7 +10259,7 @@
     </row>
     <row r="213" spans="25:26">
       <c r="Y213" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="Z213" t="s">
         <v>32</v>
@@ -10261,7 +10267,7 @@
     </row>
     <row r="214" spans="25:26">
       <c r="Y214" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="Z214" t="s">
         <v>32</v>
@@ -10269,7 +10275,7 @@
     </row>
     <row r="215" spans="25:26">
       <c r="Y215" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="Z215" t="s">
         <v>32</v>
@@ -10277,7 +10283,7 @@
     </row>
     <row r="216" spans="25:26">
       <c r="Y216" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="Z216" t="s">
         <v>32</v>
@@ -10285,7 +10291,7 @@
     </row>
     <row r="217" spans="25:26">
       <c r="Y217" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="Z217" t="s">
         <v>32</v>
@@ -10293,7 +10299,7 @@
     </row>
     <row r="218" spans="25:26">
       <c r="Y218" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="Z218" t="s">
         <v>32</v>
@@ -10301,7 +10307,7 @@
     </row>
     <row r="219" spans="25:26">
       <c r="Y219" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="Z219" t="s">
         <v>32</v>
@@ -10309,7 +10315,7 @@
     </row>
     <row r="220" spans="25:26">
       <c r="Y220" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="Z220" t="s">
         <v>32</v>
@@ -10317,7 +10323,7 @@
     </row>
     <row r="221" spans="25:26">
       <c r="Y221" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="Z221" t="s">
         <v>32</v>
@@ -10325,7 +10331,7 @@
     </row>
     <row r="222" spans="25:26">
       <c r="Y222" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="Z222" t="s">
         <v>32</v>
@@ -10333,7 +10339,7 @@
     </row>
     <row r="223" spans="25:26">
       <c r="Y223" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="Z223" t="s">
         <v>32</v>
@@ -10341,7 +10347,7 @@
     </row>
     <row r="224" spans="25:26">
       <c r="Y224" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="Z224" t="s">
         <v>32</v>
@@ -10349,7 +10355,7 @@
     </row>
     <row r="225" spans="25:26">
       <c r="Y225" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="Z225" t="s">
         <v>32</v>
@@ -10357,7 +10363,7 @@
     </row>
     <row r="226" spans="25:26">
       <c r="Y226" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="Z226" t="s">
         <v>32</v>
@@ -10365,7 +10371,7 @@
     </row>
     <row r="227" spans="25:26">
       <c r="Y227" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="Z227" t="s">
         <v>32</v>
@@ -10373,7 +10379,7 @@
     </row>
     <row r="228" spans="25:26">
       <c r="Y228" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="Z228" t="s">
         <v>32</v>
@@ -10381,7 +10387,7 @@
     </row>
     <row r="229" spans="25:26">
       <c r="Y229" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="Z229" t="s">
         <v>32</v>
@@ -10389,7 +10395,7 @@
     </row>
     <row r="230" spans="25:26">
       <c r="Y230" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="Z230" t="s">
         <v>32</v>
@@ -10397,7 +10403,7 @@
     </row>
     <row r="231" spans="25:26">
       <c r="Y231" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="Z231" t="s">
         <v>32</v>
@@ -10405,7 +10411,7 @@
     </row>
     <row r="232" spans="25:26">
       <c r="Y232" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="Z232" t="s">
         <v>32</v>
@@ -10413,7 +10419,7 @@
     </row>
     <row r="233" spans="25:26">
       <c r="Y233" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="Z233" t="s">
         <v>32</v>
@@ -10421,7 +10427,7 @@
     </row>
     <row r="234" spans="25:26">
       <c r="Y234" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Z234" t="s">
         <v>32</v>
@@ -10429,7 +10435,7 @@
     </row>
     <row r="235" spans="25:26">
       <c r="Y235" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="Z235" t="s">
         <v>32</v>
@@ -10437,7 +10443,7 @@
     </row>
     <row r="236" spans="25:26">
       <c r="Y236" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="Z236" t="s">
         <v>32</v>
@@ -10445,7 +10451,7 @@
     </row>
     <row r="237" spans="25:26">
       <c r="Y237" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="Z237" t="s">
         <v>32</v>
@@ -10453,7 +10459,7 @@
     </row>
     <row r="238" spans="25:26">
       <c r="Y238" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="Z238" t="s">
         <v>32</v>
@@ -10461,7 +10467,7 @@
     </row>
     <row r="239" spans="25:26">
       <c r="Y239" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="Z239" t="s">
         <v>32</v>
@@ -10469,7 +10475,7 @@
     </row>
     <row r="240" spans="25:26">
       <c r="Y240" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="Z240" t="s">
         <v>32</v>
@@ -10477,7 +10483,7 @@
     </row>
     <row r="241" spans="25:26">
       <c r="Y241" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="Z241" t="s">
         <v>32</v>
@@ -10485,7 +10491,7 @@
     </row>
     <row r="242" spans="25:26">
       <c r="Y242" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="Z242" t="s">
         <v>32</v>
@@ -10493,7 +10499,7 @@
     </row>
     <row r="243" spans="25:26">
       <c r="Y243" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="Z243" t="s">
         <v>32</v>
@@ -10501,7 +10507,7 @@
     </row>
     <row r="244" spans="25:26">
       <c r="Y244" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="Z244" t="s">
         <v>32</v>
@@ -10509,7 +10515,7 @@
     </row>
     <row r="245" spans="25:26">
       <c r="Y245" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="Z245" t="s">
         <v>32</v>
@@ -10517,7 +10523,7 @@
     </row>
     <row r="246" spans="25:26">
       <c r="Y246" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="Z246" t="s">
         <v>32</v>
@@ -10525,7 +10531,7 @@
     </row>
     <row r="247" spans="25:26">
       <c r="Y247" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="Z247" t="s">
         <v>32</v>
@@ -10533,7 +10539,7 @@
     </row>
     <row r="248" spans="25:26">
       <c r="Y248" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="Z248" t="s">
         <v>32</v>
@@ -10541,7 +10547,7 @@
     </row>
     <row r="249" spans="25:26">
       <c r="Y249" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="Z249" t="s">
         <v>32</v>
@@ -10549,7 +10555,7 @@
     </row>
     <row r="250" spans="25:26">
       <c r="Y250" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="Z250" t="s">
         <v>32</v>
@@ -10557,7 +10563,7 @@
     </row>
     <row r="251" spans="25:26">
       <c r="Y251" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="Z251" t="s">
         <v>32</v>
@@ -10565,7 +10571,7 @@
     </row>
     <row r="252" spans="25:26">
       <c r="Y252" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="Z252" t="s">
         <v>32</v>
@@ -10573,7 +10579,7 @@
     </row>
     <row r="253" spans="25:26">
       <c r="Y253" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="Z253" t="s">
         <v>32</v>
@@ -10581,7 +10587,7 @@
     </row>
     <row r="254" spans="25:26">
       <c r="Y254" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="Z254" t="s">
         <v>32</v>
@@ -10589,7 +10595,7 @@
     </row>
     <row r="255" spans="25:26">
       <c r="Y255" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="Z255" t="s">
         <v>32</v>
@@ -10597,7 +10603,7 @@
     </row>
     <row r="256" spans="25:26">
       <c r="Y256" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="Z256" t="s">
         <v>32</v>
@@ -10605,7 +10611,7 @@
     </row>
     <row r="257" spans="25:26">
       <c r="Y257" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="Z257" t="s">
         <v>32</v>
@@ -10613,7 +10619,7 @@
     </row>
     <row r="258" spans="25:26">
       <c r="Y258" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="Z258" t="s">
         <v>32</v>
@@ -10621,7 +10627,7 @@
     </row>
     <row r="259" spans="25:26">
       <c r="Y259" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="Z259" t="s">
         <v>32</v>
@@ -10629,7 +10635,7 @@
     </row>
     <row r="260" spans="25:26">
       <c r="Y260" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Z260" t="s">
         <v>32</v>
@@ -10637,7 +10643,7 @@
     </row>
     <row r="261" spans="25:26">
       <c r="Y261" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="Z261" t="s">
         <v>32</v>
@@ -10645,7 +10651,7 @@
     </row>
     <row r="262" spans="25:26">
       <c r="Y262" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="Z262" t="s">
         <v>32</v>
@@ -10653,7 +10659,7 @@
     </row>
     <row r="263" spans="25:26">
       <c r="Y263" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="Z263" t="s">
         <v>32</v>
@@ -10661,7 +10667,7 @@
     </row>
     <row r="264" spans="25:26">
       <c r="Y264" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="Z264" t="s">
         <v>32</v>
@@ -10669,7 +10675,7 @@
     </row>
     <row r="265" spans="25:26">
       <c r="Y265" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="Z265" t="s">
         <v>32</v>
@@ -10677,7 +10683,7 @@
     </row>
     <row r="266" spans="25:26">
       <c r="Y266" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="Z266" t="s">
         <v>32</v>
@@ -10685,7 +10691,7 @@
     </row>
     <row r="267" spans="25:26">
       <c r="Y267" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="Z267" t="s">
         <v>32</v>
@@ -10693,7 +10699,7 @@
     </row>
     <row r="268" spans="25:26">
       <c r="Y268" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="Z268" t="s">
         <v>32</v>
@@ -10701,7 +10707,7 @@
     </row>
     <row r="269" spans="25:26">
       <c r="Y269" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="Z269" t="s">
         <v>32</v>
@@ -10709,7 +10715,7 @@
     </row>
     <row r="270" spans="25:26">
       <c r="Y270" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="Z270" t="s">
         <v>32</v>
@@ -10717,7 +10723,7 @@
     </row>
     <row r="271" spans="25:26">
       <c r="Y271" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="Z271" t="s">
         <v>32</v>
@@ -10725,7 +10731,7 @@
     </row>
     <row r="272" spans="25:26">
       <c r="Y272" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="Z272" t="s">
         <v>32</v>
@@ -10733,7 +10739,7 @@
     </row>
     <row r="273" spans="25:26">
       <c r="Y273" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="Z273" t="s">
         <v>32</v>
@@ -10741,7 +10747,7 @@
     </row>
     <row r="274" spans="25:26">
       <c r="Y274" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="Z274" t="s">
         <v>32</v>
@@ -10749,7 +10755,7 @@
     </row>
     <row r="275" spans="25:26">
       <c r="Y275" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="Z275" t="s">
         <v>32</v>
@@ -10757,7 +10763,7 @@
     </row>
     <row r="276" spans="25:26">
       <c r="Y276" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="Z276" t="s">
         <v>32</v>
@@ -10765,7 +10771,7 @@
     </row>
     <row r="277" spans="25:26">
       <c r="Y277" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="Z277" t="s">
         <v>32</v>
@@ -10773,7 +10779,7 @@
     </row>
     <row r="278" spans="25:26">
       <c r="Y278" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="Z278" t="s">
         <v>32</v>
@@ -10781,7 +10787,7 @@
     </row>
     <row r="279" spans="25:26">
       <c r="Y279" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="Z279" t="s">
         <v>32</v>
@@ -10789,7 +10795,7 @@
     </row>
     <row r="280" spans="25:26">
       <c r="Y280" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="Z280" t="s">
         <v>32</v>
@@ -10797,7 +10803,7 @@
     </row>
     <row r="281" spans="25:26">
       <c r="Y281" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="Z281" t="s">
         <v>32</v>
@@ -10805,7 +10811,7 @@
     </row>
     <row r="282" spans="25:26">
       <c r="Y282" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="Z282" t="s">
         <v>32</v>
@@ -10813,7 +10819,7 @@
     </row>
     <row r="283" spans="25:26">
       <c r="Y283" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="Z283" t="s">
         <v>32</v>
@@ -10821,7 +10827,7 @@
     </row>
     <row r="284" spans="25:26">
       <c r="Y284" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="Z284" t="s">
         <v>32</v>
@@ -10829,7 +10835,7 @@
     </row>
     <row r="285" spans="25:26">
       <c r="Y285" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="Z285" t="s">
         <v>32</v>
@@ -10837,7 +10843,7 @@
     </row>
     <row r="286" spans="25:26">
       <c r="Y286" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="Z286" t="s">
         <v>32</v>
@@ -10845,7 +10851,7 @@
     </row>
     <row r="287" spans="25:26">
       <c r="Y287" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="Z287" t="s">
         <v>32</v>
@@ -10853,7 +10859,7 @@
     </row>
     <row r="288" spans="25:26">
       <c r="Y288" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="Z288" t="s">
         <v>32</v>
@@ -10861,7 +10867,7 @@
     </row>
     <row r="289" spans="25:26">
       <c r="Y289" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="Z289" t="s">
         <v>32</v>
@@ -10869,7 +10875,7 @@
     </row>
     <row r="290" spans="25:26">
       <c r="Y290" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="Z290" t="s">
         <v>32</v>
@@ -10877,7 +10883,7 @@
     </row>
     <row r="291" spans="25:26">
       <c r="Y291" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="Z291" t="s">
         <v>32</v>
@@ -10885,7 +10891,7 @@
     </row>
     <row r="292" spans="25:26">
       <c r="Y292" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="Z292" t="s">
         <v>32</v>
@@ -10893,7 +10899,7 @@
     </row>
     <row r="293" spans="25:26">
       <c r="Y293" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="Z293" t="s">
         <v>32</v>
@@ -10901,7 +10907,7 @@
     </row>
     <row r="294" spans="25:26">
       <c r="Y294" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="Z294" t="s">
         <v>32</v>
@@ -10909,7 +10915,7 @@
     </row>
     <row r="295" spans="25:26">
       <c r="Y295" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="Z295" t="s">
         <v>32</v>
@@ -10917,7 +10923,7 @@
     </row>
     <row r="296" spans="25:26">
       <c r="Y296" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="Z296" t="s">
         <v>32</v>
@@ -10925,7 +10931,7 @@
     </row>
     <row r="297" spans="25:26">
       <c r="Y297" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="Z297" t="s">
         <v>32</v>
@@ -10933,7 +10939,7 @@
     </row>
     <row r="298" spans="25:26">
       <c r="Y298" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="Z298" t="s">
         <v>32</v>
@@ -10941,7 +10947,7 @@
     </row>
     <row r="299" spans="25:26">
       <c r="Y299" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="Z299" t="s">
         <v>32</v>
@@ -10949,7 +10955,7 @@
     </row>
     <row r="300" spans="25:26">
       <c r="Y300" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="Z300" t="s">
         <v>32</v>
@@ -10957,7 +10963,7 @@
     </row>
     <row r="301" spans="25:26">
       <c r="Y301" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="Z301" t="s">
         <v>32</v>
@@ -10965,7 +10971,7 @@
     </row>
     <row r="302" spans="25:26">
       <c r="Y302" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="Z302" t="s">
         <v>32</v>
@@ -10973,7 +10979,7 @@
     </row>
     <row r="303" spans="25:26">
       <c r="Y303" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="Z303" t="s">
         <v>32</v>
@@ -10981,7 +10987,7 @@
     </row>
     <row r="304" spans="25:26">
       <c r="Y304" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="Z304" t="s">
         <v>32</v>
@@ -10989,7 +10995,7 @@
     </row>
     <row r="305" spans="25:26">
       <c r="Y305" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="Z305" t="s">
         <v>32</v>
@@ -10997,7 +11003,7 @@
     </row>
     <row r="306" spans="25:26">
       <c r="Y306" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="Z306" t="s">
         <v>32</v>
@@ -11005,7 +11011,7 @@
     </row>
     <row r="307" spans="25:26">
       <c r="Y307" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="Z307" t="s">
         <v>32</v>
@@ -11013,7 +11019,7 @@
     </row>
     <row r="308" spans="25:26">
       <c r="Y308" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="Z308" t="s">
         <v>32</v>
@@ -11021,7 +11027,7 @@
     </row>
     <row r="309" spans="25:26">
       <c r="Y309" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="Z309" t="s">
         <v>32</v>
@@ -11029,7 +11035,7 @@
     </row>
     <row r="310" spans="25:26">
       <c r="Y310" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="Z310" t="s">
         <v>32</v>
@@ -11037,7 +11043,7 @@
     </row>
     <row r="311" spans="25:26">
       <c r="Y311" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="Z311" t="s">
         <v>32</v>
@@ -11045,7 +11051,7 @@
     </row>
     <row r="312" spans="25:26">
       <c r="Y312" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="Z312" t="s">
         <v>32</v>
@@ -11053,7 +11059,7 @@
     </row>
     <row r="313" spans="25:26">
       <c r="Y313" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="Z313" t="s">
         <v>32</v>
@@ -11061,7 +11067,7 @@
     </row>
     <row r="314" spans="25:26">
       <c r="Y314" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="Z314" t="s">
         <v>32</v>
@@ -11069,7 +11075,7 @@
     </row>
     <row r="315" spans="25:26">
       <c r="Y315" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="Z315" t="s">
         <v>32</v>
@@ -11077,7 +11083,7 @@
     </row>
     <row r="316" spans="25:26">
       <c r="Y316" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="Z316" t="s">
         <v>32</v>
@@ -11085,7 +11091,7 @@
     </row>
     <row r="317" spans="25:26">
       <c r="Y317" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="Z317" t="s">
         <v>32</v>
@@ -11093,7 +11099,7 @@
     </row>
     <row r="318" spans="25:26">
       <c r="Y318" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="Z318" t="s">
         <v>32</v>
@@ -11101,7 +11107,7 @@
     </row>
     <row r="319" spans="25:26">
       <c r="Y319" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="Z319" t="s">
         <v>32</v>
@@ -11109,7 +11115,7 @@
     </row>
     <row r="320" spans="25:26">
       <c r="Y320" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="Z320" t="s">
         <v>32</v>
@@ -11117,7 +11123,7 @@
     </row>
     <row r="321" spans="25:26">
       <c r="Y321" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="Z321" t="s">
         <v>32</v>
@@ -11125,7 +11131,7 @@
     </row>
     <row r="322" spans="25:26">
       <c r="Y322" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="Z322" t="s">
         <v>32</v>
@@ -11133,7 +11139,7 @@
     </row>
     <row r="323" spans="25:26">
       <c r="Y323" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="Z323" t="s">
         <v>32</v>
@@ -11141,7 +11147,7 @@
     </row>
     <row r="324" spans="25:26">
       <c r="Y324" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="Z324" t="s">
         <v>32</v>
@@ -11149,7 +11155,7 @@
     </row>
     <row r="325" spans="25:26">
       <c r="Y325" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="Z325" t="s">
         <v>32</v>
@@ -11157,7 +11163,7 @@
     </row>
     <row r="326" spans="25:26">
       <c r="Y326" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="Z326" t="s">
         <v>32</v>
@@ -11165,7 +11171,7 @@
     </row>
     <row r="327" spans="25:26">
       <c r="Y327" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="Z327" t="s">
         <v>32</v>
@@ -11173,7 +11179,7 @@
     </row>
     <row r="328" spans="25:26">
       <c r="Y328" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="Z328" t="s">
         <v>32</v>
@@ -11181,7 +11187,7 @@
     </row>
     <row r="329" spans="25:26">
       <c r="Y329" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="Z329" t="s">
         <v>32</v>
@@ -11189,7 +11195,7 @@
     </row>
     <row r="330" spans="25:26">
       <c r="Y330" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="Z330" t="s">
         <v>32</v>
@@ -11197,7 +11203,7 @@
     </row>
     <row r="331" spans="25:26">
       <c r="Y331" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="Z331" t="s">
         <v>32</v>
@@ -11205,7 +11211,7 @@
     </row>
     <row r="332" spans="25:26">
       <c r="Y332" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="Z332" t="s">
         <v>32</v>
@@ -11213,7 +11219,7 @@
     </row>
     <row r="333" spans="25:26">
       <c r="Y333" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="Z333" t="s">
         <v>32</v>
@@ -11221,7 +11227,7 @@
     </row>
     <row r="334" spans="25:26">
       <c r="Y334" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="Z334" t="s">
         <v>32</v>
@@ -11229,7 +11235,7 @@
     </row>
     <row r="335" spans="25:26">
       <c r="Y335" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="Z335" t="s">
         <v>32</v>
@@ -11237,7 +11243,7 @@
     </row>
     <row r="336" spans="25:26">
       <c r="Y336" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="Z336" t="s">
         <v>32</v>
@@ -11245,7 +11251,7 @@
     </row>
     <row r="337" spans="25:26">
       <c r="Y337" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="Z337" t="s">
         <v>32</v>
@@ -11253,7 +11259,7 @@
     </row>
     <row r="338" spans="25:26">
       <c r="Y338" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="Z338" t="s">
         <v>32</v>
@@ -11261,7 +11267,7 @@
     </row>
     <row r="339" spans="25:26">
       <c r="Y339" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="Z339" t="s">
         <v>32</v>
@@ -11269,7 +11275,7 @@
     </row>
     <row r="340" spans="25:26">
       <c r="Y340" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="Z340" t="s">
         <v>32</v>
@@ -11277,7 +11283,7 @@
     </row>
     <row r="341" spans="25:26">
       <c r="Y341" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="Z341" t="s">
         <v>32</v>
@@ -11285,7 +11291,7 @@
     </row>
     <row r="342" spans="25:26">
       <c r="Y342" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="Z342" t="s">
         <v>32</v>
@@ -11293,7 +11299,7 @@
     </row>
     <row r="343" spans="25:26">
       <c r="Y343" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="Z343" t="s">
         <v>32</v>
@@ -11301,7 +11307,7 @@
     </row>
     <row r="344" spans="25:26">
       <c r="Y344" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="Z344" t="s">
         <v>32</v>
@@ -11309,7 +11315,7 @@
     </row>
     <row r="345" spans="25:26">
       <c r="Y345" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="Z345" t="s">
         <v>32</v>
@@ -11317,7 +11323,7 @@
     </row>
     <row r="346" spans="25:26">
       <c r="Y346" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="Z346" t="s">
         <v>32</v>
@@ -11325,7 +11331,7 @@
     </row>
     <row r="347" spans="25:26">
       <c r="Y347" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="Z347" t="s">
         <v>32</v>
@@ -11333,7 +11339,7 @@
     </row>
     <row r="348" spans="25:26">
       <c r="Y348" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="Z348" t="s">
         <v>32</v>
@@ -11341,7 +11347,7 @@
     </row>
     <row r="349" spans="25:26">
       <c r="Y349" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="Z349" t="s">
         <v>32</v>
@@ -11349,7 +11355,7 @@
     </row>
     <row r="350" spans="25:26">
       <c r="Y350" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="Z350" t="s">
         <v>32</v>
@@ -11357,7 +11363,7 @@
     </row>
     <row r="351" spans="25:26">
       <c r="Y351" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="Z351" t="s">
         <v>32</v>
@@ -11365,7 +11371,7 @@
     </row>
     <row r="352" spans="25:26">
       <c r="Y352" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Z352" t="s">
         <v>32</v>
@@ -11373,7 +11379,7 @@
     </row>
     <row r="353" spans="25:26">
       <c r="Y353" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="Z353" t="s">
         <v>32</v>
@@ -11381,7 +11387,7 @@
     </row>
     <row r="354" spans="25:26">
       <c r="Y354" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="Z354" t="s">
         <v>32</v>
@@ -11389,7 +11395,7 @@
     </row>
     <row r="355" spans="25:26">
       <c r="Y355" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="Z355" t="s">
         <v>32</v>
@@ -11397,7 +11403,7 @@
     </row>
     <row r="356" spans="25:26">
       <c r="Y356" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="Z356" t="s">
         <v>32</v>
@@ -11405,7 +11411,7 @@
     </row>
     <row r="357" spans="25:26">
       <c r="Y357" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="Z357" t="s">
         <v>32</v>
@@ -11413,7 +11419,7 @@
     </row>
     <row r="358" spans="25:26">
       <c r="Y358" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="Z358" t="s">
         <v>32</v>
@@ -11421,7 +11427,7 @@
     </row>
     <row r="359" spans="25:26">
       <c r="Y359" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="Z359" t="s">
         <v>32</v>
@@ -11429,7 +11435,7 @@
     </row>
     <row r="360" spans="25:26">
       <c r="Y360" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="Z360" t="s">
         <v>32</v>
@@ -11437,7 +11443,7 @@
     </row>
     <row r="361" spans="25:26">
       <c r="Y361" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="Z361" t="s">
         <v>32</v>
@@ -11445,7 +11451,7 @@
     </row>
     <row r="362" spans="25:26">
       <c r="Y362" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="Z362" t="s">
         <v>32</v>
@@ -11453,7 +11459,7 @@
     </row>
     <row r="363" spans="25:26">
       <c r="Y363" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="Z363" t="s">
         <v>32</v>
@@ -11461,7 +11467,7 @@
     </row>
     <row r="364" spans="25:26">
       <c r="Y364" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="Z364" t="s">
         <v>32</v>
@@ -11469,7 +11475,7 @@
     </row>
     <row r="365" spans="25:26">
       <c r="Y365" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="Z365" t="s">
         <v>32</v>
@@ -11477,7 +11483,7 @@
     </row>
     <row r="366" spans="25:26">
       <c r="Y366" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="Z366" t="s">
         <v>32</v>
@@ -11485,7 +11491,7 @@
     </row>
     <row r="367" spans="25:26">
       <c r="Y367" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="Z367" t="s">
         <v>32</v>
@@ -11493,7 +11499,7 @@
     </row>
     <row r="368" spans="25:26">
       <c r="Y368" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="Z368" t="s">
         <v>32</v>
@@ -11501,7 +11507,7 @@
     </row>
     <row r="369" spans="25:26">
       <c r="Y369" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="Z369" t="s">
         <v>32</v>
@@ -11509,7 +11515,7 @@
     </row>
     <row r="370" spans="25:26">
       <c r="Y370" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="Z370" t="s">
         <v>32</v>
@@ -11517,7 +11523,7 @@
     </row>
     <row r="371" spans="25:26">
       <c r="Y371" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="Z371" t="s">
         <v>32</v>
@@ -11525,7 +11531,7 @@
     </row>
     <row r="372" spans="25:26">
       <c r="Y372" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="Z372" t="s">
         <v>32</v>
@@ -11533,7 +11539,7 @@
     </row>
     <row r="373" spans="25:26">
       <c r="Y373" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="Z373" t="s">
         <v>32</v>
@@ -11541,7 +11547,7 @@
     </row>
     <row r="374" spans="25:26">
       <c r="Y374" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="Z374" t="s">
         <v>32</v>
@@ -11549,7 +11555,7 @@
     </row>
     <row r="375" spans="25:26">
       <c r="Y375" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="Z375" t="s">
         <v>32</v>
@@ -11557,7 +11563,7 @@
     </row>
     <row r="376" spans="25:26">
       <c r="Y376" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="Z376" t="s">
         <v>32</v>
@@ -11565,7 +11571,7 @@
     </row>
     <row r="377" spans="25:26">
       <c r="Y377" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="Z377" t="s">
         <v>32</v>
@@ -11573,7 +11579,7 @@
     </row>
     <row r="378" spans="25:26">
       <c r="Y378" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="Z378" t="s">
         <v>32</v>
@@ -11581,7 +11587,7 @@
     </row>
     <row r="379" spans="25:26">
       <c r="Y379" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="Z379" t="s">
         <v>32</v>
@@ -11589,7 +11595,7 @@
     </row>
     <row r="380" spans="25:26">
       <c r="Y380" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="Z380" t="s">
         <v>32</v>
@@ -11597,7 +11603,7 @@
     </row>
     <row r="381" spans="25:26">
       <c r="Y381" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="Z381" t="s">
         <v>32</v>
@@ -11605,7 +11611,7 @@
     </row>
     <row r="382" spans="25:26">
       <c r="Y382" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="Z382" t="s">
         <v>32</v>
@@ -11613,7 +11619,7 @@
     </row>
     <row r="383" spans="25:26">
       <c r="Y383" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="Z383" t="s">
         <v>32</v>
@@ -11621,7 +11627,7 @@
     </row>
     <row r="384" spans="25:26">
       <c r="Y384" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="Z384" t="s">
         <v>32</v>
@@ -11629,7 +11635,7 @@
     </row>
     <row r="385" spans="25:26">
       <c r="Y385" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="Z385" t="s">
         <v>32</v>
@@ -11637,7 +11643,7 @@
     </row>
     <row r="386" spans="25:26">
       <c r="Y386" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="Z386" t="s">
         <v>32</v>
@@ -11645,7 +11651,7 @@
     </row>
     <row r="387" spans="25:26">
       <c r="Y387" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="Z387" t="s">
         <v>32</v>
@@ -11653,7 +11659,7 @@
     </row>
     <row r="388" spans="25:26">
       <c r="Y388" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="Z388" t="s">
         <v>32</v>
@@ -11661,7 +11667,7 @@
     </row>
     <row r="389" spans="25:26">
       <c r="Y389" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="Z389" t="s">
         <v>32</v>
@@ -11669,7 +11675,7 @@
     </row>
     <row r="390" spans="25:26">
       <c r="Y390" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="Z390" t="s">
         <v>32</v>
@@ -11677,7 +11683,7 @@
     </row>
     <row r="391" spans="25:26">
       <c r="Y391" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="Z391" t="s">
         <v>32</v>
@@ -11685,7 +11691,7 @@
     </row>
     <row r="392" spans="25:26">
       <c r="Y392" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="Z392" t="s">
         <v>32</v>
@@ -11693,7 +11699,7 @@
     </row>
     <row r="393" spans="25:26">
       <c r="Y393" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="Z393" t="s">
         <v>32</v>
@@ -11701,7 +11707,7 @@
     </row>
     <row r="394" spans="25:26">
       <c r="Y394" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="Z394" t="s">
         <v>32</v>
@@ -11709,7 +11715,7 @@
     </row>
     <row r="395" spans="25:26">
       <c r="Y395" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="Z395" t="s">
         <v>32</v>
@@ -11717,7 +11723,7 @@
     </row>
     <row r="396" spans="25:26">
       <c r="Y396" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="Z396" t="s">
         <v>32</v>
@@ -11725,7 +11731,7 @@
     </row>
     <row r="397" spans="25:26">
       <c r="Y397" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="Z397" t="s">
         <v>32</v>
@@ -11733,7 +11739,7 @@
     </row>
     <row r="398" spans="25:26">
       <c r="Y398" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="Z398" t="s">
         <v>32</v>
@@ -11741,7 +11747,7 @@
     </row>
     <row r="399" spans="25:26">
       <c r="Y399" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="Z399" t="s">
         <v>32</v>
@@ -11749,7 +11755,7 @@
     </row>
     <row r="400" spans="25:26">
       <c r="Y400" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="Z400" t="s">
         <v>32</v>
@@ -11757,7 +11763,7 @@
     </row>
     <row r="401" spans="25:26">
       <c r="Y401" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="Z401" t="s">
         <v>32</v>
@@ -11765,7 +11771,7 @@
     </row>
     <row r="402" spans="25:26">
       <c r="Y402" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="Z402" t="s">
         <v>32</v>
@@ -11773,7 +11779,7 @@
     </row>
     <row r="403" spans="25:26">
       <c r="Y403" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="Z403" t="s">
         <v>32</v>
@@ -11781,7 +11787,7 @@
     </row>
     <row r="404" spans="25:26">
       <c r="Y404" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="Z404" t="s">
         <v>32</v>
@@ -11789,7 +11795,7 @@
     </row>
     <row r="405" spans="25:26">
       <c r="Y405" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="Z405" t="s">
         <v>32</v>
@@ -11797,7 +11803,7 @@
     </row>
     <row r="406" spans="25:26">
       <c r="Y406" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="Z406" t="s">
         <v>32</v>
@@ -11805,7 +11811,7 @@
     </row>
     <row r="407" spans="25:26">
       <c r="Y407" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="Z407" t="s">
         <v>32</v>
@@ -11813,7 +11819,7 @@
     </row>
     <row r="408" spans="25:26">
       <c r="Y408" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="Z408" t="s">
         <v>32</v>
@@ -11821,7 +11827,7 @@
     </row>
     <row r="409" spans="25:26">
       <c r="Y409" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z409" t="s">
         <v>32</v>
@@ -11829,7 +11835,7 @@
     </row>
     <row r="410" spans="25:26">
       <c r="Y410" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="Z410" t="s">
         <v>32</v>
@@ -11837,7 +11843,7 @@
     </row>
     <row r="411" spans="25:26">
       <c r="Y411" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="Z411" t="s">
         <v>32</v>
@@ -11845,7 +11851,7 @@
     </row>
     <row r="412" spans="25:26">
       <c r="Y412" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="Z412" t="s">
         <v>32</v>
@@ -11853,7 +11859,7 @@
     </row>
     <row r="413" spans="25:26">
       <c r="Y413" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="Z413" t="s">
         <v>32</v>
@@ -11861,7 +11867,7 @@
     </row>
     <row r="414" spans="25:26">
       <c r="Y414" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="Z414" t="s">
         <v>32</v>
@@ -11869,7 +11875,7 @@
     </row>
     <row r="415" spans="25:26">
       <c r="Y415" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="Z415" t="s">
         <v>32</v>
@@ -11877,7 +11883,7 @@
     </row>
     <row r="416" spans="25:26">
       <c r="Y416" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="Z416" t="s">
         <v>32</v>
@@ -11885,7 +11891,7 @@
     </row>
     <row r="417" spans="25:26">
       <c r="Y417" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="Z417" t="s">
         <v>32</v>
@@ -11893,7 +11899,7 @@
     </row>
     <row r="418" spans="25:26">
       <c r="Y418" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="Z418" t="s">
         <v>32</v>
@@ -11901,7 +11907,7 @@
     </row>
     <row r="419" spans="25:26">
       <c r="Y419" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="Z419" t="s">
         <v>32</v>
@@ -11909,7 +11915,7 @@
     </row>
     <row r="420" spans="25:26">
       <c r="Y420" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="Z420" t="s">
         <v>32</v>
@@ -11917,7 +11923,7 @@
     </row>
     <row r="421" spans="25:26">
       <c r="Y421" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="Z421" t="s">
         <v>32</v>
@@ -11925,7 +11931,7 @@
     </row>
     <row r="422" spans="25:26">
       <c r="Y422" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="Z422" t="s">
         <v>32</v>
@@ -11933,7 +11939,7 @@
     </row>
     <row r="423" spans="25:26">
       <c r="Y423" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="Z423" t="s">
         <v>32</v>
@@ -11941,7 +11947,7 @@
     </row>
     <row r="424" spans="25:26">
       <c r="Y424" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="Z424" t="s">
         <v>32</v>
@@ -11949,7 +11955,7 @@
     </row>
     <row r="425" spans="25:26">
       <c r="Y425" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="Z425" t="s">
         <v>32</v>
@@ -11957,7 +11963,7 @@
     </row>
     <row r="426" spans="25:26">
       <c r="Y426" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="Z426" t="s">
         <v>32</v>
@@ -11965,7 +11971,7 @@
     </row>
     <row r="427" spans="25:26">
       <c r="Y427" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="Z427" t="s">
         <v>32</v>
@@ -11973,7 +11979,7 @@
     </row>
     <row r="428" spans="25:26">
       <c r="Y428" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="Z428" t="s">
         <v>32</v>
@@ -11981,7 +11987,7 @@
     </row>
     <row r="429" spans="25:26">
       <c r="Y429" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="Z429" t="s">
         <v>32</v>
@@ -11989,7 +11995,7 @@
     </row>
     <row r="430" spans="25:26">
       <c r="Y430" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="Z430" t="s">
         <v>32</v>
@@ -11997,7 +12003,7 @@
     </row>
     <row r="431" spans="25:26">
       <c r="Y431" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="Z431" t="s">
         <v>32</v>
@@ -12005,7 +12011,7 @@
     </row>
     <row r="432" spans="25:26">
       <c r="Y432" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="Z432" t="s">
         <v>32</v>
@@ -12013,7 +12019,7 @@
     </row>
     <row r="433" spans="25:26">
       <c r="Y433" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="Z433" t="s">
         <v>32</v>
@@ -12021,7 +12027,7 @@
     </row>
     <row r="434" spans="25:26">
       <c r="Y434" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="Z434" t="s">
         <v>32</v>
@@ -12029,7 +12035,7 @@
     </row>
     <row r="435" spans="25:26">
       <c r="Y435" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="Z435" t="s">
         <v>32</v>
@@ -12037,7 +12043,7 @@
     </row>
     <row r="436" spans="25:26">
       <c r="Y436" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="Z436" t="s">
         <v>32</v>
@@ -12045,7 +12051,7 @@
     </row>
     <row r="437" spans="25:26">
       <c r="Y437" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="Z437" t="s">
         <v>32</v>
@@ -12053,7 +12059,7 @@
     </row>
     <row r="438" spans="25:26">
       <c r="Y438" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="Z438" t="s">
         <v>32</v>
@@ -12061,7 +12067,7 @@
     </row>
     <row r="439" spans="25:26">
       <c r="Y439" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="Z439" t="s">
         <v>32</v>
@@ -12069,7 +12075,7 @@
     </row>
     <row r="440" spans="25:26">
       <c r="Y440" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="Z440" t="s">
         <v>32</v>
@@ -12077,7 +12083,7 @@
     </row>
     <row r="441" spans="25:26">
       <c r="Y441" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="Z441" t="s">
         <v>32</v>
@@ -12085,7 +12091,7 @@
     </row>
     <row r="442" spans="25:26">
       <c r="Y442" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="Z442" t="s">
         <v>32</v>
@@ -12093,7 +12099,7 @@
     </row>
     <row r="443" spans="25:26">
       <c r="Y443" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="Z443" t="s">
         <v>32</v>
@@ -12101,7 +12107,7 @@
     </row>
     <row r="444" spans="25:26">
       <c r="Y444" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="Z444" t="s">
         <v>32</v>
@@ -12109,7 +12115,7 @@
     </row>
     <row r="445" spans="25:26">
       <c r="Y445" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="Z445" t="s">
         <v>32</v>
@@ -12117,7 +12123,7 @@
     </row>
     <row r="446" spans="25:26">
       <c r="Y446" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="Z446" t="s">
         <v>32</v>
@@ -12125,7 +12131,7 @@
     </row>
     <row r="447" spans="25:26">
       <c r="Y447" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="Z447" t="s">
         <v>32</v>
@@ -12133,7 +12139,7 @@
     </row>
     <row r="448" spans="25:26">
       <c r="Y448" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="Z448" t="s">
         <v>32</v>
@@ -12141,7 +12147,7 @@
     </row>
     <row r="449" spans="25:26">
       <c r="Y449" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="Z449" t="s">
         <v>32</v>
@@ -12149,7 +12155,7 @@
     </row>
     <row r="450" spans="25:26">
       <c r="Y450" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="Z450" t="s">
         <v>32</v>
@@ -12157,7 +12163,7 @@
     </row>
     <row r="451" spans="25:26">
       <c r="Y451" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="Z451" t="s">
         <v>32</v>
@@ -12165,7 +12171,7 @@
     </row>
     <row r="452" spans="25:26">
       <c r="Y452" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="Z452" t="s">
         <v>32</v>
@@ -12173,7 +12179,7 @@
     </row>
     <row r="453" spans="25:26">
       <c r="Y453" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="Z453" t="s">
         <v>32</v>
@@ -12181,7 +12187,7 @@
     </row>
     <row r="454" spans="25:26">
       <c r="Y454" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="Z454" t="s">
         <v>32</v>
@@ -12189,7 +12195,7 @@
     </row>
     <row r="455" spans="25:26">
       <c r="Y455" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="Z455" t="s">
         <v>32</v>
@@ -12197,7 +12203,7 @@
     </row>
     <row r="456" spans="25:26">
       <c r="Y456" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="Z456" t="s">
         <v>32</v>
@@ -12205,7 +12211,7 @@
     </row>
     <row r="457" spans="25:26">
       <c r="Y457" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="Z457" t="s">
         <v>32</v>
@@ -12213,7 +12219,7 @@
     </row>
     <row r="458" spans="25:26">
       <c r="Y458" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="Z458" t="s">
         <v>32</v>
@@ -12221,7 +12227,7 @@
     </row>
     <row r="459" spans="25:26">
       <c r="Y459" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="Z459" t="s">
         <v>32</v>
@@ -12229,7 +12235,7 @@
     </row>
     <row r="460" spans="25:26">
       <c r="Y460" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="Z460" t="s">
         <v>32</v>
@@ -12237,7 +12243,7 @@
     </row>
     <row r="461" spans="25:26">
       <c r="Y461" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z461" t="s">
         <v>32</v>
@@ -12245,7 +12251,7 @@
     </row>
     <row r="462" spans="25:26">
       <c r="Y462" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="Z462" t="s">
         <v>32</v>
@@ -12253,7 +12259,7 @@
     </row>
     <row r="463" spans="25:26">
       <c r="Y463" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="Z463" t="s">
         <v>32</v>
@@ -12261,7 +12267,7 @@
     </row>
     <row r="464" spans="25:26">
       <c r="Y464" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="Z464" t="s">
         <v>32</v>
@@ -12269,7 +12275,7 @@
     </row>
     <row r="465" spans="25:26">
       <c r="Y465" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="Z465" t="s">
         <v>32</v>
@@ -12277,7 +12283,7 @@
     </row>
     <row r="466" spans="25:26">
       <c r="Y466" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="Z466" t="s">
         <v>32</v>
@@ -12285,7 +12291,7 @@
     </row>
     <row r="467" spans="25:26">
       <c r="Y467" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="Z467" t="s">
         <v>32</v>
@@ -12293,7 +12299,7 @@
     </row>
     <row r="468" spans="25:26">
       <c r="Y468" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="Z468" t="s">
         <v>32</v>
@@ -12301,7 +12307,7 @@
     </row>
     <row r="469" spans="25:26">
       <c r="Y469" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="Z469" t="s">
         <v>32</v>
@@ -12309,7 +12315,7 @@
     </row>
     <row r="470" spans="25:26">
       <c r="Y470" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="Z470" t="s">
         <v>32</v>
@@ -12317,7 +12323,7 @@
     </row>
     <row r="471" spans="25:26">
       <c r="Y471" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="Z471" t="s">
         <v>32</v>
@@ -12325,7 +12331,7 @@
     </row>
     <row r="472" spans="25:26">
       <c r="Y472" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="Z472" t="s">
         <v>32</v>
@@ -12333,7 +12339,7 @@
     </row>
     <row r="473" spans="25:26">
       <c r="Y473" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="Z473" t="s">
         <v>32</v>
@@ -12341,7 +12347,7 @@
     </row>
     <row r="474" spans="25:26">
       <c r="Y474" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="Z474" t="s">
         <v>32</v>
@@ -12349,7 +12355,7 @@
     </row>
     <row r="475" spans="25:26">
       <c r="Y475" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="Z475" t="s">
         <v>32</v>
@@ -12357,7 +12363,7 @@
     </row>
     <row r="476" spans="25:26">
       <c r="Y476" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="Z476" t="s">
         <v>32</v>
@@ -12365,7 +12371,7 @@
     </row>
     <row r="477" spans="25:26">
       <c r="Y477" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="Z477" t="s">
         <v>32</v>
@@ -12373,7 +12379,7 @@
     </row>
     <row r="478" spans="25:26">
       <c r="Y478" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="Z478" t="s">
         <v>32</v>
@@ -12381,7 +12387,7 @@
     </row>
     <row r="479" spans="25:26">
       <c r="Y479" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="Z479" t="s">
         <v>32</v>
@@ -12389,7 +12395,7 @@
     </row>
     <row r="480" spans="25:26">
       <c r="Y480" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="Z480" t="s">
         <v>32</v>
@@ -12397,7 +12403,7 @@
     </row>
     <row r="481" spans="25:26">
       <c r="Y481" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="Z481" t="s">
         <v>32</v>
@@ -12405,7 +12411,7 @@
     </row>
     <row r="482" spans="25:26">
       <c r="Y482" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="Z482" t="s">
         <v>32</v>
@@ -12413,7 +12419,7 @@
     </row>
     <row r="483" spans="25:26">
       <c r="Y483" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="Z483" t="s">
         <v>32</v>
@@ -12421,7 +12427,7 @@
     </row>
     <row r="484" spans="25:26">
       <c r="Y484" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="Z484" t="s">
         <v>32</v>
@@ -12429,7 +12435,7 @@
     </row>
     <row r="485" spans="25:26">
       <c r="Y485" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="Z485" t="s">
         <v>32</v>
@@ -12437,7 +12443,7 @@
     </row>
     <row r="486" spans="25:26">
       <c r="Y486" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="Z486" t="s">
         <v>32</v>
@@ -12445,7 +12451,7 @@
     </row>
     <row r="487" spans="25:26">
       <c r="Y487" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="Z487" t="s">
         <v>32</v>
@@ -12453,7 +12459,7 @@
     </row>
     <row r="488" spans="25:26">
       <c r="Y488" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="Z488" t="s">
         <v>32</v>
@@ -12461,7 +12467,7 @@
     </row>
     <row r="489" spans="25:26">
       <c r="Y489" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="Z489" t="s">
         <v>32</v>
@@ -12469,7 +12475,7 @@
     </row>
     <row r="490" spans="25:26">
       <c r="Y490" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="Z490" t="s">
         <v>32</v>
@@ -12477,7 +12483,7 @@
     </row>
     <row r="491" spans="25:26">
       <c r="Y491" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="Z491" t="s">
         <v>32</v>
@@ -12485,7 +12491,7 @@
     </row>
     <row r="492" spans="25:26">
       <c r="Y492" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="Z492" t="s">
         <v>32</v>
@@ -12493,7 +12499,7 @@
     </row>
     <row r="493" spans="25:26">
       <c r="Y493" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="Z493" t="s">
         <v>32</v>
@@ -12501,7 +12507,7 @@
     </row>
     <row r="494" spans="25:26">
       <c r="Y494" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="Z494" t="s">
         <v>32</v>
@@ -12509,7 +12515,7 @@
     </row>
     <row r="495" spans="25:26">
       <c r="Y495" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="Z495" t="s">
         <v>32</v>
@@ -12517,7 +12523,7 @@
     </row>
     <row r="496" spans="25:26">
       <c r="Y496" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="Z496" t="s">
         <v>32</v>
@@ -12525,7 +12531,7 @@
     </row>
     <row r="497" spans="25:26">
       <c r="Y497" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="Z497" t="s">
         <v>32</v>
@@ -12533,7 +12539,7 @@
     </row>
     <row r="498" spans="25:26">
       <c r="Y498" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="Z498" t="s">
         <v>32</v>
@@ -12541,7 +12547,7 @@
     </row>
     <row r="499" spans="25:26">
       <c r="Y499" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="Z499" t="s">
         <v>32</v>
@@ -12549,7 +12555,7 @@
     </row>
     <row r="500" spans="25:26">
       <c r="Y500" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="Z500" t="s">
         <v>32</v>
@@ -12557,7 +12563,7 @@
     </row>
     <row r="501" spans="25:26">
       <c r="Y501" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="Z501" t="s">
         <v>32</v>
@@ -12565,7 +12571,7 @@
     </row>
     <row r="502" spans="25:26">
       <c r="Y502" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="Z502" t="s">
         <v>32</v>
@@ -12573,7 +12579,7 @@
     </row>
     <row r="503" spans="25:26">
       <c r="Y503" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="Z503" t="s">
         <v>32</v>
@@ -12581,7 +12587,7 @@
     </row>
     <row r="504" spans="25:26">
       <c r="Y504" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="Z504" t="s">
         <v>32</v>
@@ -12589,7 +12595,7 @@
     </row>
     <row r="505" spans="25:26">
       <c r="Y505" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="Z505" t="s">
         <v>32</v>
@@ -12597,7 +12603,7 @@
     </row>
     <row r="506" spans="25:26">
       <c r="Y506" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="Z506" t="s">
         <v>32</v>
@@ -12605,7 +12611,7 @@
     </row>
     <row r="507" spans="25:26">
       <c r="Y507" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="Z507" t="s">
         <v>32</v>
@@ -12613,7 +12619,7 @@
     </row>
     <row r="508" spans="25:26">
       <c r="Y508" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="Z508" t="s">
         <v>32</v>
@@ -12621,7 +12627,7 @@
     </row>
     <row r="509" spans="25:26">
       <c r="Y509" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="Z509" t="s">
         <v>32</v>
@@ -12629,7 +12635,7 @@
     </row>
     <row r="510" spans="25:26">
       <c r="Y510" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="Z510" t="s">
         <v>32</v>
@@ -12637,7 +12643,7 @@
     </row>
     <row r="511" spans="25:26">
       <c r="Y511" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="Z511" t="s">
         <v>32</v>
@@ -12645,7 +12651,7 @@
     </row>
     <row r="512" spans="25:26">
       <c r="Y512" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="Z512" t="s">
         <v>32</v>
@@ -12653,7 +12659,7 @@
     </row>
     <row r="513" spans="25:26">
       <c r="Y513" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="Z513" t="s">
         <v>32</v>
@@ -12661,7 +12667,7 @@
     </row>
     <row r="514" spans="25:26">
       <c r="Y514" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="Z514" t="s">
         <v>32</v>
@@ -12669,7 +12675,7 @@
     </row>
     <row r="515" spans="25:26">
       <c r="Y515" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="Z515" t="s">
         <v>32</v>
@@ -12677,7 +12683,7 @@
     </row>
     <row r="516" spans="25:26">
       <c r="Y516" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="Z516" t="s">
         <v>32</v>
@@ -12685,7 +12691,7 @@
     </row>
     <row r="517" spans="25:26">
       <c r="Y517" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="Z517" t="s">
         <v>32</v>
@@ -12693,7 +12699,7 @@
     </row>
     <row r="518" spans="25:26">
       <c r="Y518" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="Z518" t="s">
         <v>32</v>
@@ -12701,7 +12707,7 @@
     </row>
     <row r="519" spans="25:26">
       <c r="Y519" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="Z519" t="s">
         <v>32</v>
@@ -12709,7 +12715,7 @@
     </row>
     <row r="520" spans="25:26">
       <c r="Y520" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="Z520" t="s">
         <v>32</v>
@@ -12717,7 +12723,7 @@
     </row>
     <row r="521" spans="25:26">
       <c r="Y521" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="Z521" t="s">
         <v>32</v>
@@ -12725,7 +12731,7 @@
     </row>
     <row r="522" spans="25:26">
       <c r="Y522" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="Z522" t="s">
         <v>32</v>
@@ -12733,7 +12739,7 @@
     </row>
     <row r="523" spans="25:26">
       <c r="Y523" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="Z523" t="s">
         <v>32</v>
@@ -12741,7 +12747,7 @@
     </row>
     <row r="524" spans="25:26">
       <c r="Y524" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="Z524" t="s">
         <v>32</v>
@@ -12749,7 +12755,7 @@
     </row>
     <row r="525" spans="25:26">
       <c r="Y525" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z525" t="s">
         <v>32</v>
@@ -12757,7 +12763,7 @@
     </row>
     <row r="526" spans="25:26">
       <c r="Y526" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="Z526" t="s">
         <v>32</v>
@@ -12765,7 +12771,7 @@
     </row>
     <row r="527" spans="25:26">
       <c r="Y527" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="Z527" t="s">
         <v>32</v>
@@ -12773,7 +12779,7 @@
     </row>
     <row r="528" spans="25:26">
       <c r="Y528" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="Z528" t="s">
         <v>32</v>
@@ -12781,7 +12787,7 @@
     </row>
     <row r="529" spans="25:26">
       <c r="Y529" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="Z529" t="s">
         <v>32</v>
@@ -12789,7 +12795,7 @@
     </row>
     <row r="530" spans="25:26">
       <c r="Y530" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="Z530" t="s">
         <v>32</v>
@@ -12797,7 +12803,7 @@
     </row>
     <row r="531" spans="25:26">
       <c r="Y531" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="Z531" t="s">
         <v>32</v>
@@ -12805,7 +12811,7 @@
     </row>
     <row r="532" spans="25:26">
       <c r="Y532" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="Z532" t="s">
         <v>32</v>
@@ -12813,7 +12819,7 @@
     </row>
     <row r="533" spans="25:26">
       <c r="Y533" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="Z533" t="s">
         <v>32</v>
@@ -12821,7 +12827,7 @@
     </row>
     <row r="534" spans="25:26">
       <c r="Y534" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="Z534" t="s">
         <v>32</v>
@@ -12829,7 +12835,7 @@
     </row>
     <row r="535" spans="25:26">
       <c r="Y535" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z535" t="s">
         <v>32</v>
@@ -12837,7 +12843,7 @@
     </row>
     <row r="536" spans="25:26">
       <c r="Y536" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="Z536" t="s">
         <v>32</v>
@@ -12845,7 +12851,7 @@
     </row>
     <row r="537" spans="25:26">
       <c r="Y537" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="Z537" t="s">
         <v>32</v>
@@ -12853,7 +12859,7 @@
     </row>
     <row r="538" spans="25:26">
       <c r="Y538" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="Z538" t="s">
         <v>32</v>
@@ -12861,7 +12867,7 @@
     </row>
     <row r="539" spans="25:26">
       <c r="Y539" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="Z539" t="s">
         <v>32</v>
@@ -12869,7 +12875,7 @@
     </row>
     <row r="540" spans="25:26">
       <c r="Y540" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="Z540" t="s">
         <v>32</v>
@@ -12877,7 +12883,7 @@
     </row>
     <row r="541" spans="25:26">
       <c r="Y541" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="Z541" t="s">
         <v>32</v>
@@ -12885,7 +12891,7 @@
     </row>
     <row r="542" spans="25:26">
       <c r="Y542" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="Z542" t="s">
         <v>32</v>
@@ -12893,7 +12899,7 @@
     </row>
     <row r="543" spans="25:26">
       <c r="Y543" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="Z543" t="s">
         <v>32</v>
@@ -12901,7 +12907,7 @@
     </row>
     <row r="544" spans="25:26">
       <c r="Y544" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="Z544" t="s">
         <v>32</v>
@@ -12909,7 +12915,7 @@
     </row>
     <row r="545" spans="25:26">
       <c r="Y545" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z545" t="s">
         <v>32</v>
@@ -12917,7 +12923,7 @@
     </row>
     <row r="546" spans="25:26">
       <c r="Y546" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="Z546" t="s">
         <v>32</v>
@@ -12925,7 +12931,7 @@
     </row>
     <row r="547" spans="25:26">
       <c r="Y547" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="Z547" t="s">
         <v>32</v>
@@ -12933,7 +12939,7 @@
     </row>
     <row r="548" spans="25:26">
       <c r="Y548" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="Z548" t="s">
         <v>32</v>
@@ -12941,7 +12947,7 @@
     </row>
     <row r="549" spans="25:26">
       <c r="Y549" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="Z549" t="s">
         <v>32</v>
@@ -12949,7 +12955,7 @@
     </row>
     <row r="550" spans="25:26">
       <c r="Y550" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="Z550" t="s">
         <v>32</v>
@@ -12957,7 +12963,7 @@
     </row>
     <row r="551" spans="25:26">
       <c r="Y551" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="Z551" t="s">
         <v>32</v>
@@ -12965,7 +12971,7 @@
     </row>
     <row r="552" spans="25:26">
       <c r="Y552" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="Z552" t="s">
         <v>32</v>
@@ -12973,7 +12979,7 @@
     </row>
     <row r="553" spans="25:26">
       <c r="Y553" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="Z553" t="s">
         <v>32</v>
@@ -12981,7 +12987,7 @@
     </row>
     <row r="554" spans="25:26">
       <c r="Y554" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="Z554" t="s">
         <v>32</v>
@@ -12989,7 +12995,7 @@
     </row>
     <row r="555" spans="25:26">
       <c r="Y555" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="Z555" t="s">
         <v>32</v>
@@ -12997,7 +13003,7 @@
     </row>
     <row r="556" spans="25:26">
       <c r="Y556" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="Z556" t="s">
         <v>32</v>
@@ -13005,7 +13011,7 @@
     </row>
     <row r="557" spans="25:26">
       <c r="Y557" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="Z557" t="s">
         <v>32</v>
@@ -13013,7 +13019,7 @@
     </row>
     <row r="558" spans="25:26">
       <c r="Y558" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="Z558" t="s">
         <v>32</v>
@@ -13021,7 +13027,7 @@
     </row>
     <row r="559" spans="25:26">
       <c r="Y559" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="Z559" t="s">
         <v>32</v>
@@ -13029,7 +13035,7 @@
     </row>
     <row r="560" spans="25:26">
       <c r="Y560" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="Z560" t="s">
         <v>32</v>
@@ -13037,7 +13043,7 @@
     </row>
     <row r="561" spans="25:26">
       <c r="Y561" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="Z561" t="s">
         <v>32</v>
@@ -13045,7 +13051,7 @@
     </row>
     <row r="562" spans="25:26">
       <c r="Y562" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="Z562" t="s">
         <v>32</v>
@@ -13053,7 +13059,7 @@
     </row>
     <row r="563" spans="25:26">
       <c r="Y563" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="Z563" t="s">
         <v>32</v>
@@ -13061,7 +13067,7 @@
     </row>
     <row r="564" spans="25:26">
       <c r="Y564" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="Z564" t="s">
         <v>32</v>
@@ -13069,7 +13075,7 @@
     </row>
     <row r="565" spans="25:26">
       <c r="Y565" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="Z565" t="s">
         <v>32</v>
@@ -13077,7 +13083,7 @@
     </row>
     <row r="566" spans="25:26">
       <c r="Y566" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="Z566" t="s">
         <v>32</v>
@@ -13085,7 +13091,7 @@
     </row>
     <row r="567" spans="25:26">
       <c r="Y567" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="Z567" t="s">
         <v>32</v>
@@ -13093,7 +13099,7 @@
     </row>
     <row r="568" spans="25:26">
       <c r="Y568" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="Z568" t="s">
         <v>32</v>
@@ -13101,7 +13107,7 @@
     </row>
     <row r="569" spans="25:26">
       <c r="Y569" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="Z569" t="s">
         <v>32</v>
@@ -13109,7 +13115,7 @@
     </row>
     <row r="570" spans="25:26">
       <c r="Y570" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="Z570" t="s">
         <v>32</v>
@@ -13117,7 +13123,7 @@
     </row>
     <row r="571" spans="25:26">
       <c r="Y571" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="Z571" t="s">
         <v>32</v>
@@ -13125,7 +13131,7 @@
     </row>
     <row r="572" spans="25:26">
       <c r="Y572" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="Z572" t="s">
         <v>32</v>
@@ -13133,7 +13139,7 @@
     </row>
     <row r="573" spans="25:26">
       <c r="Y573" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="Z573" t="s">
         <v>32</v>
@@ -13141,7 +13147,7 @@
     </row>
     <row r="574" spans="25:26">
       <c r="Y574" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="Z574" t="s">
         <v>32</v>
@@ -13149,7 +13155,7 @@
     </row>
     <row r="575" spans="25:26">
       <c r="Y575" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="Z575" t="s">
         <v>32</v>
@@ -13157,7 +13163,7 @@
     </row>
     <row r="576" spans="25:26">
       <c r="Y576" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="Z576" t="s">
         <v>32</v>
@@ -13165,7 +13171,7 @@
     </row>
     <row r="577" spans="25:26">
       <c r="Y577" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="Z577" t="s">
         <v>32</v>
@@ -13173,7 +13179,7 @@
     </row>
     <row r="578" spans="25:26">
       <c r="Y578" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="Z578" t="s">
         <v>32</v>
@@ -13181,7 +13187,7 @@
     </row>
     <row r="579" spans="25:26">
       <c r="Y579" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="Z579" t="s">
         <v>32</v>
@@ -13189,7 +13195,7 @@
     </row>
     <row r="580" spans="25:26">
       <c r="Y580" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="Z580" t="s">
         <v>32</v>
@@ -13197,7 +13203,7 @@
     </row>
     <row r="581" spans="25:26">
       <c r="Y581" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="Z581" t="s">
         <v>32</v>
@@ -13205,7 +13211,7 @@
     </row>
     <row r="582" spans="25:26">
       <c r="Y582" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="Z582" t="s">
         <v>32</v>
@@ -13213,7 +13219,7 @@
     </row>
     <row r="583" spans="25:26">
       <c r="Y583" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="Z583" t="s">
         <v>32</v>
@@ -13221,7 +13227,7 @@
     </row>
     <row r="584" spans="25:26">
       <c r="Y584" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="Z584" t="s">
         <v>32</v>
@@ -13229,7 +13235,7 @@
     </row>
     <row r="585" spans="25:26">
       <c r="Y585" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="Z585" t="s">
         <v>32</v>
@@ -13237,7 +13243,7 @@
     </row>
     <row r="586" spans="25:26">
       <c r="Y586" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="Z586" t="s">
         <v>32</v>
@@ -13245,7 +13251,7 @@
     </row>
     <row r="587" spans="25:26">
       <c r="Y587" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="Z587" t="s">
         <v>32</v>
@@ -13253,7 +13259,7 @@
     </row>
     <row r="588" spans="25:26">
       <c r="Y588" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="Z588" t="s">
         <v>32</v>
@@ -13261,7 +13267,7 @@
     </row>
     <row r="589" spans="25:26">
       <c r="Y589" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="Z589" t="s">
         <v>32</v>
@@ -13269,7 +13275,7 @@
     </row>
     <row r="590" spans="25:26">
       <c r="Y590" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="Z590" t="s">
         <v>32</v>
@@ -13277,7 +13283,7 @@
     </row>
     <row r="591" spans="25:26">
       <c r="Y591" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="Z591" t="s">
         <v>32</v>
@@ -13285,7 +13291,7 @@
     </row>
     <row r="592" spans="25:26">
       <c r="Y592" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
       <c r="Z592" t="s">
         <v>32</v>
@@ -13293,7 +13299,7 @@
     </row>
     <row r="593" spans="25:26">
       <c r="Y593" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="Z593" t="s">
         <v>32</v>
@@ -13301,7 +13307,7 @@
     </row>
     <row r="594" spans="25:26">
       <c r="Y594" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="Z594" t="s">
         <v>32</v>
@@ -13309,7 +13315,7 @@
     </row>
     <row r="595" spans="25:26">
       <c r="Y595" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="Z595" t="s">
         <v>32</v>
@@ -13317,7 +13323,7 @@
     </row>
     <row r="596" spans="25:26">
       <c r="Y596" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="Z596" t="s">
         <v>32</v>
@@ -13325,7 +13331,7 @@
     </row>
     <row r="597" spans="25:26">
       <c r="Y597" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="Z597" t="s">
         <v>32</v>
@@ -13333,7 +13339,7 @@
     </row>
     <row r="598" spans="25:26">
       <c r="Y598" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="Z598" t="s">
         <v>32</v>
@@ -13341,7 +13347,7 @@
     </row>
     <row r="599" spans="25:26">
       <c r="Y599" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="Z599" t="s">
         <v>32</v>
@@ -13349,7 +13355,7 @@
     </row>
     <row r="600" spans="25:26">
       <c r="Y600" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="Z600" t="s">
         <v>32</v>
@@ -13357,7 +13363,7 @@
     </row>
     <row r="601" spans="25:26">
       <c r="Y601" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="Z601" t="s">
         <v>32</v>
@@ -13365,7 +13371,7 @@
     </row>
     <row r="602" spans="25:26">
       <c r="Y602" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="Z602" t="s">
         <v>32</v>
@@ -13373,7 +13379,7 @@
     </row>
     <row r="603" spans="25:26">
       <c r="Y603" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="Z603" t="s">
         <v>32</v>
@@ -13381,7 +13387,7 @@
     </row>
     <row r="604" spans="25:26">
       <c r="Y604" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="Z604" t="s">
         <v>32</v>
@@ -13389,7 +13395,7 @@
     </row>
     <row r="605" spans="25:26">
       <c r="Y605" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="Z605" t="s">
         <v>32</v>
@@ -13397,7 +13403,7 @@
     </row>
     <row r="606" spans="25:26">
       <c r="Y606" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="Z606" t="s">
         <v>32</v>
@@ -13405,7 +13411,7 @@
     </row>
     <row r="607" spans="25:26">
       <c r="Y607" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="Z607" t="s">
         <v>32</v>
@@ -13413,7 +13419,7 @@
     </row>
     <row r="608" spans="25:26">
       <c r="Y608" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="Z608" t="s">
         <v>32</v>
@@ -13421,7 +13427,7 @@
     </row>
     <row r="609" spans="25:26">
       <c r="Y609" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="Z609" t="s">
         <v>32</v>
@@ -13429,7 +13435,7 @@
     </row>
     <row r="610" spans="25:26">
       <c r="Y610" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="Z610" t="s">
         <v>32</v>
@@ -13437,7 +13443,7 @@
     </row>
     <row r="611" spans="25:26">
       <c r="Y611" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="Z611" t="s">
         <v>32</v>
@@ -13445,7 +13451,7 @@
     </row>
     <row r="612" spans="25:26">
       <c r="Y612" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="Z612" t="s">
         <v>32</v>
@@ -13453,7 +13459,7 @@
     </row>
     <row r="613" spans="25:26">
       <c r="Y613" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="Z613" t="s">
         <v>32</v>
@@ -13461,7 +13467,7 @@
     </row>
     <row r="614" spans="25:26">
       <c r="Y614" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="Z614" t="s">
         <v>32</v>
@@ -13469,7 +13475,7 @@
     </row>
     <row r="615" spans="25:26">
       <c r="Y615" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="Z615" t="s">
         <v>32</v>
@@ -13477,7 +13483,7 @@
     </row>
     <row r="616" spans="25:26">
       <c r="Y616" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
       <c r="Z616" t="s">
         <v>32</v>
@@ -13485,7 +13491,7 @@
     </row>
     <row r="617" spans="25:26">
       <c r="Y617" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="Z617" t="s">
         <v>32</v>
@@ -13493,7 +13499,7 @@
     </row>
     <row r="618" spans="25:26">
       <c r="Y618" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="Z618" t="s">
         <v>32</v>
@@ -13501,7 +13507,7 @@
     </row>
     <row r="619" spans="25:26">
       <c r="Y619" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="Z619" t="s">
         <v>32</v>
@@ -13509,7 +13515,7 @@
     </row>
     <row r="620" spans="25:26">
       <c r="Y620" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="Z620" t="s">
         <v>32</v>
@@ -13517,7 +13523,7 @@
     </row>
     <row r="621" spans="25:26">
       <c r="Y621" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="Z621" t="s">
         <v>32</v>
@@ -13525,7 +13531,7 @@
     </row>
     <row r="622" spans="25:26">
       <c r="Y622" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="Z622" t="s">
         <v>32</v>
@@ -13533,7 +13539,7 @@
     </row>
     <row r="623" spans="25:26">
       <c r="Y623" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
       <c r="Z623" t="s">
         <v>32</v>
@@ -13541,7 +13547,7 @@
     </row>
     <row r="624" spans="25:26">
       <c r="Y624" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="Z624" t="s">
         <v>32</v>
@@ -13549,7 +13555,7 @@
     </row>
     <row r="625" spans="25:26">
       <c r="Y625" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="Z625" t="s">
         <v>32</v>
@@ -13557,7 +13563,7 @@
     </row>
     <row r="626" spans="25:26">
       <c r="Y626" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="Z626" t="s">
         <v>32</v>
@@ -13565,7 +13571,7 @@
     </row>
     <row r="627" spans="25:26">
       <c r="Y627" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="Z627" t="s">
         <v>32</v>
@@ -13573,7 +13579,7 @@
     </row>
     <row r="628" spans="25:26">
       <c r="Y628" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="Z628" t="s">
         <v>32</v>
@@ -13581,7 +13587,7 @@
     </row>
     <row r="629" spans="25:26">
       <c r="Y629" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="Z629" t="s">
         <v>32</v>
@@ -13589,7 +13595,7 @@
     </row>
     <row r="630" spans="25:26">
       <c r="Y630" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="Z630" t="s">
         <v>32</v>
@@ -13597,7 +13603,7 @@
     </row>
     <row r="631" spans="25:26">
       <c r="Y631" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="Z631" t="s">
         <v>32</v>
@@ -13605,7 +13611,7 @@
     </row>
     <row r="632" spans="25:26">
       <c r="Y632" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="Z632" t="s">
         <v>32</v>
@@ -13613,7 +13619,7 @@
     </row>
     <row r="633" spans="25:26">
       <c r="Y633" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="Z633" t="s">
         <v>32</v>
@@ -13621,7 +13627,7 @@
     </row>
     <row r="634" spans="25:26">
       <c r="Y634" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="Z634" t="s">
         <v>32</v>
@@ -13629,7 +13635,7 @@
     </row>
     <row r="635" spans="25:26">
       <c r="Y635" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
       <c r="Z635" t="s">
         <v>32</v>
@@ -13637,7 +13643,7 @@
     </row>
     <row r="636" spans="25:26">
       <c r="Y636" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="Z636" t="s">
         <v>32</v>
@@ -13645,7 +13651,7 @@
     </row>
     <row r="637" spans="25:26">
       <c r="Y637" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
       <c r="Z637" t="s">
         <v>32</v>
@@ -13653,7 +13659,7 @@
     </row>
     <row r="638" spans="25:26">
       <c r="Y638" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
       <c r="Z638" t="s">
         <v>32</v>
@@ -13661,7 +13667,7 @@
     </row>
     <row r="639" spans="25:26">
       <c r="Y639" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="Z639" t="s">
         <v>32</v>
@@ -13669,7 +13675,7 @@
     </row>
     <row r="640" spans="25:26">
       <c r="Y640" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
       <c r="Z640" t="s">
         <v>32</v>
@@ -13677,7 +13683,7 @@
     </row>
     <row r="641" spans="25:26">
       <c r="Y641" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="Z641" t="s">
         <v>32</v>
@@ -13685,7 +13691,7 @@
     </row>
     <row r="642" spans="25:26">
       <c r="Y642" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="Z642" t="s">
         <v>32</v>
@@ -13693,7 +13699,7 @@
     </row>
     <row r="643" spans="25:26">
       <c r="Y643" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="Z643" t="s">
         <v>32</v>
@@ -13701,7 +13707,7 @@
     </row>
     <row r="644" spans="25:26">
       <c r="Y644" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
       <c r="Z644" t="s">
         <v>32</v>
@@ -13709,7 +13715,7 @@
     </row>
     <row r="645" spans="25:26">
       <c r="Y645" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="Z645" t="s">
         <v>32</v>
@@ -13717,7 +13723,7 @@
     </row>
     <row r="646" spans="25:26">
       <c r="Y646" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
       <c r="Z646" t="s">
         <v>32</v>
@@ -13725,7 +13731,7 @@
     </row>
     <row r="647" spans="25:26">
       <c r="Y647" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="Z647" t="s">
         <v>32</v>
@@ -13733,7 +13739,7 @@
     </row>
     <row r="648" spans="25:26">
       <c r="Y648" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="Z648" t="s">
         <v>32</v>
@@ -13741,7 +13747,7 @@
     </row>
     <row r="649" spans="25:26">
       <c r="Y649" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="Z649" t="s">
         <v>32</v>
@@ -13749,7 +13755,7 @@
     </row>
     <row r="650" spans="25:26">
       <c r="Y650" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="Z650" t="s">
         <v>32</v>
@@ -13757,7 +13763,7 @@
     </row>
     <row r="651" spans="25:26">
       <c r="Y651" t="s">
-        <v>1095</v>
+        <v>1106</v>
       </c>
       <c r="Z651" t="s">
         <v>32</v>
@@ -13765,7 +13771,7 @@
     </row>
     <row r="652" spans="25:26">
       <c r="Y652" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
       <c r="Z652" t="s">
         <v>32</v>
@@ -13773,7 +13779,7 @@
     </row>
     <row r="653" spans="25:26">
       <c r="Y653" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="Z653" t="s">
         <v>32</v>
@@ -13781,7 +13787,7 @@
     </row>
     <row r="654" spans="25:26">
       <c r="Y654" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="Z654" t="s">
         <v>32</v>
@@ -13789,7 +13795,7 @@
     </row>
     <row r="655" spans="25:26">
       <c r="Y655" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="Z655" t="s">
         <v>32</v>
@@ -13797,7 +13803,7 @@
     </row>
     <row r="656" spans="25:26">
       <c r="Y656" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="Z656" t="s">
         <v>32</v>
@@ -13805,7 +13811,7 @@
     </row>
     <row r="657" spans="25:26">
       <c r="Y657" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
       <c r="Z657" t="s">
         <v>32</v>
@@ -13813,7 +13819,7 @@
     </row>
     <row r="658" spans="25:26">
       <c r="Y658" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
       <c r="Z658" t="s">
         <v>32</v>
@@ -13821,7 +13827,7 @@
     </row>
     <row r="659" spans="25:26">
       <c r="Y659" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
       <c r="Z659" t="s">
         <v>32</v>
@@ -13829,7 +13835,7 @@
     </row>
     <row r="660" spans="25:26">
       <c r="Y660" t="s">
-        <v>1104</v>
+        <v>1115</v>
       </c>
       <c r="Z660" t="s">
         <v>32</v>
@@ -13837,7 +13843,7 @@
     </row>
     <row r="661" spans="25:26">
       <c r="Y661" t="s">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="Z661" t="s">
         <v>32</v>
@@ -13845,7 +13851,7 @@
     </row>
     <row r="662" spans="25:26">
       <c r="Y662" t="s">
-        <v>1106</v>
+        <v>1117</v>
       </c>
       <c r="Z662" t="s">
         <v>32</v>
@@ -13853,7 +13859,7 @@
     </row>
     <row r="663" spans="25:26">
       <c r="Y663" t="s">
-        <v>1107</v>
+        <v>1118</v>
       </c>
       <c r="Z663" t="s">
         <v>32</v>
@@ -13861,7 +13867,7 @@
     </row>
     <row r="664" spans="25:26">
       <c r="Y664" t="s">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="Z664" t="s">
         <v>32</v>
@@ -13869,7 +13875,7 @@
     </row>
     <row r="665" spans="25:26">
       <c r="Y665" t="s">
-        <v>1109</v>
+        <v>1120</v>
       </c>
       <c r="Z665" t="s">
         <v>32</v>
@@ -13877,7 +13883,7 @@
     </row>
     <row r="666" spans="25:26">
       <c r="Y666" t="s">
-        <v>1110</v>
+        <v>1121</v>
       </c>
       <c r="Z666" t="s">
         <v>32</v>
@@ -13885,7 +13891,7 @@
     </row>
     <row r="667" spans="25:26">
       <c r="Y667" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="Z667" t="s">
         <v>32</v>
@@ -13893,7 +13899,7 @@
     </row>
     <row r="668" spans="25:26">
       <c r="Y668" t="s">
-        <v>1112</v>
+        <v>1123</v>
       </c>
       <c r="Z668" t="s">
         <v>32</v>
@@ -13901,7 +13907,7 @@
     </row>
     <row r="669" spans="25:26">
       <c r="Y669" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
       <c r="Z669" t="s">
         <v>32</v>
@@ -13909,7 +13915,7 @@
     </row>
     <row r="670" spans="25:26">
       <c r="Y670" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
       <c r="Z670" t="s">
         <v>32</v>
@@ -13917,7 +13923,7 @@
     </row>
     <row r="671" spans="25:26">
       <c r="Y671" t="s">
-        <v>1115</v>
+        <v>1126</v>
       </c>
       <c r="Z671" t="s">
         <v>32</v>
@@ -13925,7 +13931,7 @@
     </row>
     <row r="672" spans="25:26">
       <c r="Y672" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="Z672" t="s">
         <v>32</v>
@@ -13933,7 +13939,7 @@
     </row>
     <row r="673" spans="25:26">
       <c r="Y673" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="Z673" t="s">
         <v>32</v>
@@ -13941,7 +13947,7 @@
     </row>
     <row r="674" spans="25:26">
       <c r="Y674" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
       <c r="Z674" t="s">
         <v>32</v>
@@ -13949,7 +13955,7 @@
     </row>
     <row r="675" spans="25:26">
       <c r="Y675" t="s">
-        <v>1119</v>
+        <v>1130</v>
       </c>
       <c r="Z675" t="s">
         <v>32</v>
@@ -13957,7 +13963,7 @@
     </row>
     <row r="676" spans="25:26">
       <c r="Y676" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="Z676" t="s">
         <v>32</v>
@@ -13965,7 +13971,7 @@
     </row>
     <row r="677" spans="25:26">
       <c r="Y677" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="Z677" t="s">
         <v>32</v>
@@ -13973,7 +13979,7 @@
     </row>
     <row r="678" spans="25:26">
       <c r="Y678" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="Z678" t="s">
         <v>32</v>
@@ -13981,7 +13987,7 @@
     </row>
     <row r="679" spans="25:26">
       <c r="Y679" t="s">
-        <v>1123</v>
+        <v>1134</v>
       </c>
       <c r="Z679" t="s">
         <v>32</v>
@@ -13989,7 +13995,7 @@
     </row>
     <row r="680" spans="25:26">
       <c r="Y680" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="Z680" t="s">
         <v>32</v>
@@ -13997,7 +14003,7 @@
     </row>
     <row r="681" spans="25:26">
       <c r="Y681" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
       <c r="Z681" t="s">
         <v>32</v>
@@ -14005,7 +14011,7 @@
     </row>
     <row r="682" spans="25:26">
       <c r="Y682" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
       <c r="Z682" t="s">
         <v>32</v>
@@ -14013,7 +14019,7 @@
     </row>
     <row r="683" spans="25:26">
       <c r="Y683" t="s">
-        <v>1127</v>
+        <v>1138</v>
       </c>
       <c r="Z683" t="s">
         <v>32</v>
@@ -14021,7 +14027,7 @@
     </row>
     <row r="684" spans="25:26">
       <c r="Y684" t="s">
-        <v>1128</v>
+        <v>1139</v>
       </c>
       <c r="Z684" t="s">
         <v>32</v>
@@ -14029,7 +14035,7 @@
     </row>
     <row r="685" spans="25:26">
       <c r="Y685" t="s">
-        <v>1129</v>
+        <v>1140</v>
       </c>
       <c r="Z685" t="s">
         <v>32</v>
@@ -14037,7 +14043,7 @@
     </row>
     <row r="686" spans="25:26">
       <c r="Y686" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="Z686" t="s">
         <v>32</v>
@@ -14045,7 +14051,7 @@
     </row>
     <row r="687" spans="25:26">
       <c r="Y687" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="Z687" t="s">
         <v>32</v>
@@ -14053,7 +14059,7 @@
     </row>
     <row r="688" spans="25:26">
       <c r="Y688" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
       <c r="Z688" t="s">
         <v>32</v>
@@ -14061,7 +14067,7 @@
     </row>
     <row r="689" spans="25:26">
       <c r="Y689" t="s">
-        <v>1133</v>
+        <v>1144</v>
       </c>
       <c r="Z689" t="s">
         <v>32</v>
@@ -14069,7 +14075,7 @@
     </row>
     <row r="690" spans="25:26">
       <c r="Y690" t="s">
-        <v>1134</v>
+        <v>1145</v>
       </c>
       <c r="Z690" t="s">
         <v>32</v>
@@ -14077,7 +14083,7 @@
     </row>
     <row r="691" spans="25:26">
       <c r="Y691" t="s">
-        <v>1135</v>
+        <v>1146</v>
       </c>
       <c r="Z691" t="s">
         <v>32</v>
@@ -14085,7 +14091,7 @@
     </row>
     <row r="692" spans="25:26">
       <c r="Y692" t="s">
-        <v>1135</v>
+        <v>1147</v>
       </c>
       <c r="Z692" t="s">
         <v>32</v>
@@ -14093,7 +14099,7 @@
     </row>
     <row r="693" spans="25:26">
       <c r="Y693" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
       <c r="Z693" t="s">
         <v>32</v>
@@ -14101,7 +14107,7 @@
     </row>
     <row r="694" spans="25:26">
       <c r="Y694" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="Z694" t="s">
         <v>32</v>
@@ -14109,7 +14115,7 @@
     </row>
     <row r="695" spans="25:26">
       <c r="Y695" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="Z695" t="s">
         <v>32</v>
@@ -14117,7 +14123,7 @@
     </row>
     <row r="696" spans="25:26">
       <c r="Y696" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
       <c r="Z696" t="s">
         <v>32</v>
@@ -14125,7 +14131,7 @@
     </row>
     <row r="697" spans="25:26">
       <c r="Y697" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="Z697" t="s">
         <v>32</v>
@@ -14133,7 +14139,7 @@
     </row>
     <row r="698" spans="25:26">
       <c r="Y698" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="Z698" t="s">
         <v>32</v>
@@ -14141,7 +14147,7 @@
     </row>
     <row r="699" spans="25:26">
       <c r="Y699" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="Z699" t="s">
         <v>32</v>
@@ -14149,7 +14155,7 @@
     </row>
     <row r="700" spans="25:26">
       <c r="Y700" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
       <c r="Z700" t="s">
         <v>32</v>
@@ -14157,7 +14163,7 @@
     </row>
     <row r="701" spans="25:26">
       <c r="Y701" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="Z701" t="s">
         <v>32</v>
@@ -14165,7 +14171,7 @@
     </row>
     <row r="702" spans="25:26">
       <c r="Y702" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="Z702" t="s">
         <v>32</v>
@@ -14173,7 +14179,7 @@
     </row>
     <row r="703" spans="25:26">
       <c r="Y703" t="s">
-        <v>1146</v>
+        <v>1158</v>
       </c>
       <c r="Z703" t="s">
         <v>32</v>
@@ -14181,7 +14187,7 @@
     </row>
     <row r="704" spans="25:26">
       <c r="Y704" t="s">
-        <v>1147</v>
+        <v>1159</v>
       </c>
       <c r="Z704" t="s">
         <v>32</v>
@@ -14189,7 +14195,7 @@
     </row>
     <row r="705" spans="25:26">
       <c r="Y705" t="s">
-        <v>1148</v>
+        <v>1160</v>
       </c>
       <c r="Z705" t="s">
         <v>32</v>
@@ -14197,7 +14203,7 @@
     </row>
     <row r="706" spans="25:26">
       <c r="Y706" t="s">
-        <v>1149</v>
+        <v>1161</v>
       </c>
       <c r="Z706" t="s">
         <v>32</v>
@@ -14205,7 +14211,7 @@
     </row>
     <row r="707" spans="25:26">
       <c r="Y707" t="s">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="Z707" t="s">
         <v>32</v>
@@ -14213,7 +14219,7 @@
     </row>
     <row r="708" spans="25:26">
       <c r="Y708" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
       <c r="Z708" t="s">
         <v>32</v>
@@ -14221,7 +14227,7 @@
     </row>
     <row r="709" spans="25:26">
       <c r="Y709" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="Z709" t="s">
         <v>32</v>
@@ -14229,7 +14235,7 @@
     </row>
     <row r="710" spans="25:26">
       <c r="Y710" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="Z710" t="s">
         <v>32</v>
@@ -14237,7 +14243,7 @@
     </row>
     <row r="711" spans="25:26">
       <c r="Y711" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="Z711" t="s">
         <v>32</v>
@@ -14245,7 +14251,7 @@
     </row>
     <row r="712" spans="25:26">
       <c r="Y712" t="s">
-        <v>1155</v>
+        <v>1167</v>
       </c>
       <c r="Z712" t="s">
         <v>32</v>
@@ -14253,7 +14259,7 @@
     </row>
     <row r="713" spans="25:26">
       <c r="Y713" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
       <c r="Z713" t="s">
         <v>32</v>
@@ -14261,7 +14267,7 @@
     </row>
     <row r="714" spans="25:26">
       <c r="Y714" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
       <c r="Z714" t="s">
         <v>32</v>
@@ -14269,7 +14275,7 @@
     </row>
     <row r="715" spans="25:26">
       <c r="Y715" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
       <c r="Z715" t="s">
         <v>32</v>
@@ -14277,7 +14283,7 @@
     </row>
     <row r="716" spans="25:26">
       <c r="Y716" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="Z716" t="s">
         <v>32</v>
@@ -14285,7 +14291,7 @@
     </row>
     <row r="717" spans="25:26">
       <c r="Y717" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="Z717" t="s">
         <v>32</v>
@@ -14293,7 +14299,7 @@
     </row>
     <row r="718" spans="25:26">
       <c r="Y718" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
       <c r="Z718" t="s">
         <v>32</v>
@@ -14301,7 +14307,7 @@
     </row>
     <row r="719" spans="25:26">
       <c r="Y719" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="Z719" t="s">
         <v>32</v>
@@ -14309,7 +14315,7 @@
     </row>
     <row r="720" spans="25:26">
       <c r="Y720" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
       <c r="Z720" t="s">
         <v>32</v>
@@ -14317,7 +14323,7 @@
     </row>
     <row r="721" spans="25:26">
       <c r="Y721" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="Z721" t="s">
         <v>32</v>
@@ -14325,7 +14331,7 @@
     </row>
     <row r="722" spans="25:26">
       <c r="Y722" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="Z722" t="s">
         <v>32</v>
@@ -14333,7 +14339,7 @@
     </row>
     <row r="723" spans="25:26">
       <c r="Y723" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
       <c r="Z723" t="s">
         <v>32</v>
@@ -14341,7 +14347,7 @@
     </row>
     <row r="724" spans="25:26">
       <c r="Y724" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="Z724" t="s">
         <v>32</v>
@@ -14349,7 +14355,7 @@
     </row>
     <row r="725" spans="25:26">
       <c r="Y725" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="Z725" t="s">
         <v>32</v>
@@ -14357,7 +14363,7 @@
     </row>
     <row r="726" spans="25:26">
       <c r="Y726" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="Z726" t="s">
         <v>32</v>
@@ -14365,7 +14371,7 @@
     </row>
     <row r="727" spans="25:26">
       <c r="Y727" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="Z727" t="s">
         <v>32</v>
@@ -14373,7 +14379,7 @@
     </row>
     <row r="728" spans="25:26">
       <c r="Y728" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
       <c r="Z728" t="s">
         <v>32</v>
@@ -14381,7 +14387,7 @@
     </row>
     <row r="729" spans="25:26">
       <c r="Y729" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
       <c r="Z729" t="s">
         <v>32</v>
@@ -14389,7 +14395,7 @@
     </row>
     <row r="730" spans="25:26">
       <c r="Y730" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
       <c r="Z730" t="s">
         <v>32</v>
@@ -14397,7 +14403,7 @@
     </row>
     <row r="731" spans="25:26">
       <c r="Y731" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="Z731" t="s">
         <v>32</v>
@@ -14405,7 +14411,7 @@
     </row>
     <row r="732" spans="25:26">
       <c r="Y732" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
       <c r="Z732" t="s">
         <v>32</v>
@@ -14413,7 +14419,7 @@
     </row>
     <row r="733" spans="25:26">
       <c r="Y733" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
       <c r="Z733" t="s">
         <v>32</v>
@@ -14421,7 +14427,7 @@
     </row>
     <row r="734" spans="25:26">
       <c r="Y734" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
       <c r="Z734" t="s">
         <v>32</v>
@@ -14429,7 +14435,7 @@
     </row>
     <row r="735" spans="25:26">
       <c r="Y735" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
       <c r="Z735" t="s">
         <v>32</v>
@@ -14437,7 +14443,7 @@
     </row>
     <row r="736" spans="25:26">
       <c r="Y736" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
       <c r="Z736" t="s">
         <v>32</v>
@@ -14445,7 +14451,7 @@
     </row>
     <row r="737" spans="25:26">
       <c r="Y737" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
       <c r="Z737" t="s">
         <v>32</v>
@@ -14453,7 +14459,7 @@
     </row>
     <row r="738" spans="25:26">
       <c r="Y738" t="s">
-        <v>1180</v>
+        <v>1193</v>
       </c>
       <c r="Z738" t="s">
         <v>32</v>
@@ -14461,7 +14467,7 @@
     </row>
     <row r="739" spans="25:26">
       <c r="Y739" t="s">
-        <v>1181</v>
+        <v>1194</v>
       </c>
       <c r="Z739" t="s">
         <v>32</v>
@@ -14469,7 +14475,7 @@
     </row>
     <row r="740" spans="25:26">
       <c r="Y740" t="s">
-        <v>1182</v>
+        <v>1195</v>
       </c>
       <c r="Z740" t="s">
         <v>32</v>
@@ -14477,7 +14483,7 @@
     </row>
     <row r="741" spans="25:26">
       <c r="Y741" t="s">
-        <v>1183</v>
+        <v>1196</v>
       </c>
       <c r="Z741" t="s">
         <v>32</v>
@@ -14485,7 +14491,7 @@
     </row>
     <row r="742" spans="25:26">
       <c r="Y742" t="s">
-        <v>1184</v>
+        <v>1197</v>
       </c>
       <c r="Z742" t="s">
         <v>32</v>
@@ -14493,7 +14499,7 @@
     </row>
     <row r="743" spans="25:26">
       <c r="Y743" t="s">
-        <v>1185</v>
+        <v>1198</v>
       </c>
       <c r="Z743" t="s">
         <v>32</v>
@@ -14501,7 +14507,7 @@
     </row>
     <row r="744" spans="25:26">
       <c r="Y744" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
       <c r="Z744" t="s">
         <v>32</v>
@@ -14509,7 +14515,7 @@
     </row>
     <row r="745" spans="25:26">
       <c r="Y745" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
       <c r="Z745" t="s">
         <v>32</v>
@@ -14517,7 +14523,7 @@
     </row>
     <row r="746" spans="25:26">
       <c r="Y746" t="s">
-        <v>1188</v>
+        <v>1201</v>
       </c>
       <c r="Z746" t="s">
         <v>32</v>
@@ -14525,7 +14531,7 @@
     </row>
     <row r="747" spans="25:26">
       <c r="Y747" t="s">
-        <v>1189</v>
+        <v>1202</v>
       </c>
       <c r="Z747" t="s">
         <v>32</v>
@@ -14533,7 +14539,7 @@
     </row>
     <row r="748" spans="25:26">
       <c r="Y748" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
       <c r="Z748" t="s">
         <v>32</v>
@@ -14541,7 +14547,7 @@
     </row>
     <row r="749" spans="25:26">
       <c r="Y749" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
       <c r="Z749" t="s">
         <v>32</v>
@@ -14549,7 +14555,7 @@
     </row>
     <row r="750" spans="25:26">
       <c r="Y750" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
       <c r="Z750" t="s">
         <v>32</v>
@@ -14557,7 +14563,7 @@
     </row>
     <row r="751" spans="25:26">
       <c r="Y751" t="s">
-        <v>1193</v>
+        <v>1206</v>
       </c>
       <c r="Z751" t="s">
         <v>32</v>
@@ -14565,7 +14571,7 @@
     </row>
     <row r="752" spans="25:26">
       <c r="Y752" t="s">
-        <v>1194</v>
+        <v>1207</v>
       </c>
       <c r="Z752" t="s">
         <v>32</v>
@@ -14573,7 +14579,7 @@
     </row>
     <row r="753" spans="25:26">
       <c r="Y753" t="s">
-        <v>1195</v>
+        <v>1208</v>
       </c>
       <c r="Z753" t="s">
         <v>32</v>
@@ -14581,7 +14587,7 @@
     </row>
     <row r="754" spans="25:26">
       <c r="Y754" t="s">
-        <v>1196</v>
+        <v>1209</v>
       </c>
       <c r="Z754" t="s">
         <v>32</v>
@@ -14589,7 +14595,7 @@
     </row>
     <row r="755" spans="25:26">
       <c r="Y755" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
       <c r="Z755" t="s">
         <v>32</v>
@@ -14597,7 +14603,7 @@
     </row>
     <row r="756" spans="25:26">
       <c r="Y756" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
       <c r="Z756" t="s">
         <v>32</v>
@@ -14605,7 +14611,7 @@
     </row>
     <row r="757" spans="25:26">
       <c r="Y757" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
       <c r="Z757" t="s">
         <v>32</v>
@@ -14613,7 +14619,7 @@
     </row>
     <row r="758" spans="25:26">
       <c r="Y758" t="s">
-        <v>1200</v>
+        <v>1213</v>
       </c>
       <c r="Z758" t="s">
         <v>32</v>
@@ -14621,7 +14627,7 @@
     </row>
     <row r="759" spans="25:26">
       <c r="Y759" t="s">
-        <v>1201</v>
+        <v>1214</v>
       </c>
       <c r="Z759" t="s">
         <v>32</v>
@@ -14629,7 +14635,7 @@
     </row>
     <row r="760" spans="25:26">
       <c r="Y760" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
       <c r="Z760" t="s">
         <v>32</v>
@@ -14637,7 +14643,7 @@
     </row>
     <row r="761" spans="25:26">
       <c r="Y761" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
       <c r="Z761" t="s">
         <v>32</v>
@@ -14645,7 +14651,7 @@
     </row>
     <row r="762" spans="25:26">
       <c r="Y762" t="s">
-        <v>558</v>
+        <v>1217</v>
       </c>
       <c r="Z762" t="s">
         <v>32</v>
@@ -14653,7 +14659,7 @@
     </row>
     <row r="763" spans="25:26">
       <c r="Y763" t="s">
-        <v>1204</v>
+        <v>1218</v>
       </c>
       <c r="Z763" t="s">
         <v>32</v>
@@ -14661,7 +14667,7 @@
     </row>
     <row r="764" spans="25:26">
       <c r="Y764" t="s">
-        <v>1205</v>
+        <v>1219</v>
       </c>
       <c r="Z764" t="s">
         <v>32</v>
@@ -14669,7 +14675,7 @@
     </row>
     <row r="765" spans="25:26">
       <c r="Y765" t="s">
-        <v>1206</v>
+        <v>1220</v>
       </c>
       <c r="Z765" t="s">
         <v>32</v>
@@ -14677,7 +14683,7 @@
     </row>
     <row r="766" spans="25:26">
       <c r="Y766" t="s">
-        <v>1207</v>
+        <v>1221</v>
       </c>
       <c r="Z766" t="s">
         <v>32</v>
@@ -14685,7 +14691,7 @@
     </row>
     <row r="767" spans="25:26">
       <c r="Y767" t="s">
-        <v>1208</v>
+        <v>1222</v>
       </c>
       <c r="Z767" t="s">
         <v>32</v>
@@ -14693,7 +14699,7 @@
     </row>
     <row r="768" spans="25:26">
       <c r="Y768" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="Z768" t="s">
         <v>32</v>
@@ -14701,7 +14707,7 @@
     </row>
     <row r="769" spans="25:26">
       <c r="Y769" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="Z769" t="s">
         <v>32</v>
@@ -14709,7 +14715,7 @@
     </row>
     <row r="770" spans="25:26">
       <c r="Y770" t="s">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="Z770" t="s">
         <v>32</v>
@@ -14717,7 +14723,7 @@
     </row>
     <row r="771" spans="25:26">
       <c r="Y771" t="s">
-        <v>1212</v>
+        <v>1226</v>
       </c>
       <c r="Z771" t="s">
         <v>32</v>
@@ -14725,7 +14731,7 @@
     </row>
     <row r="772" spans="25:26">
       <c r="Y772" t="s">
-        <v>1213</v>
+        <v>1227</v>
       </c>
       <c r="Z772" t="s">
         <v>32</v>
@@ -14733,7 +14739,7 @@
     </row>
     <row r="773" spans="25:26">
       <c r="Y773" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="Z773" t="s">
         <v>32</v>
@@ -14741,7 +14747,7 @@
     </row>
     <row r="774" spans="25:26">
       <c r="Y774" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="Z774" t="s">
         <v>32</v>
@@ -14749,7 +14755,7 @@
     </row>
     <row r="775" spans="25:26">
       <c r="Y775" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="Z775" t="s">
         <v>32</v>
@@ -14757,7 +14763,7 @@
     </row>
     <row r="776" spans="25:26">
       <c r="Y776" t="s">
-        <v>1217</v>
+        <v>1231</v>
       </c>
       <c r="Z776" t="s">
         <v>32</v>
@@ -14765,7 +14771,7 @@
     </row>
     <row r="777" spans="25:26">
       <c r="Y777" t="s">
-        <v>1218</v>
+        <v>1232</v>
       </c>
       <c r="Z777" t="s">
         <v>32</v>
@@ -14773,7 +14779,7 @@
     </row>
     <row r="778" spans="25:26">
       <c r="Y778" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="Z778" t="s">
         <v>32</v>
@@ -14781,7 +14787,7 @@
     </row>
     <row r="779" spans="25:26">
       <c r="Y779" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="Z779" t="s">
         <v>32</v>
@@ -14789,7 +14795,7 @@
     </row>
     <row r="780" spans="25:26">
       <c r="Y780" t="s">
-        <v>1221</v>
+        <v>1235</v>
       </c>
       <c r="Z780" t="s">
         <v>32</v>
@@ -14797,7 +14803,7 @@
     </row>
     <row r="781" spans="25:26">
       <c r="Y781" t="s">
-        <v>1222</v>
+        <v>1236</v>
       </c>
       <c r="Z781" t="s">
         <v>32</v>
@@ -14805,7 +14811,7 @@
     </row>
     <row r="782" spans="25:26">
       <c r="Y782" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="Z782" t="s">
         <v>32</v>
@@ -14813,7 +14819,7 @@
     </row>
     <row r="783" spans="25:26">
       <c r="Y783" t="s">
-        <v>1224</v>
+        <v>1238</v>
       </c>
       <c r="Z783" t="s">
         <v>32</v>
@@ -14821,7 +14827,7 @@
     </row>
     <row r="784" spans="25:26">
       <c r="Y784" t="s">
-        <v>1225</v>
+        <v>1239</v>
       </c>
       <c r="Z784" t="s">
         <v>32</v>
@@ -14829,7 +14835,7 @@
     </row>
     <row r="785" spans="25:26">
       <c r="Y785" t="s">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="Z785" t="s">
         <v>32</v>
@@ -14837,7 +14843,7 @@
     </row>
     <row r="786" spans="25:26">
       <c r="Y786" t="s">
-        <v>1227</v>
+        <v>1241</v>
       </c>
       <c r="Z786" t="s">
         <v>32</v>
@@ -14845,7 +14851,7 @@
     </row>
     <row r="787" spans="25:26">
       <c r="Y787" t="s">
-        <v>1228</v>
+        <v>1242</v>
       </c>
       <c r="Z787" t="s">
         <v>32</v>
@@ -14853,7 +14859,7 @@
     </row>
     <row r="788" spans="25:26">
       <c r="Y788" t="s">
-        <v>1229</v>
+        <v>1243</v>
       </c>
       <c r="Z788" t="s">
         <v>32</v>
@@ -14861,7 +14867,7 @@
     </row>
     <row r="789" spans="25:26">
       <c r="Y789" t="s">
-        <v>1230</v>
+        <v>1244</v>
       </c>
       <c r="Z789" t="s">
         <v>32</v>
@@ -14869,7 +14875,7 @@
     </row>
     <row r="790" spans="25:26">
       <c r="Y790" t="s">
-        <v>1231</v>
+        <v>1245</v>
       </c>
       <c r="Z790" t="s">
         <v>32</v>
@@ -14877,7 +14883,7 @@
     </row>
     <row r="791" spans="25:26">
       <c r="Y791" t="s">
-        <v>1232</v>
+        <v>1246</v>
       </c>
       <c r="Z791" t="s">
         <v>32</v>
@@ -14885,7 +14891,7 @@
     </row>
     <row r="792" spans="25:26">
       <c r="Y792" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="Z792" t="s">
         <v>32</v>
@@ -14893,7 +14899,7 @@
     </row>
     <row r="793" spans="25:26">
       <c r="Y793" t="s">
-        <v>1234</v>
+        <v>1248</v>
       </c>
       <c r="Z793" t="s">
         <v>32</v>
@@ -14901,7 +14907,7 @@
     </row>
     <row r="794" spans="25:26">
       <c r="Y794" t="s">
-        <v>1235</v>
+        <v>1249</v>
       </c>
       <c r="Z794" t="s">
         <v>32</v>
@@ -14909,7 +14915,7 @@
     </row>
     <row r="795" spans="25:26">
       <c r="Y795" t="s">
-        <v>1236</v>
+        <v>1250</v>
       </c>
       <c r="Z795" t="s">
         <v>32</v>
@@ -14917,7 +14923,7 @@
     </row>
     <row r="796" spans="25:26">
       <c r="Y796" t="s">
-        <v>1237</v>
+        <v>1251</v>
       </c>
       <c r="Z796" t="s">
         <v>32</v>
@@ -14925,7 +14931,7 @@
     </row>
     <row r="797" spans="25:26">
       <c r="Y797" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
       <c r="Z797" t="s">
         <v>32</v>
@@ -14933,7 +14939,7 @@
     </row>
     <row r="798" spans="25:26">
       <c r="Y798" t="s">
-        <v>1239</v>
+        <v>1253</v>
       </c>
       <c r="Z798" t="s">
         <v>32</v>
@@ -14941,7 +14947,7 @@
     </row>
     <row r="799" spans="25:26">
       <c r="Y799" t="s">
-        <v>1240</v>
+        <v>1254</v>
       </c>
       <c r="Z799" t="s">
         <v>32</v>
@@ -14949,7 +14955,7 @@
     </row>
     <row r="800" spans="25:26">
       <c r="Y800" t="s">
-        <v>1241</v>
+        <v>1255</v>
       </c>
       <c r="Z800" t="s">
         <v>32</v>
@@ -14957,7 +14963,7 @@
     </row>
     <row r="801" spans="25:26">
       <c r="Y801" t="s">
-        <v>1242</v>
+        <v>1256</v>
       </c>
       <c r="Z801" t="s">
         <v>32</v>
@@ -14965,7 +14971,7 @@
     </row>
     <row r="802" spans="25:26">
       <c r="Y802" t="s">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="Z802" t="s">
         <v>32</v>
@@ -14973,7 +14979,7 @@
     </row>
     <row r="803" spans="25:26">
       <c r="Y803" t="s">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="Z803" t="s">
         <v>32</v>
@@ -14981,7 +14987,7 @@
     </row>
     <row r="804" spans="25:26">
       <c r="Y804" t="s">
-        <v>1245</v>
+        <v>1259</v>
       </c>
       <c r="Z804" t="s">
         <v>32</v>
@@ -14989,7 +14995,7 @@
     </row>
     <row r="805" spans="25:26">
       <c r="Y805" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="Z805" t="s">
         <v>32</v>
@@ -14997,7 +15003,7 @@
     </row>
     <row r="806" spans="25:26">
       <c r="Y806" t="s">
-        <v>1247</v>
+        <v>1261</v>
       </c>
       <c r="Z806" t="s">
         <v>32</v>
@@ -15005,7 +15011,7 @@
     </row>
     <row r="807" spans="25:26">
       <c r="Y807" t="s">
-        <v>1248</v>
+        <v>1262</v>
       </c>
       <c r="Z807" t="s">
         <v>32</v>
@@ -15013,7 +15019,7 @@
     </row>
     <row r="808" spans="25:26">
       <c r="Y808" t="s">
-        <v>1249</v>
+        <v>1263</v>
       </c>
       <c r="Z808" t="s">
         <v>32</v>
@@ -15021,7 +15027,7 @@
     </row>
     <row r="809" spans="25:26">
       <c r="Y809" t="s">
-        <v>1250</v>
+        <v>1264</v>
       </c>
       <c r="Z809" t="s">
         <v>32</v>
@@ -15029,7 +15035,7 @@
     </row>
     <row r="810" spans="25:26">
       <c r="Y810" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="Z810" t="s">
         <v>32</v>
@@ -15037,7 +15043,7 @@
     </row>
     <row r="811" spans="25:26">
       <c r="Y811" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="Z811" t="s">
         <v>32</v>
@@ -15045,7 +15051,7 @@
     </row>
     <row r="812" spans="25:26">
       <c r="Y812" t="s">
-        <v>1253</v>
+        <v>1267</v>
       </c>
       <c r="Z812" t="s">
         <v>32</v>
@@ -15053,7 +15059,7 @@
     </row>
     <row r="813" spans="25:26">
       <c r="Y813" t="s">
-        <v>1254</v>
+        <v>1268</v>
       </c>
       <c r="Z813" t="s">
         <v>32</v>
@@ -15061,7 +15067,7 @@
     </row>
     <row r="814" spans="25:26">
       <c r="Y814" t="s">
-        <v>1255</v>
+        <v>1269</v>
       </c>
       <c r="Z814" t="s">
         <v>32</v>
@@ -15069,7 +15075,7 @@
     </row>
     <row r="815" spans="25:26">
       <c r="Y815" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="Z815" t="s">
         <v>32</v>
@@ -15077,7 +15083,7 @@
     </row>
     <row r="816" spans="25:26">
       <c r="Y816" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="Z816" t="s">
         <v>32</v>
@@ -15085,7 +15091,7 @@
     </row>
     <row r="817" spans="25:26">
       <c r="Y817" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
       <c r="Z817" t="s">
         <v>32</v>
@@ -15093,7 +15099,7 @@
     </row>
     <row r="818" spans="25:26">
       <c r="Y818" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
       <c r="Z818" t="s">
         <v>32</v>
@@ -15101,7 +15107,7 @@
     </row>
     <row r="819" spans="25:26">
       <c r="Y819" t="s">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="Z819" t="s">
         <v>32</v>
@@ -15109,7 +15115,7 @@
     </row>
     <row r="820" spans="25:26">
       <c r="Y820" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="Z820" t="s">
         <v>32</v>
@@ -15117,7 +15123,7 @@
     </row>
     <row r="821" spans="25:26">
       <c r="Y821" t="s">
-        <v>1262</v>
+        <v>1276</v>
       </c>
       <c r="Z821" t="s">
         <v>32</v>
@@ -15125,7 +15131,7 @@
     </row>
     <row r="822" spans="25:26">
       <c r="Y822" t="s">
-        <v>1263</v>
+        <v>1277</v>
       </c>
       <c r="Z822" t="s">
         <v>32</v>
@@ -15133,7 +15139,7 @@
     </row>
     <row r="823" spans="25:26">
       <c r="Y823" t="s">
-        <v>1264</v>
+        <v>1278</v>
       </c>
       <c r="Z823" t="s">
         <v>32</v>
@@ -15141,7 +15147,7 @@
     </row>
     <row r="824" spans="25:26">
       <c r="Y824" t="s">
-        <v>1265</v>
+        <v>1279</v>
       </c>
       <c r="Z824" t="s">
         <v>32</v>
@@ -15149,7 +15155,7 @@
     </row>
     <row r="825" spans="25:26">
       <c r="Y825" t="s">
-        <v>1266</v>
+        <v>1280</v>
       </c>
       <c r="Z825" t="s">
         <v>32</v>
@@ -15157,7 +15163,7 @@
     </row>
     <row r="826" spans="25:26">
       <c r="Y826" t="s">
-        <v>1267</v>
+        <v>1281</v>
       </c>
       <c r="Z826" t="s">
         <v>32</v>
@@ -15165,7 +15171,7 @@
     </row>
     <row r="827" spans="25:26">
       <c r="Y827" t="s">
-        <v>1268</v>
+        <v>1282</v>
       </c>
       <c r="Z827" t="s">
         <v>32</v>
@@ -15173,7 +15179,7 @@
     </row>
     <row r="828" spans="25:26">
       <c r="Y828" t="s">
-        <v>1269</v>
+        <v>1283</v>
       </c>
       <c r="Z828" t="s">
         <v>32</v>
@@ -15181,7 +15187,7 @@
     </row>
     <row r="829" spans="25:26">
       <c r="Y829" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="Z829" t="s">
         <v>32</v>
@@ -15189,7 +15195,7 @@
     </row>
     <row r="830" spans="25:26">
       <c r="Y830" t="s">
-        <v>1271</v>
+        <v>1285</v>
       </c>
       <c r="Z830" t="s">
         <v>32</v>
@@ -15197,7 +15203,7 @@
     </row>
     <row r="831" spans="25:26">
       <c r="Y831" t="s">
-        <v>1272</v>
+        <v>1286</v>
       </c>
       <c r="Z831" t="s">
         <v>32</v>
@@ -15205,7 +15211,7 @@
     </row>
     <row r="832" spans="25:26">
       <c r="Y832" t="s">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="Z832" t="s">
         <v>32</v>
@@ -15213,7 +15219,7 @@
     </row>
     <row r="833" spans="25:26">
       <c r="Y833" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
       <c r="Z833" t="s">
         <v>32</v>
@@ -15221,7 +15227,7 @@
     </row>
     <row r="834" spans="25:26">
       <c r="Y834" t="s">
-        <v>1275</v>
+        <v>1289</v>
       </c>
       <c r="Z834" t="s">
         <v>32</v>
@@ -15229,7 +15235,7 @@
     </row>
     <row r="835" spans="25:26">
       <c r="Y835" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="Z835" t="s">
         <v>32</v>
@@ -15237,7 +15243,7 @@
     </row>
     <row r="836" spans="25:26">
       <c r="Y836" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
       <c r="Z836" t="s">
         <v>32</v>
@@ -15245,7 +15251,7 @@
     </row>
     <row r="837" spans="25:26">
       <c r="Y837" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
       <c r="Z837" t="s">
         <v>32</v>
@@ -15253,7 +15259,7 @@
     </row>
     <row r="838" spans="25:26">
       <c r="Y838" t="s">
-        <v>1279</v>
+        <v>1293</v>
       </c>
       <c r="Z838" t="s">
         <v>32</v>
@@ -15261,7 +15267,7 @@
     </row>
     <row r="839" spans="25:26">
       <c r="Y839" t="s">
-        <v>1280</v>
+        <v>1294</v>
       </c>
       <c r="Z839" t="s">
         <v>32</v>
@@ -15269,7 +15275,7 @@
     </row>
     <row r="840" spans="25:26">
       <c r="Y840" t="s">
-        <v>1281</v>
+        <v>1295</v>
       </c>
       <c r="Z840" t="s">
         <v>32</v>
@@ -15277,7 +15283,7 @@
     </row>
     <row r="841" spans="25:26">
       <c r="Y841" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="Z841" t="s">
         <v>32</v>
@@ -15285,7 +15291,7 @@
     </row>
     <row r="842" spans="25:26">
       <c r="Y842" t="s">
-        <v>1283</v>
+        <v>1297</v>
       </c>
       <c r="Z842" t="s">
         <v>32</v>
@@ -15293,7 +15299,7 @@
     </row>
     <row r="843" spans="25:26">
       <c r="Y843" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="Z843" t="s">
         <v>32</v>
@@ -15301,7 +15307,7 @@
     </row>
     <row r="844" spans="25:26">
       <c r="Y844" t="s">
-        <v>1285</v>
+        <v>1299</v>
       </c>
       <c r="Z844" t="s">
         <v>32</v>
@@ -15309,7 +15315,7 @@
     </row>
     <row r="845" spans="25:26">
       <c r="Y845" t="s">
-        <v>1286</v>
+        <v>1300</v>
       </c>
       <c r="Z845" t="s">
         <v>32</v>
@@ -15317,7 +15323,7 @@
     </row>
     <row r="846" spans="25:26">
       <c r="Y846" t="s">
-        <v>1287</v>
+        <v>1301</v>
       </c>
       <c r="Z846" t="s">
         <v>32</v>
@@ -15325,7 +15331,7 @@
     </row>
     <row r="847" spans="25:26">
       <c r="Y847" t="s">
-        <v>1288</v>
+        <v>1302</v>
       </c>
       <c r="Z847" t="s">
         <v>32</v>
@@ -15333,7 +15339,7 @@
     </row>
     <row r="848" spans="25:26">
       <c r="Y848" t="s">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="Z848" t="s">
         <v>32</v>
@@ -15341,7 +15347,7 @@
     </row>
     <row r="849" spans="25:26">
       <c r="Y849" t="s">
-        <v>1290</v>
+        <v>1304</v>
       </c>
       <c r="Z849" t="s">
         <v>32</v>
@@ -15349,7 +15355,7 @@
     </row>
     <row r="850" spans="25:26">
       <c r="Y850" t="s">
-        <v>1291</v>
+        <v>1305</v>
       </c>
       <c r="Z850" t="s">
         <v>32</v>
@@ -15357,7 +15363,7 @@
     </row>
     <row r="851" spans="25:26">
       <c r="Y851" t="s">
-        <v>1292</v>
+        <v>1306</v>
       </c>
       <c r="Z851" t="s">
         <v>32</v>
@@ -15365,7 +15371,7 @@
     </row>
     <row r="852" spans="25:26">
       <c r="Y852" t="s">
-        <v>1293</v>
+        <v>1307</v>
       </c>
       <c r="Z852" t="s">
         <v>32</v>
@@ -15373,7 +15379,7 @@
     </row>
     <row r="853" spans="25:26">
       <c r="Y853" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
       <c r="Z853" t="s">
         <v>32</v>
@@ -15381,7 +15387,7 @@
     </row>
     <row r="854" spans="25:26">
       <c r="Y854" t="s">
-        <v>1295</v>
+        <v>1309</v>
       </c>
       <c r="Z854" t="s">
         <v>32</v>
@@ -15389,7 +15395,7 @@
     </row>
     <row r="855" spans="25:26">
       <c r="Y855" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
       <c r="Z855" t="s">
         <v>32</v>
@@ -15397,7 +15403,7 @@
     </row>
     <row r="856" spans="25:26">
       <c r="Y856" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
       <c r="Z856" t="s">
         <v>32</v>
@@ -15405,7 +15411,7 @@
     </row>
     <row r="857" spans="25:26">
       <c r="Y857" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="Z857" t="s">
         <v>32</v>
@@ -15413,7 +15419,7 @@
     </row>
     <row r="858" spans="25:26">
       <c r="Y858" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="Z858" t="s">
         <v>32</v>
@@ -15421,7 +15427,7 @@
     </row>
     <row r="859" spans="25:26">
       <c r="Y859" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="Z859" t="s">
         <v>32</v>
@@ -15429,7 +15435,7 @@
     </row>
     <row r="860" spans="25:26">
       <c r="Y860" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="Z860" t="s">
         <v>32</v>
@@ -15437,7 +15443,7 @@
     </row>
     <row r="861" spans="25:26">
       <c r="Y861" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="Z861" t="s">
         <v>32</v>
@@ -15445,7 +15451,7 @@
     </row>
     <row r="862" spans="25:26">
       <c r="Y862" t="s">
-        <v>1303</v>
+        <v>1317</v>
       </c>
       <c r="Z862" t="s">
         <v>32</v>
@@ -15453,7 +15459,7 @@
     </row>
     <row r="863" spans="25:26">
       <c r="Y863" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="Z863" t="s">
         <v>32</v>
@@ -15461,7 +15467,7 @@
     </row>
     <row r="864" spans="25:26">
       <c r="Y864" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="Z864" t="s">
         <v>32</v>
@@ -15469,7 +15475,7 @@
     </row>
     <row r="865" spans="25:26">
       <c r="Y865" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="Z865" t="s">
         <v>32</v>
@@ -15477,7 +15483,7 @@
     </row>
     <row r="866" spans="25:26">
       <c r="Y866" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="Z866" t="s">
         <v>32</v>
@@ -15485,7 +15491,7 @@
     </row>
     <row r="867" spans="25:26">
       <c r="Y867" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
       <c r="Z867" t="s">
         <v>32</v>
@@ -15493,7 +15499,7 @@
     </row>
     <row r="868" spans="25:26">
       <c r="Y868" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="Z868" t="s">
         <v>32</v>
@@ -15501,7 +15507,7 @@
     </row>
     <row r="869" spans="25:26">
       <c r="Y869" t="s">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="Z869" t="s">
         <v>32</v>
@@ -15509,7 +15515,7 @@
     </row>
     <row r="870" spans="25:26">
       <c r="Y870" t="s">
-        <v>1311</v>
+        <v>1325</v>
       </c>
       <c r="Z870" t="s">
         <v>32</v>
@@ -15517,7 +15523,7 @@
     </row>
     <row r="871" spans="25:26">
       <c r="Y871" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="Z871" t="s">
         <v>32</v>
@@ -15525,7 +15531,7 @@
     </row>
     <row r="872" spans="25:26">
       <c r="Y872" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="Z872" t="s">
         <v>32</v>
@@ -15533,7 +15539,7 @@
     </row>
     <row r="873" spans="25:26">
       <c r="Y873" t="s">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="Z873" t="s">
         <v>32</v>
@@ -15541,7 +15547,7 @@
     </row>
     <row r="874" spans="25:26">
       <c r="Y874" t="s">
-        <v>1315</v>
+        <v>1329</v>
       </c>
       <c r="Z874" t="s">
         <v>32</v>
@@ -15549,7 +15555,7 @@
     </row>
     <row r="875" spans="25:26">
       <c r="Y875" t="s">
-        <v>1316</v>
+        <v>1330</v>
       </c>
       <c r="Z875" t="s">
         <v>32</v>
@@ -15557,7 +15563,7 @@
     </row>
     <row r="876" spans="25:26">
       <c r="Y876" t="s">
-        <v>1317</v>
+        <v>1331</v>
       </c>
       <c r="Z876" t="s">
         <v>32</v>
@@ -15565,7 +15571,7 @@
     </row>
     <row r="877" spans="25:26">
       <c r="Y877" t="s">
-        <v>1318</v>
+        <v>1332</v>
       </c>
       <c r="Z877" t="s">
         <v>32</v>
@@ -15573,7 +15579,7 @@
     </row>
     <row r="878" spans="25:26">
       <c r="Y878" t="s">
-        <v>1319</v>
+        <v>1333</v>
       </c>
       <c r="Z878" t="s">
         <v>32</v>
@@ -15581,7 +15587,7 @@
     </row>
     <row r="879" spans="25:26">
       <c r="Y879" t="s">
-        <v>1320</v>
+        <v>1334</v>
       </c>
       <c r="Z879" t="s">
         <v>32</v>
@@ -15589,7 +15595,7 @@
     </row>
     <row r="880" spans="25:26">
       <c r="Y880" t="s">
-        <v>1321</v>
+        <v>1335</v>
       </c>
       <c r="Z880" t="s">
         <v>32</v>
@@ -15597,7 +15603,7 @@
     </row>
     <row r="881" spans="25:26">
       <c r="Y881" t="s">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="Z881" t="s">
         <v>32</v>
@@ -15605,7 +15611,7 @@
     </row>
     <row r="882" spans="25:26">
       <c r="Y882" t="s">
-        <v>1248</v>
+        <v>1337</v>
       </c>
       <c r="Z882" t="s">
         <v>32</v>
@@ -15613,7 +15619,7 @@
     </row>
     <row r="883" spans="25:26">
       <c r="Y883" t="s">
-        <v>1323</v>
+        <v>1338</v>
       </c>
       <c r="Z883" t="s">
         <v>32</v>
@@ -15621,7 +15627,7 @@
     </row>
     <row r="884" spans="25:26">
       <c r="Y884" t="s">
-        <v>1324</v>
+        <v>1339</v>
       </c>
       <c r="Z884" t="s">
         <v>32</v>
@@ -15629,7 +15635,7 @@
     </row>
     <row r="885" spans="25:26">
       <c r="Y885" t="s">
-        <v>1325</v>
+        <v>1340</v>
       </c>
       <c r="Z885" t="s">
         <v>32</v>
@@ -15637,7 +15643,7 @@
     </row>
     <row r="886" spans="25:26">
       <c r="Y886" t="s">
-        <v>1326</v>
+        <v>1341</v>
       </c>
       <c r="Z886" t="s">
         <v>32</v>
@@ -15645,7 +15651,7 @@
     </row>
     <row r="887" spans="25:26">
       <c r="Y887" t="s">
-        <v>1327</v>
+        <v>1342</v>
       </c>
       <c r="Z887" t="s">
         <v>32</v>
@@ -15653,7 +15659,7 @@
     </row>
     <row r="888" spans="25:26">
       <c r="Y888" t="s">
-        <v>1328</v>
+        <v>1343</v>
       </c>
       <c r="Z888" t="s">
         <v>32</v>
@@ -15661,7 +15667,7 @@
     </row>
     <row r="889" spans="25:26">
       <c r="Y889" t="s">
-        <v>1329</v>
+        <v>1344</v>
       </c>
       <c r="Z889" t="s">
         <v>32</v>
@@ -15669,7 +15675,7 @@
     </row>
     <row r="890" spans="25:26">
       <c r="Y890" t="s">
-        <v>1330</v>
+        <v>1345</v>
       </c>
       <c r="Z890" t="s">
         <v>32</v>
@@ -15677,7 +15683,7 @@
     </row>
     <row r="891" spans="25:26">
       <c r="Y891" t="s">
-        <v>1331</v>
+        <v>1346</v>
       </c>
       <c r="Z891" t="s">
         <v>32</v>
@@ -15685,7 +15691,7 @@
     </row>
     <row r="892" spans="25:26">
       <c r="Y892" t="s">
-        <v>1332</v>
+        <v>1347</v>
       </c>
       <c r="Z892" t="s">
         <v>32</v>
@@ -15693,7 +15699,7 @@
     </row>
     <row r="893" spans="25:26">
       <c r="Y893" t="s">
-        <v>1333</v>
+        <v>1348</v>
       </c>
       <c r="Z893" t="s">
         <v>32</v>
@@ -15701,7 +15707,7 @@
     </row>
     <row r="894" spans="25:26">
       <c r="Y894" t="s">
-        <v>1334</v>
+        <v>1349</v>
       </c>
       <c r="Z894" t="s">
         <v>32</v>
@@ -15709,7 +15715,7 @@
     </row>
     <row r="895" spans="25:26">
       <c r="Y895" t="s">
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="Z895" t="s">
         <v>32</v>
@@ -15717,7 +15723,7 @@
     </row>
     <row r="896" spans="25:26">
       <c r="Y896" t="s">
-        <v>1336</v>
+        <v>1351</v>
       </c>
       <c r="Z896" t="s">
         <v>32</v>
@@ -15725,7 +15731,7 @@
     </row>
     <row r="897" spans="25:26">
       <c r="Y897" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="Z897" t="s">
         <v>32</v>
@@ -15733,7 +15739,7 @@
     </row>
     <row r="898" spans="25:26">
       <c r="Y898" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="Z898" t="s">
         <v>32</v>
@@ -15741,7 +15747,7 @@
     </row>
     <row r="899" spans="25:26">
       <c r="Y899" t="s">
-        <v>1339</v>
+        <v>1354</v>
       </c>
       <c r="Z899" t="s">
         <v>32</v>
@@ -15749,7 +15755,7 @@
     </row>
     <row r="900" spans="25:26">
       <c r="Y900" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
       <c r="Z900" t="s">
         <v>32</v>
@@ -15757,7 +15763,7 @@
     </row>
     <row r="901" spans="25:26">
       <c r="Y901" t="s">
-        <v>1341</v>
+        <v>1356</v>
       </c>
       <c r="Z901" t="s">
         <v>32</v>
@@ -15765,7 +15771,7 @@
     </row>
     <row r="902" spans="25:26">
       <c r="Y902" t="s">
-        <v>1342</v>
+        <v>1357</v>
       </c>
       <c r="Z902" t="s">
         <v>32</v>
@@ -15773,7 +15779,7 @@
     </row>
     <row r="903" spans="25:26">
       <c r="Y903" t="s">
-        <v>1343</v>
+        <v>1358</v>
       </c>
       <c r="Z903" t="s">
         <v>32</v>
@@ -15781,7 +15787,7 @@
     </row>
     <row r="904" spans="25:26">
       <c r="Y904" t="s">
-        <v>1344</v>
+        <v>1359</v>
       </c>
       <c r="Z904" t="s">
         <v>32</v>
@@ -15789,7 +15795,7 @@
     </row>
     <row r="905" spans="25:26">
       <c r="Y905" t="s">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="Z905" t="s">
         <v>32</v>
@@ -15797,7 +15803,7 @@
     </row>
     <row r="906" spans="25:26">
       <c r="Y906" t="s">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="Z906" t="s">
         <v>32</v>
@@ -15805,7 +15811,7 @@
     </row>
     <row r="907" spans="25:26">
       <c r="Y907" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="Z907" t="s">
         <v>32</v>
@@ -15813,7 +15819,7 @@
     </row>
     <row r="908" spans="25:26">
       <c r="Y908" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="Z908" t="s">
         <v>32</v>
@@ -15821,7 +15827,7 @@
     </row>
     <row r="909" spans="25:26">
       <c r="Y909" t="s">
-        <v>1349</v>
+        <v>1364</v>
       </c>
       <c r="Z909" t="s">
         <v>32</v>
@@ -15829,7 +15835,7 @@
     </row>
     <row r="910" spans="25:26">
       <c r="Y910" t="s">
-        <v>1350</v>
+        <v>1365</v>
       </c>
       <c r="Z910" t="s">
         <v>32</v>
@@ -15837,7 +15843,7 @@
     </row>
     <row r="911" spans="25:26">
       <c r="Y911" t="s">
-        <v>1351</v>
+        <v>1366</v>
       </c>
       <c r="Z911" t="s">
         <v>32</v>
@@ -15845,7 +15851,7 @@
     </row>
     <row r="912" spans="25:26">
       <c r="Y912" t="s">
-        <v>1352</v>
+        <v>1367</v>
       </c>
       <c r="Z912" t="s">
         <v>32</v>
@@ -15853,7 +15859,7 @@
     </row>
     <row r="913" spans="25:26">
       <c r="Y913" t="s">
-        <v>1353</v>
+        <v>1368</v>
       </c>
       <c r="Z913" t="s">
         <v>32</v>
@@ -15861,7 +15867,7 @@
     </row>
     <row r="914" spans="25:26">
       <c r="Y914" t="s">
-        <v>1354</v>
+        <v>1369</v>
       </c>
       <c r="Z914" t="s">
         <v>32</v>
@@ -15869,7 +15875,7 @@
     </row>
     <row r="915" spans="25:26">
       <c r="Y915" t="s">
-        <v>1355</v>
+        <v>1370</v>
       </c>
       <c r="Z915" t="s">
         <v>32</v>
@@ -15877,7 +15883,7 @@
     </row>
     <row r="916" spans="25:26">
       <c r="Y916" t="s">
-        <v>1356</v>
+        <v>1371</v>
       </c>
       <c r="Z916" t="s">
         <v>32</v>
@@ -15885,7 +15891,7 @@
     </row>
     <row r="917" spans="25:26">
       <c r="Y917" t="s">
-        <v>1357</v>
+        <v>1372</v>
       </c>
       <c r="Z917" t="s">
         <v>32</v>
@@ -15893,7 +15899,7 @@
     </row>
     <row r="918" spans="25:26">
       <c r="Y918" t="s">
-        <v>1358</v>
+        <v>1373</v>
       </c>
       <c r="Z918" t="s">
         <v>32</v>
@@ -15901,7 +15907,7 @@
     </row>
     <row r="919" spans="25:26">
       <c r="Y919" t="s">
-        <v>1359</v>
+        <v>1374</v>
       </c>
       <c r="Z919" t="s">
         <v>32</v>
@@ -15909,7 +15915,7 @@
     </row>
     <row r="920" spans="25:26">
       <c r="Y920" t="s">
-        <v>1360</v>
+        <v>1375</v>
       </c>
       <c r="Z920" t="s">
         <v>32</v>
@@ -15917,7 +15923,7 @@
     </row>
     <row r="921" spans="25:26">
       <c r="Y921" t="s">
-        <v>1361</v>
+        <v>1376</v>
       </c>
       <c r="Z921" t="s">
         <v>32</v>
@@ -15925,7 +15931,7 @@
     </row>
     <row r="922" spans="25:26">
       <c r="Y922" t="s">
-        <v>1362</v>
+        <v>1377</v>
       </c>
       <c r="Z922" t="s">
         <v>32</v>
@@ -15933,7 +15939,7 @@
     </row>
     <row r="923" spans="25:26">
       <c r="Y923" t="s">
-        <v>1363</v>
+        <v>1378</v>
       </c>
       <c r="Z923" t="s">
         <v>32</v>
@@ -15941,7 +15947,7 @@
     </row>
     <row r="924" spans="25:26">
       <c r="Y924" t="s">
-        <v>1364</v>
+        <v>1379</v>
       </c>
       <c r="Z924" t="s">
         <v>32</v>
@@ -15949,7 +15955,7 @@
     </row>
     <row r="925" spans="25:26">
       <c r="Y925" t="s">
-        <v>1365</v>
+        <v>1380</v>
       </c>
       <c r="Z925" t="s">
         <v>32</v>
@@ -15957,7 +15963,7 @@
     </row>
     <row r="926" spans="25:26">
       <c r="Y926" t="s">
-        <v>1366</v>
+        <v>1381</v>
       </c>
       <c r="Z926" t="s">
         <v>32</v>
@@ -15965,7 +15971,7 @@
     </row>
     <row r="927" spans="25:26">
       <c r="Y927" t="s">
-        <v>1367</v>
+        <v>1382</v>
       </c>
       <c r="Z927" t="s">
         <v>32</v>
@@ -15973,7 +15979,7 @@
     </row>
     <row r="928" spans="25:26">
       <c r="Y928" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="Z928" t="s">
         <v>32</v>
@@ -15981,7 +15987,7 @@
     </row>
     <row r="929" spans="25:26">
       <c r="Y929" t="s">
-        <v>1369</v>
+        <v>1384</v>
       </c>
       <c r="Z929" t="s">
         <v>32</v>
@@ -15989,7 +15995,7 @@
     </row>
     <row r="930" spans="25:26">
       <c r="Y930" t="s">
-        <v>1370</v>
+        <v>1385</v>
       </c>
       <c r="Z930" t="s">
         <v>32</v>
@@ -15997,7 +16003,7 @@
     </row>
     <row r="931" spans="25:26">
       <c r="Y931" t="s">
-        <v>1371</v>
+        <v>1386</v>
       </c>
       <c r="Z931" t="s">
         <v>32</v>
@@ -16005,7 +16011,7 @@
     </row>
     <row r="932" spans="25:26">
       <c r="Y932" t="s">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="Z932" t="s">
         <v>32</v>
@@ -16013,7 +16019,7 @@
     </row>
     <row r="933" spans="25:26">
       <c r="Y933" t="s">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="Z933" t="s">
         <v>32</v>
@@ -16021,7 +16027,7 @@
     </row>
     <row r="934" spans="25:26">
       <c r="Y934" t="s">
-        <v>1374</v>
+        <v>1389</v>
       </c>
       <c r="Z934" t="s">
         <v>32</v>
@@ -16029,7 +16035,7 @@
     </row>
     <row r="935" spans="25:26">
       <c r="Y935" t="s">
-        <v>1375</v>
+        <v>1390</v>
       </c>
       <c r="Z935" t="s">
         <v>32</v>
@@ -16037,7 +16043,7 @@
     </row>
     <row r="936" spans="25:26">
       <c r="Y936" t="s">
-        <v>1376</v>
+        <v>1391</v>
       </c>
       <c r="Z936" t="s">
         <v>32</v>
@@ -16045,7 +16051,7 @@
     </row>
     <row r="937" spans="25:26">
       <c r="Y937" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="Z937" t="s">
         <v>32</v>
@@ -16053,7 +16059,7 @@
     </row>
     <row r="938" spans="25:26">
       <c r="Y938" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="Z938" t="s">
         <v>32</v>
@@ -16061,7 +16067,7 @@
     </row>
     <row r="939" spans="25:26">
       <c r="Y939" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
       <c r="Z939" t="s">
         <v>32</v>
@@ -16069,7 +16075,7 @@
     </row>
     <row r="940" spans="25:26">
       <c r="Y940" t="s">
-        <v>1380</v>
+        <v>1395</v>
       </c>
       <c r="Z940" t="s">
         <v>32</v>
@@ -16077,7 +16083,7 @@
     </row>
     <row r="941" spans="25:26">
       <c r="Y941" t="s">
-        <v>1381</v>
+        <v>1396</v>
       </c>
       <c r="Z941" t="s">
         <v>32</v>
@@ -16085,7 +16091,7 @@
     </row>
     <row r="942" spans="25:26">
       <c r="Y942" t="s">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="Z942" t="s">
         <v>32</v>
@@ -16093,7 +16099,7 @@
     </row>
     <row r="943" spans="25:26">
       <c r="Y943" t="s">
-        <v>1383</v>
+        <v>1398</v>
       </c>
       <c r="Z943" t="s">
         <v>32</v>
@@ -16101,7 +16107,7 @@
     </row>
     <row r="944" spans="25:26">
       <c r="Y944" t="s">
-        <v>1384</v>
+        <v>1399</v>
       </c>
       <c r="Z944" t="s">
         <v>32</v>
@@ -16109,7 +16115,7 @@
     </row>
     <row r="945" spans="25:26">
       <c r="Y945" t="s">
-        <v>1385</v>
+        <v>1400</v>
       </c>
       <c r="Z945" t="s">
         <v>32</v>
@@ -16117,7 +16123,7 @@
     </row>
     <row r="946" spans="25:26">
       <c r="Y946" t="s">
-        <v>1386</v>
+        <v>1401</v>
       </c>
       <c r="Z946" t="s">
         <v>32</v>
@@ -16125,7 +16131,7 @@
     </row>
     <row r="947" spans="25:26">
       <c r="Y947" t="s">
-        <v>1387</v>
+        <v>1402</v>
       </c>
       <c r="Z947" t="s">
         <v>32</v>
@@ -16133,7 +16139,7 @@
     </row>
     <row r="948" spans="25:26">
       <c r="Y948" t="s">
-        <v>1388</v>
+        <v>1403</v>
       </c>
       <c r="Z948" t="s">
         <v>32</v>
@@ -16141,7 +16147,7 @@
     </row>
     <row r="949" spans="25:26">
       <c r="Y949" t="s">
-        <v>1389</v>
+        <v>1404</v>
       </c>
       <c r="Z949" t="s">
         <v>32</v>
@@ -16149,7 +16155,7 @@
     </row>
     <row r="950" spans="25:26">
       <c r="Y950" t="s">
-        <v>1390</v>
+        <v>1405</v>
       </c>
       <c r="Z950" t="s">
         <v>32</v>
@@ -16157,7 +16163,7 @@
     </row>
     <row r="951" spans="25:26">
       <c r="Y951" t="s">
-        <v>1391</v>
+        <v>1406</v>
       </c>
       <c r="Z951" t="s">
         <v>32</v>
@@ -16165,7 +16171,7 @@
     </row>
     <row r="952" spans="25:26">
       <c r="Y952" t="s">
-        <v>1392</v>
+        <v>1407</v>
       </c>
       <c r="Z952" t="s">
         <v>32</v>
@@ -16173,7 +16179,7 @@
     </row>
     <row r="953" spans="25:26">
       <c r="Y953" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="Z953" t="s">
         <v>32</v>
@@ -16181,7 +16187,7 @@
     </row>
     <row r="954" spans="25:26">
       <c r="Y954" t="s">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="Z954" t="s">
         <v>32</v>
@@ -16189,7 +16195,7 @@
     </row>
     <row r="955" spans="25:26">
       <c r="Y955" t="s">
-        <v>1395</v>
+        <v>1410</v>
       </c>
       <c r="Z955" t="s">
         <v>32</v>
@@ -16197,7 +16203,7 @@
     </row>
     <row r="956" spans="25:26">
       <c r="Y956" t="s">
-        <v>1396</v>
+        <v>1411</v>
       </c>
       <c r="Z956" t="s">
         <v>32</v>
@@ -16205,7 +16211,7 @@
     </row>
     <row r="957" spans="25:26">
       <c r="Y957" t="s">
-        <v>1397</v>
+        <v>1412</v>
       </c>
       <c r="Z957" t="s">
         <v>32</v>
@@ -16213,7 +16219,7 @@
     </row>
     <row r="958" spans="25:26">
       <c r="Y958" t="s">
-        <v>1398</v>
+        <v>1413</v>
       </c>
       <c r="Z958" t="s">
         <v>32</v>
@@ -16221,7 +16227,7 @@
     </row>
     <row r="959" spans="25:26">
       <c r="Y959" t="s">
-        <v>1399</v>
+        <v>1414</v>
       </c>
       <c r="Z959" t="s">
         <v>32</v>
@@ -16229,7 +16235,7 @@
     </row>
     <row r="960" spans="25:26">
       <c r="Y960" t="s">
-        <v>1400</v>
+        <v>1415</v>
       </c>
       <c r="Z960" t="s">
         <v>32</v>
@@ -16237,7 +16243,7 @@
     </row>
     <row r="961" spans="25:26">
       <c r="Y961" t="s">
-        <v>1401</v>
+        <v>1416</v>
       </c>
       <c r="Z961" t="s">
         <v>32</v>
@@ -16245,7 +16251,7 @@
     </row>
     <row r="962" spans="25:26">
       <c r="Y962" t="s">
-        <v>1402</v>
+        <v>1417</v>
       </c>
       <c r="Z962" t="s">
         <v>32</v>
@@ -16253,7 +16259,7 @@
     </row>
     <row r="963" spans="25:26">
       <c r="Y963" t="s">
-        <v>1403</v>
+        <v>1418</v>
       </c>
       <c r="Z963" t="s">
         <v>32</v>
@@ -16261,7 +16267,7 @@
     </row>
     <row r="964" spans="25:26">
       <c r="Y964" t="s">
-        <v>1404</v>
+        <v>1419</v>
       </c>
       <c r="Z964" t="s">
         <v>32</v>
@@ -16269,7 +16275,7 @@
     </row>
     <row r="965" spans="25:26">
       <c r="Y965" t="s">
-        <v>1405</v>
+        <v>1420</v>
       </c>
       <c r="Z965" t="s">
         <v>32</v>
@@ -16277,7 +16283,7 @@
     </row>
     <row r="966" spans="25:26">
       <c r="Y966" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="Z966" t="s">
         <v>32</v>
@@ -16285,7 +16291,7 @@
     </row>
     <row r="967" spans="25:26">
       <c r="Y967" t="s">
-        <v>1407</v>
+        <v>1422</v>
       </c>
       <c r="Z967" t="s">
         <v>32</v>
@@ -16293,7 +16299,7 @@
     </row>
     <row r="968" spans="25:26">
       <c r="Y968" t="s">
-        <v>1408</v>
+        <v>1423</v>
       </c>
       <c r="Z968" t="s">
         <v>32</v>
@@ -16301,7 +16307,7 @@
     </row>
     <row r="969" spans="25:26">
       <c r="Y969" t="s">
-        <v>1409</v>
+        <v>1424</v>
       </c>
       <c r="Z969" t="s">
         <v>32</v>
@@ -16309,7 +16315,7 @@
     </row>
     <row r="970" spans="25:26">
       <c r="Y970" t="s">
-        <v>1410</v>
+        <v>1425</v>
       </c>
       <c r="Z970" t="s">
         <v>32</v>
@@ -16317,7 +16323,7 @@
     </row>
     <row r="971" spans="25:26">
       <c r="Y971" t="s">
-        <v>1411</v>
+        <v>1426</v>
       </c>
       <c r="Z971" t="s">
         <v>32</v>
@@ -16325,7 +16331,7 @@
     </row>
     <row r="972" spans="25:26">
       <c r="Y972" t="s">
-        <v>1412</v>
+        <v>1427</v>
       </c>
       <c r="Z972" t="s">
         <v>32</v>
@@ -16333,7 +16339,7 @@
     </row>
     <row r="973" spans="25:26">
       <c r="Y973" t="s">
-        <v>1413</v>
+        <v>1428</v>
       </c>
       <c r="Z973" t="s">
         <v>32</v>
@@ -16341,7 +16347,7 @@
     </row>
     <row r="974" spans="25:26">
       <c r="Y974" t="s">
-        <v>1414</v>
+        <v>1429</v>
       </c>
       <c r="Z974" t="s">
         <v>32</v>
@@ -16349,7 +16355,7 @@
     </row>
     <row r="975" spans="25:26">
       <c r="Y975" t="s">
-        <v>1415</v>
+        <v>1430</v>
       </c>
       <c r="Z975" t="s">
         <v>32</v>
@@ -16357,7 +16363,7 @@
     </row>
     <row r="976" spans="25:26">
       <c r="Y976" t="s">
-        <v>1416</v>
+        <v>1431</v>
       </c>
       <c r="Z976" t="s">
         <v>32</v>
@@ -16365,7 +16371,7 @@
     </row>
     <row r="977" spans="25:26">
       <c r="Y977" t="s">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="Z977" t="s">
         <v>32</v>
@@ -16373,7 +16379,7 @@
     </row>
     <row r="978" spans="25:26">
       <c r="Y978" t="s">
-        <v>1418</v>
+        <v>1433</v>
       </c>
       <c r="Z978" t="s">
         <v>32</v>
@@ -16381,7 +16387,7 @@
     </row>
     <row r="979" spans="25:26">
       <c r="Y979" t="s">
-        <v>1419</v>
+        <v>1434</v>
       </c>
       <c r="Z979" t="s">
         <v>32</v>
@@ -16389,7 +16395,7 @@
     </row>
     <row r="980" spans="25:26">
       <c r="Y980" t="s">
-        <v>1420</v>
+        <v>1435</v>
       </c>
       <c r="Z980" t="s">
         <v>32</v>
@@ -16397,7 +16403,7 @@
     </row>
     <row r="981" spans="25:26">
       <c r="Y981" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="Z981" t="s">
         <v>32</v>
@@ -16405,7 +16411,7 @@
     </row>
     <row r="982" spans="25:26">
       <c r="Y982" t="s">
-        <v>1422</v>
+        <v>1437</v>
       </c>
       <c r="Z982" t="s">
         <v>32</v>
@@ -16413,7 +16419,7 @@
     </row>
     <row r="983" spans="25:26">
       <c r="Y983" t="s">
-        <v>1423</v>
+        <v>1438</v>
       </c>
       <c r="Z983" t="s">
         <v>32</v>
@@ -16421,7 +16427,7 @@
     </row>
     <row r="984" spans="25:26">
       <c r="Y984" t="s">
-        <v>1424</v>
+        <v>1439</v>
       </c>
       <c r="Z984" t="s">
         <v>32</v>
@@ -16429,7 +16435,7 @@
     </row>
     <row r="985" spans="25:26">
       <c r="Y985" t="s">
-        <v>1425</v>
+        <v>1440</v>
       </c>
       <c r="Z985" t="s">
         <v>32</v>
@@ -16437,7 +16443,7 @@
     </row>
     <row r="986" spans="25:26">
       <c r="Y986" t="s">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="Z986" t="s">
         <v>32</v>
@@ -16445,7 +16451,7 @@
     </row>
     <row r="987" spans="25:26">
       <c r="Y987" t="s">
-        <v>1427</v>
+        <v>1442</v>
       </c>
       <c r="Z987" t="s">
         <v>32</v>
@@ -16453,7 +16459,7 @@
     </row>
     <row r="988" spans="25:26">
       <c r="Y988" t="s">
-        <v>1428</v>
+        <v>1443</v>
       </c>
       <c r="Z988" t="s">
         <v>32</v>
@@ -16461,7 +16467,7 @@
     </row>
     <row r="989" spans="25:26">
       <c r="Y989" t="s">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="Z989" t="s">
         <v>32</v>
@@ -16469,7 +16475,7 @@
     </row>
     <row r="990" spans="25:26">
       <c r="Y990" t="s">
-        <v>1430</v>
+        <v>1445</v>
       </c>
       <c r="Z990" t="s">
         <v>32</v>
@@ -16477,7 +16483,7 @@
     </row>
     <row r="991" spans="25:26">
       <c r="Y991" t="s">
-        <v>1431</v>
+        <v>1446</v>
       </c>
       <c r="Z991" t="s">
         <v>32</v>
@@ -16485,129 +16491,9 @@
     </row>
     <row r="992" spans="25:26">
       <c r="Y992" t="s">
-        <v>1432</v>
+        <v>1447</v>
       </c>
       <c r="Z992" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="993" spans="25:26">
-      <c r="Y993" t="s">
-        <v>1433</v>
-      </c>
-      <c r="Z993" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="994" spans="25:26">
-      <c r="Y994" t="s">
-        <v>1434</v>
-      </c>
-      <c r="Z994" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="995" spans="25:26">
-      <c r="Y995" t="s">
-        <v>1435</v>
-      </c>
-      <c r="Z995" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="996" spans="25:26">
-      <c r="Y996" t="s">
-        <v>1436</v>
-      </c>
-      <c r="Z996" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="997" spans="25:26">
-      <c r="Y997" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Z997" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="998" spans="25:26">
-      <c r="Y998" t="s">
-        <v>1438</v>
-      </c>
-      <c r="Z998" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="999" spans="25:26">
-      <c r="Y999" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Z999" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1000" spans="25:26">
-      <c r="Y1000" t="s">
-        <v>1440</v>
-      </c>
-      <c r="Z1000" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1001" spans="25:26">
-      <c r="Y1001" t="s">
-        <v>1441</v>
-      </c>
-      <c r="Z1001" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1002" spans="25:26">
-      <c r="Y1002" t="s">
-        <v>1442</v>
-      </c>
-      <c r="Z1002" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1003" spans="25:26">
-      <c r="Y1003" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Z1003" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1004" spans="25:26">
-      <c r="Y1004" t="s">
-        <v>1444</v>
-      </c>
-      <c r="Z1004" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1005" spans="25:26">
-      <c r="Y1005" t="s">
-        <v>1445</v>
-      </c>
-      <c r="Z1005" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1006" spans="25:26">
-      <c r="Y1006" t="s">
-        <v>1446</v>
-      </c>
-      <c r="Z1006" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1007" spans="25:26">
-      <c r="Y1007" t="s">
-        <v>1447</v>
-      </c>
-      <c r="Z1007" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17432,7 +17318,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H1000001">
-      <formula1>'Codelijsten'!$Y$4:$Y$1007</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$992</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1000001">
       <formula1>'Codelijsten'!$AA$4:$AA$5</formula1>
@@ -17507,7 +17393,7 @@
       <c r="C1" s="5" t="s">
         <v>1526</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1528</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -17569,7 +17455,7 @@
       <c r="C2" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>1529</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -17672,7 +17558,7 @@
       <c r="C5" s="5" t="s">
         <v>1527</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>1529</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -17768,7 +17654,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17806,6 +17692,14 @@
         <v>1703</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1705</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="1708">
   <si>
     <t>identificatie</t>
   </si>
@@ -5112,7 +5112,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:01.607195</t>
+    <t>2025-02-14 14:05:31.618803</t>
   </si>
   <si>
     <t>version</t>
@@ -5121,10 +5121,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -17654,7 +17660,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17700,6 +17706,14 @@
         <v>1705</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5112,13 +5112,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:31.618803</t>
+    <t>2025-02-24 16:59:53.571281</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/grondwater_template.xlsx
+++ b/data/grondwater_template.xlsx
@@ -5112,13 +5112,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:53.571281</t>
+    <t>2025-02-28 11:24:47.085961</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
